--- a/Dataset 4; Aggregated simulation.xlsx
+++ b/Dataset 4; Aggregated simulation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens\Documents\Kandidat\2. semester\Covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jens\Documents\Kandidat\2. semester\Covid\Githubdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152989A5-6C1C-4520-9714-413250E21262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABC9638-077F-49AF-96B0-7EA3A5DAED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{21F56808-FBBC-40CE-83E5-B70089A3EDBC}"/>
   </bookViews>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3233E391-D1B5-441D-835F-31D32592BF0F}">
   <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,22 +480,22 @@
         <v>43895</v>
       </c>
       <c r="B3">
-        <v>11.975336293628253</v>
+        <v>12.207144037224527</v>
       </c>
       <c r="C3">
-        <v>10.870288283015901</v>
+        <v>11.600886323156388</v>
       </c>
       <c r="D3">
-        <v>13.080385304235183</v>
+        <v>12.813400751298087</v>
       </c>
       <c r="E3">
-        <v>11.86927186850007</v>
+        <v>12.212672007262793</v>
       </c>
       <c r="F3">
-        <v>10.879641232322683</v>
+        <v>11.608683280896681</v>
       </c>
       <c r="G3">
-        <v>12.858903504672034</v>
+        <v>12.816659733634323</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -506,22 +506,22 @@
         <v>43896</v>
       </c>
       <c r="B4">
-        <v>14.151631743575965</v>
+        <v>14.689970078358424</v>
       </c>
       <c r="C4">
-        <v>11.759484464361792</v>
+        <v>13.289497074302437</v>
       </c>
       <c r="D4">
-        <v>16.77902447409333</v>
+        <v>16.164788319999435</v>
       </c>
       <c r="E4">
-        <v>13.920668159743954</v>
+        <v>14.721935625303516</v>
       </c>
       <c r="F4">
-        <v>11.750123995728579</v>
+        <v>13.332320188260232</v>
       </c>
       <c r="G4">
-        <v>16.287084788935271</v>
+        <v>16.184510713510694</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -532,22 +532,22 @@
         <v>43897</v>
       </c>
       <c r="B5">
-        <v>16.51135308493129</v>
+        <v>17.471568958466346</v>
       </c>
       <c r="C5">
-        <v>12.597045768391959</v>
+        <v>15.079153439737635</v>
       </c>
       <c r="D5">
-        <v>21.223310065087297</v>
+        <v>20.122069544013993</v>
       </c>
       <c r="E5">
-        <v>16.121926978156885</v>
+        <v>17.51029121976039</v>
       </c>
       <c r="F5">
-        <v>12.571263662052381</v>
+        <v>15.128472819959498</v>
       </c>
       <c r="G5">
-        <v>20.33702069011559</v>
+        <v>20.147138801435197</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -558,22 +558,22 @@
         <v>43898</v>
       </c>
       <c r="B6">
-        <v>53.239201139870353</v>
+        <v>54.690843215600054</v>
       </c>
       <c r="C6">
-        <v>47.51514568646283</v>
+        <v>51.039765701219707</v>
       </c>
       <c r="D6">
-        <v>60.778700196677008</v>
+        <v>58.94636244788196</v>
       </c>
       <c r="E6">
-        <v>52.64207140475672</v>
+        <v>54.781796248151508</v>
       </c>
       <c r="F6">
-        <v>47.467840662608154</v>
+        <v>51.149620913662957</v>
       </c>
       <c r="G6">
-        <v>59.320397652501185</v>
+        <v>59.008210702621291</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -584,22 +584,22 @@
         <v>43899</v>
       </c>
       <c r="B7">
-        <v>117.7243878392481</v>
+        <v>120.7646005204145</v>
       </c>
       <c r="C7">
-        <v>106.3165002441213</v>
+        <v>113.46579721867306</v>
       </c>
       <c r="D7">
-        <v>132.59685402525628</v>
+        <v>129.23851244888488</v>
       </c>
       <c r="E7">
-        <v>116.53633379183887</v>
+        <v>121.00858648061379</v>
       </c>
       <c r="F7">
-        <v>106.2200375737167</v>
+        <v>113.76964288133412</v>
       </c>
       <c r="G7">
-        <v>129.72052066014055</v>
+        <v>129.40118733876236</v>
       </c>
       <c r="H7">
         <v>225</v>
@@ -610,22 +610,22 @@
         <v>43900</v>
       </c>
       <c r="B8">
-        <v>138.39786097356597</v>
+        <v>145.26248534804805</v>
       </c>
       <c r="C8">
-        <v>114.6598057895209</v>
+        <v>129.97189401685819</v>
       </c>
       <c r="D8">
-        <v>169.33811321803091</v>
+        <v>162.86311552901734</v>
       </c>
       <c r="E8">
-        <v>135.90372405381578</v>
+        <v>145.83503932384676</v>
       </c>
       <c r="F8">
-        <v>114.51223236332234</v>
+        <v>130.69121811995615</v>
       </c>
       <c r="G8">
-        <v>163.33549600423405</v>
+        <v>163.24273556581053</v>
       </c>
       <c r="H8">
         <v>408</v>
@@ -636,22 +636,22 @@
         <v>43901</v>
       </c>
       <c r="B9">
-        <v>160.97010223441907</v>
+        <v>172.79809276755964</v>
       </c>
       <c r="C9">
-        <v>122.98489673924877</v>
+        <v>147.44889588081983</v>
       </c>
       <c r="D9">
-        <v>213.65234302193858</v>
+        <v>202.79401832435818</v>
       </c>
       <c r="E9">
-        <v>156.84892466942594</v>
+        <v>173.76470278258353</v>
       </c>
       <c r="F9">
-        <v>122.78473469763713</v>
+        <v>148.62262161033107</v>
       </c>
       <c r="G9">
-        <v>203.23288715970625</v>
+        <v>203.45583841606998</v>
       </c>
       <c r="H9">
         <v>589</v>
@@ -662,22 +662,22 @@
         <v>43902</v>
       </c>
       <c r="B10">
-        <v>186.32476781879947</v>
+        <v>204.30584929890915</v>
       </c>
       <c r="C10">
-        <v>131.28368805908678</v>
+        <v>166.46647179706423</v>
       </c>
       <c r="D10">
-        <v>267.93921652510124</v>
+        <v>250.81810312815298</v>
       </c>
       <c r="E10">
-        <v>180.16872239425172</v>
+        <v>205.72654795583725</v>
       </c>
       <c r="F10">
-        <v>131.03482854643948</v>
+        <v>168.11907850453659</v>
       </c>
       <c r="G10">
-        <v>251.35492105670073</v>
+        <v>251.83142838204989</v>
       </c>
       <c r="H10">
         <v>622</v>
@@ -688,22 +688,22 @@
         <v>43903</v>
       </c>
       <c r="B11">
-        <v>200.6681732496246</v>
+        <v>221.01894680033183</v>
       </c>
       <c r="C11">
-        <v>140.38440609012417</v>
+        <v>179.16539412657426</v>
       </c>
       <c r="D11">
-        <v>291.20631748843311</v>
+        <v>272.70047340615878</v>
       </c>
       <c r="E11">
-        <v>193.99257699602066</v>
+        <v>222.8755399434433</v>
       </c>
       <c r="F11">
-        <v>140.22663821196272</v>
+        <v>181.12380061916099</v>
       </c>
       <c r="G11">
-        <v>272.69641265867136</v>
+        <v>274.32115589669883</v>
       </c>
       <c r="H11">
         <v>648</v>
@@ -714,22 +714,22 @@
         <v>43904</v>
       </c>
       <c r="B12">
-        <v>228.81177764645236</v>
+        <v>257.81715075499289</v>
       </c>
       <c r="C12">
-        <v>148.73409119740575</v>
+        <v>200.17307021824655</v>
       </c>
       <c r="D12">
-        <v>357.5402225511142</v>
+        <v>331.92750891278314</v>
       </c>
       <c r="E12">
-        <v>219.75763505325455</v>
+        <v>260.33734139149391</v>
       </c>
       <c r="F12">
-        <v>148.47709921668371</v>
+        <v>202.74402690995367</v>
       </c>
       <c r="G12">
-        <v>331.18364336804075</v>
+        <v>334.18239699538344</v>
       </c>
       <c r="H12">
         <v>679</v>
@@ -740,22 +740,22 @@
         <v>43905</v>
       </c>
       <c r="B13">
-        <v>260.45930687533007</v>
+        <v>299.22104496222278</v>
       </c>
       <c r="C13">
-        <v>157.40318165125663</v>
+        <v>222.27115917634933</v>
       </c>
       <c r="D13">
-        <v>439.02265625505902</v>
+        <v>402.62480673553432</v>
       </c>
       <c r="E13">
-        <v>248.49437945032048</v>
+        <v>302.96746094766604</v>
       </c>
       <c r="F13">
-        <v>156.9817762404968</v>
+        <v>225.98659899046345</v>
       </c>
       <c r="G13">
-        <v>402.00913522164308</v>
+        <v>406.01269599854413</v>
       </c>
       <c r="H13">
         <v>720</v>
@@ -766,22 +766,22 @@
         <v>43906</v>
       </c>
       <c r="B14">
-        <v>286.33575428904783</v>
+        <v>346.18676452991781</v>
       </c>
       <c r="C14">
-        <v>165.83516618110264</v>
+        <v>245.94692629119254</v>
       </c>
       <c r="D14">
-        <v>505.87689436158917</v>
+        <v>487.24681629945843</v>
       </c>
       <c r="E14">
-        <v>279.6585907263306</v>
+        <v>351.49290239879485</v>
       </c>
       <c r="F14">
-        <v>165.36448137347395</v>
+        <v>251.01997118989408</v>
       </c>
       <c r="G14">
-        <v>485.97258469462122</v>
+        <v>492.15570973594157</v>
       </c>
       <c r="H14">
         <v>792</v>
@@ -792,22 +792,22 @@
         <v>43907</v>
       </c>
       <c r="B15">
-        <v>304.38460194949425</v>
+        <v>399.70686307498329</v>
       </c>
       <c r="C15">
-        <v>174.15029958883591</v>
+        <v>271.5036465612489</v>
       </c>
       <c r="D15">
-        <v>545.73547938454817</v>
+        <v>588.84243468349098</v>
       </c>
       <c r="E15">
-        <v>314.09251401837093</v>
+        <v>406.90110051550988</v>
       </c>
       <c r="F15">
-        <v>173.89531137194643</v>
+        <v>278.10268385295728</v>
       </c>
       <c r="G15">
-        <v>587.19321386262766</v>
+        <v>595.70800611822767</v>
       </c>
       <c r="H15">
         <v>861</v>
@@ -818,22 +818,22 @@
         <v>43908</v>
       </c>
       <c r="B16">
-        <v>322.04254633030638</v>
+        <v>443.68339705032076</v>
       </c>
       <c r="C16">
-        <v>182.36890169306335</v>
+        <v>293.48124666934882</v>
       </c>
       <c r="D16">
-        <v>584.25318861122207</v>
+        <v>671.50050066578342</v>
       </c>
       <c r="E16">
-        <v>351.36801088033235</v>
+        <v>469.23826617374959</v>
       </c>
       <c r="F16">
-        <v>182.40519013397036</v>
+        <v>306.804280283617</v>
       </c>
       <c r="G16">
-        <v>707.40635949911825</v>
+        <v>718.75856710867515</v>
       </c>
       <c r="H16">
         <v>933</v>
@@ -844,22 +844,22 @@
         <v>43909</v>
       </c>
       <c r="B17">
-        <v>338.82217070590514</v>
+        <v>473.00750812285548</v>
       </c>
       <c r="C17">
-        <v>190.58392305828966</v>
+        <v>310.25346425352376</v>
       </c>
       <c r="D17">
-        <v>621.01727721706902</v>
+        <v>721.60116614067101</v>
       </c>
       <c r="E17">
-        <v>392.84390327106121</v>
+        <v>540.5675845243328</v>
       </c>
       <c r="F17">
-        <v>190.89186522167472</v>
+        <v>338.00653466609145</v>
       </c>
       <c r="G17">
-        <v>852.3613507949359</v>
+        <v>866.77135102114653</v>
       </c>
       <c r="H17">
         <v>1015</v>
@@ -870,22 +870,22 @@
         <v>43910</v>
       </c>
       <c r="B18">
-        <v>355.80546683344676</v>
+        <v>501.61036717231406</v>
       </c>
       <c r="C18">
-        <v>198.79888736468814</v>
+        <v>326.30410726044886</v>
       </c>
       <c r="D18">
-        <v>656.7057196459383</v>
+        <v>771.33818071519818</v>
       </c>
       <c r="E18">
-        <v>437.49732730914195</v>
+        <v>622.39783807166259</v>
       </c>
       <c r="F18">
-        <v>199.52270024941896</v>
+        <v>372.01756040382634</v>
       </c>
       <c r="G18">
-        <v>1024.0430158714123</v>
+        <v>1045.231150078077</v>
       </c>
       <c r="H18">
         <v>1108</v>
@@ -896,22 +896,22 @@
         <v>43911</v>
       </c>
       <c r="B19">
-        <v>373.64578026640424</v>
+        <v>528.92574782222925</v>
       </c>
       <c r="C19">
-        <v>207.20358306227925</v>
+        <v>341.96132147494268</v>
       </c>
       <c r="D19">
-        <v>695.78950550689933</v>
+        <v>818.27961986788011</v>
       </c>
       <c r="E19">
-        <v>486.8352187359817</v>
+        <v>715.56031960009045</v>
       </c>
       <c r="F19">
-        <v>207.93971351800664</v>
+        <v>408.72004091132078</v>
       </c>
       <c r="G19">
-        <v>1229.7525887011905</v>
+        <v>1259.0365635695425</v>
       </c>
       <c r="H19">
         <v>1151</v>
@@ -922,22 +922,22 @@
         <v>43912</v>
       </c>
       <c r="B20">
-        <v>392.28389849849179</v>
+        <v>555.54053826945153</v>
       </c>
       <c r="C20">
-        <v>215.9133779006462</v>
+        <v>357.33845982907781</v>
       </c>
       <c r="D20">
-        <v>737.14094909436653</v>
+        <v>863.8935681905823</v>
       </c>
       <c r="E20">
-        <v>541.94347328095012</v>
+        <v>821.58042188655998</v>
       </c>
       <c r="F20">
-        <v>216.62013530133297</v>
+        <v>448.18029532951186</v>
       </c>
       <c r="G20">
-        <v>1479.0579410358264</v>
+        <v>1515.5869625440264</v>
       </c>
       <c r="H20">
         <v>1204</v>
@@ -948,22 +948,22 @@
         <v>43913</v>
       </c>
       <c r="B21">
-        <v>412.00061771220396</v>
+        <v>585.3948873569401</v>
       </c>
       <c r="C21">
-        <v>224.87840920347895</v>
+        <v>373.70087918219684</v>
       </c>
       <c r="D21">
-        <v>780.60229536904092</v>
+        <v>917.11650577821433</v>
       </c>
       <c r="E21">
-        <v>601.6863134080495</v>
+        <v>942.25799450810962</v>
       </c>
       <c r="F21">
-        <v>225.17366641438554</v>
+        <v>490.68040747036559</v>
       </c>
       <c r="G21">
-        <v>1774.531090977234</v>
+        <v>1823.2291529985937</v>
       </c>
       <c r="H21">
         <v>1314</v>
@@ -974,22 +974,22 @@
         <v>43914</v>
       </c>
       <c r="B22">
-        <v>432.43046269894558</v>
+        <v>615.9475593848224</v>
       </c>
       <c r="C22">
-        <v>234.12141143586172</v>
+        <v>390.29878231485077</v>
       </c>
       <c r="D22">
-        <v>825.93256085705173</v>
+        <v>972.05677742820467</v>
       </c>
       <c r="E22">
-        <v>667.75867657191395</v>
+        <v>1080.0539450508222</v>
       </c>
       <c r="F22">
-        <v>233.88149681999391</v>
+        <v>536.66286647751167</v>
       </c>
       <c r="G22">
-        <v>2130.9409836674367</v>
+        <v>2193.0179065611655</v>
       </c>
       <c r="H22">
         <v>1436</v>
@@ -1000,22 +1000,22 @@
         <v>43915</v>
       </c>
       <c r="B23">
-        <v>452.71371506783453</v>
+        <v>646.86662086453089</v>
       </c>
       <c r="C23">
-        <v>243.46199318779009</v>
+        <v>407.40438268945468</v>
       </c>
       <c r="D23">
-        <v>871.08194369485523</v>
+        <v>1026.8485686699664</v>
       </c>
       <c r="E23">
-        <v>739.34993974519352</v>
+        <v>1235.0848949242186</v>
       </c>
       <c r="F23">
-        <v>242.56735677908779</v>
+        <v>585.39818984878946</v>
       </c>
       <c r="G23">
-        <v>2554.4348909452528</v>
+        <v>2632.3981973517248</v>
       </c>
       <c r="H23">
         <v>1565</v>
@@ -1026,22 +1026,22 @@
         <v>43916</v>
       </c>
       <c r="B24">
-        <v>474.02848665771091</v>
+        <v>679.03474235916997</v>
       </c>
       <c r="C24">
-        <v>253.13806912445634</v>
+        <v>425.13133144076761</v>
       </c>
       <c r="D24">
-        <v>918.37314306847043</v>
+        <v>1084.0967440899244</v>
       </c>
       <c r="E24">
-        <v>818.96055465855784</v>
+        <v>1412.4540198799505</v>
       </c>
       <c r="F24">
-        <v>251.22953664314821</v>
+        <v>638.3717287549</v>
       </c>
       <c r="G24">
-        <v>3064.908914744979</v>
+        <v>3160.7926722982397</v>
       </c>
       <c r="H24">
         <v>1708</v>
@@ -1052,22 +1052,22 @@
         <v>43917</v>
       </c>
       <c r="B25">
-        <v>495.27111588393859</v>
+        <v>712.59955153397641</v>
       </c>
       <c r="C25">
-        <v>262.90601118887497</v>
+        <v>443.53417906557723</v>
       </c>
       <c r="D25">
-        <v>965.67099200449707</v>
+        <v>1144.1295620137448</v>
       </c>
       <c r="E25">
-        <v>904.86396660009507</v>
+        <v>1615.9171070839645</v>
       </c>
       <c r="F25">
-        <v>260.04055171612544</v>
+        <v>696.11127329624935</v>
       </c>
       <c r="G25">
-        <v>3670.2023037252575</v>
+        <v>3797.7399948194334</v>
       </c>
       <c r="H25">
         <v>1898</v>
@@ -1078,22 +1078,22 @@
         <v>43918</v>
       </c>
       <c r="B26">
-        <v>516.86458467244006</v>
+        <v>747.11276557371843</v>
       </c>
       <c r="C26">
-        <v>272.64126151083309</v>
+        <v>462.33694656242676</v>
       </c>
       <c r="D26">
-        <v>1014.0243666918116</v>
+        <v>1206.2351541788717</v>
       </c>
       <c r="E26">
-        <v>999.54987964339387</v>
+        <v>1847.5236167495775</v>
       </c>
       <c r="F26">
-        <v>268.63006949234733</v>
+        <v>758.41362859141873</v>
       </c>
       <c r="G26">
-        <v>4394.4559503067767</v>
+        <v>4560.6100173493096</v>
       </c>
       <c r="H26">
         <v>2077</v>
@@ -1104,22 +1104,22 @@
         <v>43919</v>
       </c>
       <c r="B27">
-        <v>539.50102461021379</v>
+        <v>782.33443186619161</v>
       </c>
       <c r="C27">
-        <v>282.6890865950283</v>
+        <v>481.32490788955681</v>
       </c>
       <c r="D27">
-        <v>1065.363495996919</v>
+        <v>1270.264165148599</v>
       </c>
       <c r="E27">
-        <v>1105.4576864011506</v>
+        <v>2111.0934606425908</v>
       </c>
       <c r="F27">
-        <v>277.49252446352671</v>
+        <v>825.40306461581918</v>
       </c>
       <c r="G27">
-        <v>5272.735892753808</v>
+        <v>5475.7912881034154</v>
       </c>
       <c r="H27">
         <v>2196</v>
@@ -1130,22 +1130,22 @@
         <v>43920</v>
       </c>
       <c r="B28">
-        <v>561.89308491608347</v>
+        <v>818.11193548046526</v>
       </c>
       <c r="C28">
-        <v>292.5802791499467</v>
+        <v>500.48943603349812</v>
       </c>
       <c r="D28">
-        <v>1116.3683589633233</v>
+        <v>1335.7262960914281</v>
       </c>
       <c r="E28">
-        <v>1220.2313784371872</v>
+        <v>2411.0747969682297</v>
       </c>
       <c r="F28">
-        <v>286.22297108039226</v>
+        <v>897.55163755897479</v>
       </c>
       <c r="G28">
-        <v>6313.1732836708679</v>
+        <v>6572.8566869057559</v>
       </c>
       <c r="H28">
         <v>2464</v>
@@ -1156,22 +1156,22 @@
         <v>43921</v>
       </c>
       <c r="B29">
-        <v>585.08053841434696</v>
+        <v>854.53778259366845</v>
       </c>
       <c r="C29">
-        <v>302.67526874105374</v>
+        <v>519.90658486167183</v>
       </c>
       <c r="D29">
-        <v>1169.9316214790063</v>
+        <v>1402.7078516686286</v>
       </c>
       <c r="E29">
-        <v>1347.2790190476826</v>
+        <v>2753.5914350394278</v>
       </c>
       <c r="F29">
-        <v>295.11414922368715</v>
+        <v>975.6164586298205</v>
       </c>
       <c r="G29">
-        <v>7568.6023495807021</v>
+        <v>7891.0546329055287</v>
       </c>
       <c r="H29">
         <v>2668</v>
@@ -1182,22 +1182,22 @@
         <v>43922</v>
       </c>
       <c r="B30">
-        <v>608.04627421888631</v>
+        <v>890.4741236287</v>
       </c>
       <c r="C30">
-        <v>312.75565576843542</v>
+        <v>538.915037965951</v>
       </c>
       <c r="D30">
-        <v>1223.5677030586735</v>
+        <v>1469.282353829647</v>
       </c>
       <c r="E30">
-        <v>1485.0602507334236</v>
+        <v>3138.9293351989281</v>
       </c>
       <c r="F30">
-        <v>303.98229125366362</v>
+        <v>1058.361282711194</v>
       </c>
       <c r="G30">
-        <v>9060.6224738907622</v>
+        <v>9456.6513519942</v>
       </c>
       <c r="H30">
         <v>2893</v>
@@ -1208,22 +1208,22 @@
         <v>43923</v>
       </c>
       <c r="B31">
-        <v>632.00343141364101</v>
+        <v>927.64359380517135</v>
       </c>
       <c r="C31">
-        <v>323.03349379659699</v>
+        <v>558.49760675027312</v>
       </c>
       <c r="D31">
-        <v>1279.7979285581309</v>
+        <v>1538.4403770118251</v>
       </c>
       <c r="E31">
-        <v>1638.1834551910383</v>
+        <v>3579.6878399976972</v>
       </c>
       <c r="F31">
-        <v>312.82627290712003</v>
+        <v>1148.2873771638569</v>
       </c>
       <c r="G31">
-        <v>10857.843486438478</v>
+        <v>11338.171079338314</v>
       </c>
       <c r="H31">
         <v>3223</v>
@@ -1234,22 +1234,22 @@
         <v>43924</v>
       </c>
       <c r="B32">
-        <v>656.07455086942332</v>
+        <v>966.05037632132257</v>
       </c>
       <c r="C32">
-        <v>333.57074716914292</v>
+        <v>578.65940366350014</v>
       </c>
       <c r="D32">
-        <v>1336.0766060909032</v>
+        <v>1610.165540713715</v>
       </c>
       <c r="E32">
-        <v>1803.7678965104897</v>
+        <v>4085.1952532953173</v>
       </c>
       <c r="F32">
-        <v>321.82391470864377</v>
+        <v>1246.2984730045293</v>
       </c>
       <c r="G32">
-        <v>12990.438623808186</v>
+        <v>13604.561486656916</v>
       </c>
       <c r="H32">
         <v>3623</v>
@@ -1260,22 +1260,22 @@
         <v>43925</v>
       </c>
       <c r="B33">
-        <v>680.36907366333855</v>
+        <v>1004.9797756457281</v>
       </c>
       <c r="C33">
-        <v>343.97201383163303</v>
+        <v>599.027170782349</v>
       </c>
       <c r="D33">
-        <v>1393.3957736414918</v>
+        <v>1683.1142018036694</v>
       </c>
       <c r="E33">
-        <v>1985.8505601423039</v>
+        <v>4660.4763795312165</v>
       </c>
       <c r="F33">
-        <v>330.59210636545004</v>
+        <v>1352.0423912151232</v>
       </c>
       <c r="G33">
-        <v>15537.426992299446</v>
+        <v>16316.477928547076</v>
       </c>
       <c r="H33">
         <v>3886</v>
@@ -1286,22 +1286,22 @@
         <v>43926</v>
       </c>
       <c r="B34">
-        <v>706.04679621707135</v>
+        <v>1045.1497599327142</v>
       </c>
       <c r="C34">
-        <v>354.86942337677596</v>
+        <v>619.7807169787385</v>
       </c>
       <c r="D34">
-        <v>1454.3859296585783</v>
+        <v>1759.2965186616834</v>
       </c>
       <c r="E34">
-        <v>2189.7837857149507</v>
+        <v>5315.0670495417799</v>
       </c>
       <c r="F34">
-        <v>339.64311244288587</v>
+        <v>1465.7499321205792</v>
       </c>
       <c r="G34">
-        <v>18626.137485017956</v>
+        <v>19566.755392942694</v>
       </c>
       <c r="H34">
         <v>4023</v>
@@ -1312,22 +1312,22 @@
         <v>43927</v>
       </c>
       <c r="B35">
-        <v>731.28579726879036</v>
+        <v>1085.6926552355342</v>
       </c>
       <c r="C35">
-        <v>365.40827341346812</v>
+        <v>640.62350771004117</v>
       </c>
       <c r="D35">
-        <v>1515.185878264768</v>
+        <v>1836.5862046270759</v>
       </c>
       <c r="E35">
-        <v>2410.7048751282555</v>
+        <v>6059.9128354723234</v>
       </c>
       <c r="F35">
-        <v>348.55678549876973</v>
+        <v>1588.2102803202649</v>
       </c>
       <c r="G35">
-        <v>22280.848122079304</v>
+        <v>23458.249389680004</v>
       </c>
       <c r="H35">
         <v>4375</v>
@@ -1338,22 +1338,22 @@
         <v>43928</v>
       </c>
       <c r="B36">
-        <v>757.42334887971174</v>
+        <v>1127.5531068314892</v>
       </c>
       <c r="C36">
-        <v>376.14405753170342</v>
+        <v>661.9712818754067</v>
       </c>
       <c r="D36">
-        <v>1579.2255858830977</v>
+        <v>1917.0082408911205</v>
       </c>
       <c r="E36">
-        <v>2655.4599874356104</v>
+        <v>6910.1947862151465</v>
       </c>
       <c r="F36">
-        <v>357.63789083467401</v>
+        <v>1720.7183103530231</v>
       </c>
       <c r="G36">
-        <v>26688.613157036649</v>
+        <v>28127.600875759934</v>
       </c>
       <c r="H36">
         <v>4654</v>
@@ -1364,22 +1364,22 @@
         <v>43929</v>
       </c>
       <c r="B37">
-        <v>783.46052617719079</v>
+        <v>1168.2912757837848</v>
       </c>
       <c r="C37">
-        <v>387.01223644430797</v>
+        <v>682.63573068485607</v>
       </c>
       <c r="D37">
-        <v>1643.1259560191725</v>
+        <v>1995.6941071120914</v>
       </c>
       <c r="E37">
-        <v>2921.111139695111</v>
+        <v>7866.5637083148513</v>
       </c>
       <c r="F37">
-        <v>366.69484587445208</v>
+        <v>1861.1790250687284</v>
       </c>
       <c r="G37">
-        <v>31923.001323456683</v>
+        <v>33664.178514027757</v>
       </c>
       <c r="H37">
         <v>4898</v>
@@ -1390,22 +1390,22 @@
         <v>43930</v>
       </c>
       <c r="B38">
-        <v>810.57534770775146</v>
+        <v>1210.2576908789661</v>
       </c>
       <c r="C38">
-        <v>398.08317920576877</v>
+        <v>703.85322967733691</v>
       </c>
       <c r="D38">
-        <v>1710.047412496918</v>
+        <v>2077.0529917404224</v>
       </c>
       <c r="E38">
-        <v>3216.1627065574703</v>
+        <v>8959.9841402773109</v>
       </c>
       <c r="F38">
-        <v>375.72715671390426</v>
+        <v>2013.8020946974111</v>
       </c>
       <c r="G38">
-        <v>38216.490149944613</v>
+        <v>40303.368643001202</v>
       </c>
       <c r="H38">
         <v>5011</v>
@@ -1416,22 +1416,22 @@
         <v>43931</v>
       </c>
       <c r="B39">
-        <v>837.62828177598249</v>
+        <v>1254.0897484352251</v>
       </c>
       <c r="C39">
-        <v>409.09961052124243</v>
+        <v>725.89940296585723</v>
       </c>
       <c r="D39">
-        <v>1778.3740175113767</v>
+        <v>2162.4610231433767</v>
       </c>
       <c r="E39">
-        <v>3535.878952736155</v>
+        <v>10213.497545621633</v>
       </c>
       <c r="F39">
-        <v>384.91810695267367</v>
+        <v>2180.1340938554167</v>
       </c>
       <c r="G39">
-        <v>45679.607639713613</v>
+        <v>48280.471274749842</v>
       </c>
       <c r="H39">
         <v>5134</v>
@@ -1442,22 +1442,22 @@
         <v>43932</v>
       </c>
       <c r="B40">
-        <v>864.60581284824252</v>
+        <v>1298.4862306825</v>
       </c>
       <c r="C40">
-        <v>419.49896692805498</v>
+        <v>748.15720544468923</v>
       </c>
       <c r="D40">
-        <v>1848.7449221467432</v>
+        <v>2249.2546369489123</v>
       </c>
       <c r="E40">
-        <v>3886.6365897693659</v>
+        <v>11639.254053773235</v>
       </c>
       <c r="F40">
-        <v>393.87136679539049</v>
+        <v>2359.5638226889023</v>
       </c>
       <c r="G40">
-        <v>54561.675658837761</v>
+        <v>57795.976464029998</v>
       </c>
       <c r="H40">
         <v>5239</v>
@@ -1468,22 +1468,22 @@
         <v>43933</v>
       </c>
       <c r="B41">
-        <v>893.13857905427608</v>
+        <v>1342.6824948102173</v>
       </c>
       <c r="C41">
-        <v>430.52228401105526</v>
+        <v>770.14220006993014</v>
       </c>
       <c r="D41">
-        <v>1923.6186504099726</v>
+        <v>2336.3308979917465</v>
       </c>
       <c r="E41">
-        <v>4279.9720415761476</v>
+        <v>13260.876091203287</v>
       </c>
       <c r="F41">
-        <v>403.11767964465827</v>
+        <v>2552.5166338917738</v>
       </c>
       <c r="G41">
-        <v>65312.095589291275</v>
+        <v>69161.191279165956</v>
       </c>
       <c r="H41">
         <v>5374</v>
@@ -1494,22 +1494,22 @@
         <v>43934</v>
       </c>
       <c r="B42">
-        <v>921.36393171995314</v>
+        <v>1386.8588254945628</v>
       </c>
       <c r="C42">
-        <v>441.39993913910195</v>
+        <v>791.96104044887443</v>
       </c>
       <c r="D42">
-        <v>1997.7871566667568</v>
+        <v>2423.9839704703895</v>
       </c>
       <c r="E42">
-        <v>4705.891028848213</v>
+        <v>15105.008813110791</v>
       </c>
       <c r="F42">
-        <v>412.2211194161091</v>
+        <v>2760.3098104939345</v>
       </c>
       <c r="G42">
-        <v>77987.642115360984</v>
+        <v>82711.098172474914</v>
       </c>
       <c r="H42">
         <v>5499</v>
@@ -1520,22 +1520,22 @@
         <v>43935</v>
       </c>
       <c r="B43">
-        <v>950.73832679342831</v>
+        <v>1432.2311071956055</v>
       </c>
       <c r="C43">
-        <v>452.66266156835695</v>
+        <v>814.24155466324862</v>
       </c>
       <c r="D43">
-        <v>2075.4501298107061</v>
+        <v>2514.5248095733709</v>
       </c>
       <c r="E43">
-        <v>5178.1288245286723</v>
+        <v>17208.936299400568</v>
       </c>
       <c r="F43">
-        <v>421.49897189516849</v>
+        <v>2985.1563753138357</v>
       </c>
       <c r="G43">
-        <v>93225.86196549944</v>
+        <v>98889.771218250855</v>
       </c>
       <c r="H43">
         <v>5711</v>
@@ -1546,22 +1546,22 @@
         <v>43936</v>
       </c>
       <c r="B44">
-        <v>980.08406973049387</v>
+        <v>1477.1998391192085</v>
       </c>
       <c r="C44">
-        <v>464.13386885171531</v>
+        <v>836.14574828914351</v>
       </c>
       <c r="D44">
-        <v>2152.6850224274526</v>
+        <v>2604.9535752617621</v>
       </c>
       <c r="E44">
-        <v>5691.0594679366559</v>
+        <v>19573.8271931278</v>
       </c>
       <c r="F44">
-        <v>430.7515092316861</v>
+        <v>3223.5063486549084</v>
       </c>
       <c r="G44">
-        <v>111249.83814624496</v>
+        <v>117963.42642555515</v>
       </c>
       <c r="H44">
         <v>5882</v>
@@ -1572,22 +1572,22 @@
         <v>43937</v>
       </c>
       <c r="B45">
-        <v>1010.6276613565201</v>
+        <v>1523.9109794992764</v>
       </c>
       <c r="C45">
-        <v>475.81330094780202</v>
+        <v>858.83252735001952</v>
       </c>
       <c r="D45">
-        <v>2233.4322079428061</v>
+        <v>2699.200758462192</v>
       </c>
       <c r="E45">
-        <v>6260.3882518349292</v>
+        <v>22274.922728671932</v>
       </c>
       <c r="F45">
-        <v>439.97891534722953</v>
+        <v>3482.4378955354255</v>
       </c>
       <c r="G45">
-        <v>132796.81645495584</v>
+        <v>140668.42689631088</v>
       </c>
       <c r="H45">
         <v>6018</v>
@@ -1598,22 +1598,22 @@
         <v>43938</v>
       </c>
       <c r="B46">
-        <v>1041.1357316513186</v>
+        <v>1572.9008660060399</v>
       </c>
       <c r="C46">
-        <v>487.35114656695487</v>
+        <v>882.51081905847559</v>
       </c>
       <c r="D46">
-        <v>2316.7285267277589</v>
+        <v>2798.5177043799858</v>
       </c>
       <c r="E46">
-        <v>6878.4786497618861</v>
+        <v>25368.374003709669</v>
       </c>
       <c r="F46">
-        <v>449.37009920269816</v>
+        <v>3764.5954433148581</v>
       </c>
       <c r="G46">
-        <v>158217.48923938867</v>
+        <v>167719.60335827252</v>
       </c>
       <c r="H46">
         <v>6163</v>
@@ -1624,22 +1624,22 @@
         <v>43939</v>
       </c>
       <c r="B47">
-        <v>1071.9552376106731</v>
+        <v>1622.6078283983288</v>
       </c>
       <c r="C47">
-        <v>499.0292791064208</v>
+        <v>906.45014976990251</v>
       </c>
       <c r="D47">
-        <v>2399.2615675661891</v>
+        <v>2899.6485083205152</v>
       </c>
       <c r="E47">
-        <v>7555.0182942774682</v>
+        <v>28882.548500503017</v>
       </c>
       <c r="F47">
-        <v>458.5150545467655</v>
+        <v>4068.9158160889792</v>
       </c>
       <c r="G47">
-        <v>188198.5219485022</v>
+        <v>199658.31737456436</v>
       </c>
       <c r="H47">
         <v>6250</v>
@@ -1650,22 +1650,22 @@
         <v>43940</v>
       </c>
       <c r="B48">
-        <v>1104.6085480283602</v>
+        <v>1671.7677344306653</v>
       </c>
       <c r="C48">
-        <v>511.2656918220473</v>
+        <v>929.92148741170831</v>
       </c>
       <c r="D48">
-        <v>2487.4188961137056</v>
+        <v>3000.5228749728058</v>
       </c>
       <c r="E48">
-        <v>8314.5174199311987</v>
+        <v>32874.882957508584</v>
       </c>
       <c r="F48">
-        <v>467.96367612865623</v>
+        <v>4396.1774195868193</v>
       </c>
       <c r="G48">
-        <v>224185.05329123395</v>
+        <v>237370.19618535583</v>
       </c>
       <c r="H48">
         <v>6346</v>
@@ -1676,22 +1676,22 @@
         <v>43941</v>
       </c>
       <c r="B49">
-        <v>1134.5324716171299</v>
+        <v>1723.0569430301407</v>
       </c>
       <c r="C49">
-        <v>522.59131612274496</v>
+        <v>954.23383398792214</v>
       </c>
       <c r="D49">
-        <v>2569.3169143484561</v>
+        <v>3106.5159850042128</v>
       </c>
       <c r="E49">
-        <v>9136.5080694741191</v>
+        <v>37408.535783597617</v>
       </c>
       <c r="F49">
-        <v>477.26366044129111</v>
+        <v>4748.5733881593105</v>
       </c>
       <c r="G49">
-        <v>266140.86064668291</v>
+        <v>281718.72649763757</v>
       </c>
       <c r="H49">
         <v>6533</v>
@@ -1702,22 +1702,22 @@
         <v>43942</v>
       </c>
       <c r="B50">
-        <v>1165.4389193615891</v>
+        <v>1775.7303574676994</v>
       </c>
       <c r="C50">
-        <v>534.16573910635213</v>
+        <v>979.03693780788308</v>
       </c>
       <c r="D50">
-        <v>2655.5522259483423</v>
+        <v>3216.0786696801088</v>
       </c>
       <c r="E50">
-        <v>10048.493950826991</v>
+        <v>42573.012557474904</v>
       </c>
       <c r="F50">
-        <v>486.74532917662418</v>
+        <v>5129.8814591300106</v>
       </c>
       <c r="G50">
-        <v>315973.97768064891</v>
+        <v>333843.99380542035</v>
       </c>
       <c r="H50">
         <v>6716</v>
@@ -1728,22 +1728,22 @@
         <v>43943</v>
       </c>
       <c r="B51">
-        <v>1196.1015612781564</v>
+        <v>1823.0222534906047</v>
       </c>
       <c r="C51">
-        <v>545.6930491410028</v>
+        <v>1001.8236267893166</v>
       </c>
       <c r="D51">
-        <v>2739.6906017496017</v>
+        <v>3313.1206862031763</v>
       </c>
       <c r="E51">
-        <v>11038.217571977628</v>
+        <v>48349.013334892035</v>
       </c>
       <c r="F51">
-        <v>496.25757071328587</v>
+        <v>5534.0704873247814</v>
       </c>
       <c r="G51">
-        <v>373761.99014912185</v>
+        <v>393882.71798607305</v>
       </c>
       <c r="H51">
         <v>6910</v>
@@ -1754,22 +1754,22 @@
         <v>43944</v>
       </c>
       <c r="B52">
-        <v>1227.7977177504558</v>
+        <v>1871.6998795871775</v>
       </c>
       <c r="C52">
-        <v>557.40854760322941</v>
+        <v>1024.7170842213973</v>
       </c>
       <c r="D52">
-        <v>2828.0352415400321</v>
+        <v>3414.993434372107</v>
       </c>
       <c r="E52">
-        <v>12137.284383062395</v>
+        <v>54948.966585948016</v>
       </c>
       <c r="F52">
-        <v>505.69184208751159</v>
+        <v>5973.0533737400019</v>
       </c>
       <c r="G52">
-        <v>441909.47089687095</v>
+        <v>464061.13035295985</v>
       </c>
       <c r="H52">
         <v>7109</v>
@@ -1780,22 +1780,22 @@
         <v>43945</v>
       </c>
       <c r="B53">
-        <v>1260.0992940156139</v>
+        <v>1922.2885116079988</v>
       </c>
       <c r="C53">
-        <v>569.34383305644997</v>
+        <v>1048.3723492542306</v>
       </c>
       <c r="D53">
-        <v>2917.7767421149711</v>
+        <v>3521.1167916041163</v>
       </c>
       <c r="E53">
-        <v>13332.48666018567</v>
+        <v>62489.519784029129</v>
       </c>
       <c r="F53">
-        <v>515.29539625027951</v>
+        <v>6451.3312946673723</v>
       </c>
       <c r="G53">
-        <v>520785.26747799281</v>
+        <v>545598.887811761</v>
       </c>
       <c r="H53">
         <v>7246</v>
@@ -1806,22 +1806,22 @@
         <v>43946</v>
       </c>
       <c r="B54">
-        <v>1290.829861116257</v>
+        <v>1973.3259947670726</v>
       </c>
       <c r="C54">
-        <v>580.81607901823475</v>
+        <v>1072.1710681755135</v>
       </c>
       <c r="D54">
-        <v>3003.1654499107317</v>
+        <v>3628.4792940077486</v>
       </c>
       <c r="E54">
-        <v>14637.631276826638</v>
+        <v>71031.069448775481</v>
       </c>
       <c r="F54">
-        <v>524.64360550391348</v>
+        <v>6967.0477016490177</v>
       </c>
       <c r="G54">
-        <v>611433.02722673735</v>
+        <v>639059.63024134282</v>
       </c>
       <c r="H54">
         <v>7351</v>
@@ -1832,22 +1832,22 @@
         <v>43947</v>
       </c>
       <c r="B55">
-        <v>1323.2299860655307</v>
+        <v>2024.4849842272083</v>
       </c>
       <c r="C55">
-        <v>592.73113150701897</v>
+        <v>1095.8215833476377</v>
       </c>
       <c r="D55">
-        <v>3094.8945022260632</v>
+        <v>3737.054842226592</v>
       </c>
       <c r="E55">
-        <v>16104.119308304918</v>
+        <v>80707.125034700846</v>
       </c>
       <c r="F55">
-        <v>534.3068150785499</v>
+        <v>7521.6174432716352</v>
       </c>
       <c r="G55">
-        <v>717289.8344387078</v>
+        <v>745915.85238459462</v>
       </c>
       <c r="H55">
         <v>7455</v>
@@ -1858,22 +1858,22 @@
         <v>43948</v>
       </c>
       <c r="B56">
-        <v>1354.7810567841116</v>
+        <v>2075.2489727766051</v>
       </c>
       <c r="C56">
-        <v>604.37027035877929</v>
+        <v>1119.6772322833406</v>
       </c>
       <c r="D56">
-        <v>3184.7436234439756</v>
+        <v>3843.2159660515363</v>
       </c>
       <c r="E56">
-        <v>17690.174553904944</v>
+        <v>91657.804049785846</v>
       </c>
       <c r="F56">
-        <v>543.81529552462985</v>
+        <v>8118.6763598705529</v>
       </c>
       <c r="G56">
-        <v>836627.98411832692</v>
+        <v>867016.27980930894</v>
       </c>
       <c r="H56">
         <v>7654</v>
@@ -1884,22 +1884,22 @@
         <v>43949</v>
       </c>
       <c r="B57">
-        <v>1387.4702397330279</v>
+        <v>2126.3941251618871</v>
       </c>
       <c r="C57">
-        <v>616.20355063069258</v>
+        <v>1143.5936767653081</v>
       </c>
       <c r="D57">
-        <v>3279.7597486976451</v>
+        <v>3950.6822121324103</v>
       </c>
       <c r="E57">
-        <v>19450.678846165094</v>
+        <v>104086.48530986129</v>
       </c>
       <c r="F57">
-        <v>553.51313369847367</v>
+        <v>8764.6605791668153</v>
       </c>
       <c r="G57">
-        <v>973212.73493540508</v>
+        <v>1003649.9647855323</v>
       </c>
       <c r="H57">
         <v>7766</v>
@@ -1910,22 +1910,22 @@
         <v>43950</v>
       </c>
       <c r="B58">
-        <v>1420.2982163352849</v>
+        <v>2176.2417421026644</v>
       </c>
       <c r="C58">
-        <v>628.17527693550699</v>
+        <v>1167.0848787807865</v>
       </c>
       <c r="D58">
-        <v>3373.2387235511501</v>
+        <v>4056.0276399194254</v>
       </c>
       <c r="E58">
-        <v>21364.719262944451</v>
+        <v>117977.55686449658</v>
       </c>
       <c r="F58">
-        <v>563.18322360736249</v>
+        <v>9449.3843007718751</v>
       </c>
       <c r="G58">
-        <v>1125902.1592204107</v>
+        <v>1154877.3539457119</v>
       </c>
       <c r="H58">
         <v>7888</v>
@@ -1936,22 +1936,22 @@
         <v>43951</v>
       </c>
       <c r="B59">
-        <v>1453.569286298844</v>
+        <v>2226.8408210985785</v>
       </c>
       <c r="C59">
-        <v>640.20370748074038</v>
+        <v>1190.720229838189</v>
       </c>
       <c r="D59">
-        <v>3469.3446002663277</v>
+        <v>4163.235382014499</v>
       </c>
       <c r="E59">
-        <v>23485.632585398962</v>
+        <v>133723.99841922376</v>
       </c>
       <c r="F59">
-        <v>572.8270446879925</v>
+        <v>10192.73868124494</v>
       </c>
       <c r="G59">
-        <v>1296426.2596573157</v>
+        <v>1321781.4990971405</v>
       </c>
       <c r="H59">
         <v>8021</v>
@@ -1962,22 +1962,22 @@
         <v>43952</v>
       </c>
       <c r="B60">
-        <v>1487.8333037622365</v>
+        <v>2279.4394275064769</v>
       </c>
       <c r="C60">
-        <v>652.6899825067012</v>
+        <v>1215.1828145545326</v>
       </c>
       <c r="D60">
-        <v>3566.5479063612665</v>
+        <v>4274.5460654472745</v>
       </c>
       <c r="E60">
-        <v>25795.160114868857</v>
+        <v>151615.16780941933</v>
       </c>
       <c r="F60">
-        <v>582.64562662895923</v>
+        <v>11002.417862917233</v>
       </c>
       <c r="G60">
-        <v>1483315.8983175752</v>
+        <v>1504929.0981465292</v>
       </c>
       <c r="H60">
         <v>8153</v>
@@ -1988,22 +1988,22 @@
         <v>43953</v>
       </c>
       <c r="B61">
-        <v>1520.8526711561854</v>
+        <v>2332.4725721270283</v>
       </c>
       <c r="C61">
-        <v>664.61862808034061</v>
+        <v>1239.8367704644763</v>
       </c>
       <c r="D61">
-        <v>3661.6481055062241</v>
+        <v>4386.8198279255357</v>
       </c>
       <c r="E61">
-        <v>28310.742513447749</v>
+        <v>171749.32469394803</v>
       </c>
       <c r="F61">
-        <v>592.19968722366605</v>
+        <v>11875.159514769137</v>
       </c>
       <c r="G61">
-        <v>1684513.3572542686</v>
+        <v>1701840.901463374</v>
       </c>
       <c r="H61">
         <v>8248</v>
@@ -2014,22 +2014,22 @@
         <v>43954</v>
       </c>
       <c r="B62">
-        <v>1555.8115107801636</v>
+        <v>2386.4691228934994</v>
       </c>
       <c r="C62">
-        <v>677.19689362622466</v>
+        <v>1264.7660728547351</v>
       </c>
       <c r="D62">
-        <v>3763.0670040319696</v>
+        <v>4501.9176998718813</v>
       </c>
       <c r="E62">
-        <v>31138.797238979303</v>
+        <v>194407.14483221859</v>
       </c>
       <c r="F62">
-        <v>602.08016451475976</v>
+        <v>12813.517225663436</v>
       </c>
       <c r="G62">
-        <v>1903479.1467319422</v>
+        <v>1912499.2788836518</v>
       </c>
       <c r="H62">
         <v>8316</v>
@@ -2040,22 +2040,22 @@
         <v>43955</v>
       </c>
       <c r="B63">
-        <v>1589.9914200209016</v>
+        <v>2440.651978022745</v>
       </c>
       <c r="C63">
-        <v>689.59863155856726</v>
+        <v>1289.6942088666569</v>
       </c>
       <c r="D63">
-        <v>3861.3411909796382</v>
+        <v>4617.8249605232877</v>
       </c>
       <c r="E63">
-        <v>34194.297333621689</v>
+        <v>219853.10888909563</v>
       </c>
       <c r="F63">
-        <v>611.79966845630042</v>
+        <v>13823.475981171727</v>
       </c>
       <c r="G63">
-        <v>2131525.9253684427</v>
+        <v>2134617.6637854213</v>
       </c>
       <c r="H63">
         <v>8428</v>
@@ -2066,22 +2066,22 @@
         <v>43956</v>
       </c>
       <c r="B64">
-        <v>1625.438189397209</v>
+        <v>2495.7977679935448</v>
       </c>
       <c r="C64">
-        <v>702.25847226911469</v>
+        <v>1314.965058838301</v>
       </c>
       <c r="D64">
-        <v>3964.9238067105434</v>
+        <v>4736.2415087101126</v>
       </c>
       <c r="E64">
-        <v>37586.139692920857</v>
+        <v>248495.66203483925</v>
       </c>
       <c r="F64">
-        <v>621.71642583633752</v>
+        <v>14915.96551588643</v>
       </c>
       <c r="G64">
-        <v>2371259.2216910436</v>
+        <v>2366642.992202525</v>
       </c>
       <c r="H64">
         <v>8542</v>
@@ -2092,22 +2092,22 @@
         <v>43957</v>
       </c>
       <c r="B65">
-        <v>1660.8800247926683</v>
+        <v>2550.2170556905503</v>
       </c>
       <c r="C65">
-        <v>714.86683721716543</v>
+        <v>1339.8399466709093</v>
       </c>
       <c r="D65">
-        <v>4068.4797213778625</v>
+        <v>4853.7135297010009</v>
       </c>
       <c r="E65">
-        <v>41273.630019667682</v>
+        <v>280223.11272037565</v>
       </c>
       <c r="F65">
-        <v>631.60410601027581</v>
+        <v>16073.746421116468</v>
       </c>
       <c r="G65">
-        <v>2616236.090696733</v>
+        <v>2603249.9325572699</v>
       </c>
       <c r="H65">
         <v>8641</v>
@@ -2118,22 +2118,22 @@
         <v>43958</v>
       </c>
       <c r="B66">
-        <v>1696.767099117689</v>
+        <v>2605.6273773906946</v>
       </c>
       <c r="C66">
-        <v>727.48798252952656</v>
+        <v>1365.0817983086331</v>
       </c>
       <c r="D66">
-        <v>4175.1608558339049</v>
+        <v>4973.4377192093707</v>
       </c>
       <c r="E66">
-        <v>45354.168590661291</v>
+        <v>315780.48257157271</v>
       </c>
       <c r="F66">
-        <v>641.46501800546935</v>
+        <v>17329.964446594589</v>
       </c>
       <c r="G66">
-        <v>2863930.9989862069</v>
+        <v>2841639.0208774065</v>
       </c>
       <c r="H66">
         <v>8753</v>
@@ -2144,22 +2144,22 @@
         <v>43959</v>
       </c>
       <c r="B67">
-        <v>1733.5953207110829</v>
+        <v>2662.3457927710469</v>
       </c>
       <c r="C67">
-        <v>740.4068415036744</v>
+        <v>1390.888964448367</v>
       </c>
       <c r="D67">
-        <v>4284.1135542782577</v>
+        <v>5096.1307196987018</v>
       </c>
       <c r="E67">
-        <v>49801.052620973096</v>
+        <v>355703.83274978038</v>
       </c>
       <c r="F67">
-        <v>651.5063434145336</v>
+        <v>18697.684576080996</v>
       </c>
       <c r="G67">
-        <v>3108761.8417586405</v>
+        <v>3079699.7751534623</v>
       </c>
       <c r="H67">
         <v>8817</v>
@@ -2170,22 +2170,22 @@
         <v>43960</v>
       </c>
       <c r="B68">
-        <v>1769.1386562450007</v>
+        <v>2719.2566091395011</v>
       </c>
       <c r="C68">
-        <v>752.86589449970927</v>
+        <v>1416.7661103593598</v>
       </c>
       <c r="D68">
-        <v>4389.896467307186</v>
+        <v>5219.3152889266548</v>
       </c>
       <c r="E68">
-        <v>54630.393603983866</v>
+        <v>400018.32992031227</v>
       </c>
       <c r="F68">
-        <v>661.27363910593522</v>
+        <v>20171.118324324823</v>
       </c>
       <c r="G68">
-        <v>3344946.6756224278</v>
+        <v>3311410.6751346928</v>
       </c>
       <c r="H68">
         <v>8877</v>
@@ -2196,22 +2196,22 @@
         <v>43961</v>
       </c>
       <c r="B69">
-        <v>1806.8257152448623</v>
+        <v>2776.4842555669366</v>
       </c>
       <c r="C69">
-        <v>766.01075552163888</v>
+        <v>1442.6061716988702</v>
       </c>
       <c r="D69">
-        <v>4502.942693090592</v>
+        <v>5344.0445989248219</v>
       </c>
       <c r="E69">
-        <v>60058.992575934462</v>
+        <v>449204.60506415961</v>
       </c>
       <c r="F69">
-        <v>671.37918580022392</v>
+        <v>21754.838137721523</v>
       </c>
       <c r="G69">
-        <v>3574662.9227820435</v>
+        <v>3535741.3754180931</v>
       </c>
       <c r="H69">
         <v>8931</v>
@@ -2222,22 +2222,22 @@
         <v>43962</v>
       </c>
       <c r="B70">
-        <v>1843.5351041264776</v>
+        <v>2834.4513180762688</v>
       </c>
       <c r="C70">
-        <v>778.86266572557679</v>
+        <v>1468.6868747586609</v>
       </c>
       <c r="D70">
-        <v>4612.9230757509586</v>
+        <v>5470.8448762739099</v>
       </c>
       <c r="E70">
-        <v>65914.428038615588</v>
+        <v>503588.7141836927</v>
       </c>
       <c r="F70">
-        <v>681.3172621935139</v>
+        <v>23458.578814611064</v>
       </c>
       <c r="G70">
-        <v>3788678.5938844308</v>
+        <v>3749666.3573921588</v>
       </c>
       <c r="H70">
         <v>9006</v>
@@ -2248,22 +2248,22 @@
         <v>43963</v>
       </c>
       <c r="B71">
-        <v>1881.5823001200292</v>
+        <v>2893.4204258704531</v>
       </c>
       <c r="C71">
-        <v>791.89707235590004</v>
+        <v>1495.1141108727502</v>
       </c>
       <c r="D71">
-        <v>4729.8871747498524</v>
+        <v>5600.3242512306251</v>
       </c>
       <c r="E71">
-        <v>72410.432081322506</v>
+        <v>563803.86825552734</v>
       </c>
       <c r="F71">
-        <v>691.46081702200001</v>
+        <v>25300.801851263004</v>
       </c>
       <c r="G71">
-        <v>3989814.5725340801</v>
+        <v>3951321.2114748289</v>
       </c>
       <c r="H71">
         <v>9061</v>
@@ -2274,22 +2274,22 @@
         <v>43964</v>
       </c>
       <c r="B72">
-        <v>1917.6562289500384</v>
+        <v>2947.5600076902301</v>
       </c>
       <c r="C72">
-        <v>804.25709817038376</v>
+        <v>1519.7283208683805</v>
       </c>
       <c r="D72">
-        <v>4840.7889225542585</v>
+        <v>5718.6104057590965</v>
       </c>
       <c r="E72">
-        <v>79228.811408192123</v>
+        <v>627085.16236475552</v>
       </c>
       <c r="F72">
-        <v>701.3781985685273</v>
+        <v>27170.915240416056</v>
       </c>
       <c r="G72">
-        <v>4169197.5062007578</v>
+        <v>4131429.5797947133</v>
       </c>
       <c r="H72">
         <v>9122</v>
@@ -2300,22 +2300,22 @@
         <v>43965</v>
       </c>
       <c r="B73">
-        <v>1955.8214951134964</v>
+        <v>3005.5931464033943</v>
       </c>
       <c r="C73">
-        <v>816.99570430319341</v>
+        <v>1545.6745605500614</v>
       </c>
       <c r="D73">
-        <v>4961.8932806195753</v>
+        <v>5846.7601121079115</v>
       </c>
       <c r="E73">
-        <v>86979.023838461231</v>
+        <v>698578.46245012572</v>
       </c>
       <c r="F73">
-        <v>711.44771071156651</v>
+        <v>29273.903184289244</v>
       </c>
       <c r="G73">
-        <v>4338044.8489196058</v>
+        <v>4300635.7707171524</v>
       </c>
       <c r="H73">
         <v>9179</v>
@@ -2326,22 +2326,22 @@
         <v>43966</v>
       </c>
       <c r="B74">
-        <v>1995.2233079136727</v>
+        <v>3064.9268167774985</v>
       </c>
       <c r="C74">
-        <v>830.26496391635715</v>
+        <v>1572.0906768301004</v>
       </c>
       <c r="D74">
-        <v>5084.0425757008734</v>
+        <v>5978.0107231335787</v>
       </c>
       <c r="E74">
-        <v>95423.32845796748</v>
+        <v>777113.52329056407</v>
       </c>
       <c r="F74">
-        <v>721.70278012726806</v>
+        <v>31561.993883333682</v>
       </c>
       <c r="G74">
-        <v>4489557.5546621094</v>
+        <v>4454238.4088634644</v>
       </c>
       <c r="H74">
         <v>9264</v>
@@ -2352,22 +2352,22 @@
         <v>43967</v>
       </c>
       <c r="B75">
-        <v>2032.2831275694625</v>
+        <v>3123.9994885358628</v>
       </c>
       <c r="C75">
-        <v>843.10453960075893</v>
+        <v>1598.3492673484634</v>
       </c>
       <c r="D75">
-        <v>5197.077181153425</v>
+        <v>6109.0227877400739</v>
       </c>
       <c r="E75">
-        <v>104559.14505273882</v>
+        <v>862162.86624705989</v>
       </c>
       <c r="F75">
-        <v>731.67489116557408</v>
+        <v>34024.836981172586</v>
       </c>
       <c r="G75">
-        <v>4623346.5225869156</v>
+        <v>4590996.990881959</v>
       </c>
       <c r="H75">
         <v>9294</v>
@@ -2378,22 +2378,22 @@
         <v>43968</v>
       </c>
       <c r="B76">
-        <v>2071.8637409360826</v>
+        <v>3184.1704339788898</v>
       </c>
       <c r="C76">
-        <v>856.60415941633505</v>
+        <v>1624.9617080053238</v>
       </c>
       <c r="D76">
-        <v>5318.4611035101316</v>
+        <v>6243.0892753248863</v>
       </c>
       <c r="E76">
-        <v>114815.63844387513</v>
+        <v>954326.71187808283</v>
       </c>
       <c r="F76">
-        <v>741.99638062039753</v>
+        <v>36670.497647101904</v>
       </c>
       <c r="G76">
-        <v>4743323.5211424539</v>
+        <v>4713121.1326554939</v>
       </c>
       <c r="H76">
         <v>9336</v>
@@ -2404,22 +2404,22 @@
         <v>43969</v>
       </c>
       <c r="B77">
-        <v>2110.2875288970749</v>
+        <v>3245.2946670954152</v>
       </c>
       <c r="C77">
-        <v>869.83050328343302</v>
+        <v>1652.1203483662939</v>
       </c>
       <c r="D77">
-        <v>5435.4799477844699</v>
+        <v>6378.6646503509346</v>
       </c>
       <c r="E77">
-        <v>125847.15373592684</v>
+        <v>1053596.1580974755</v>
       </c>
       <c r="F77">
-        <v>752.14397035347451</v>
+        <v>39514.405349697743</v>
       </c>
       <c r="G77">
-        <v>4847816.7340652244</v>
+        <v>4821718.0446481751</v>
       </c>
       <c r="H77">
         <v>9409</v>
@@ -2430,22 +2430,22 @@
         <v>43970</v>
       </c>
       <c r="B78">
-        <v>2150.1917524885407</v>
+        <v>3307.7214832634399</v>
       </c>
       <c r="C78">
-        <v>883.42534868129428</v>
+        <v>1679.7246665250761</v>
       </c>
       <c r="D78">
-        <v>5558.1320938786866</v>
+        <v>6517.7608052387714</v>
       </c>
       <c r="E78">
-        <v>138062.64941406189</v>
+        <v>1160562.2908931479</v>
       </c>
       <c r="F78">
-        <v>762.50525869639489</v>
+        <v>42587.292807596372</v>
       </c>
       <c r="G78">
-        <v>4940232.2134717954</v>
+        <v>4917844.7635784885</v>
       </c>
       <c r="H78">
         <v>9464</v>
@@ -2456,22 +2456,22 @@
         <v>43971</v>
       </c>
       <c r="B79">
-        <v>2189.869982413757</v>
+        <v>3368.8807457693006</v>
       </c>
       <c r="C79">
-        <v>896.99304816793961</v>
+        <v>1706.7315797521901</v>
       </c>
       <c r="D79">
-        <v>5679.6634346905921</v>
+        <v>6654.5177399836666</v>
       </c>
       <c r="E79">
-        <v>151304.59188832942</v>
+        <v>1273754.2764239411</v>
       </c>
       <c r="F79">
-        <v>772.834434759131</v>
+        <v>45840.297362144447</v>
       </c>
       <c r="G79">
-        <v>5021545.7927577524</v>
+        <v>5001815.4499877747</v>
       </c>
       <c r="H79">
         <v>9533</v>
@@ -2482,22 +2482,22 @@
         <v>43972</v>
       </c>
       <c r="B80">
-        <v>2229.89368123643</v>
+        <v>3431.0981172150446</v>
       </c>
       <c r="C80">
-        <v>910.587483162985</v>
+        <v>1734.1824976760952</v>
       </c>
       <c r="D80">
-        <v>5802.9183872155136</v>
+        <v>6793.4954179052411</v>
       </c>
       <c r="E80">
-        <v>165874.62834445687</v>
+        <v>1393765.0101684635</v>
       </c>
       <c r="F80">
-        <v>783.13636749885188</v>
+        <v>49362.363943976961</v>
       </c>
       <c r="G80">
-        <v>5092731.4618231105</v>
+        <v>5074992.3660393516</v>
       </c>
       <c r="H80">
         <v>9563</v>
@@ -2508,22 +2508,22 @@
         <v>43973</v>
       </c>
       <c r="B81">
-        <v>2270.9603007586225</v>
+        <v>3494.1342897989562</v>
       </c>
       <c r="C81">
-        <v>924.47905304759206</v>
+        <v>1762.0884019456357</v>
       </c>
       <c r="D81">
-        <v>5929.6653600001882</v>
+        <v>6933.8500331324685</v>
       </c>
       <c r="E81">
-        <v>181717.87221876631</v>
+        <v>1521195.1555221616</v>
       </c>
       <c r="F81">
-        <v>793.62985266939177</v>
+        <v>53190.205652202814</v>
       </c>
       <c r="G81">
-        <v>5154701.2700503292</v>
+        <v>5139165.4011385422</v>
       </c>
       <c r="H81">
         <v>9631</v>
@@ -2534,22 +2534,22 @@
         <v>43974</v>
       </c>
       <c r="B82">
-        <v>2308.4118360738794</v>
+        <v>3557.2664241062016</v>
       </c>
       <c r="C82">
-        <v>937.33355190949919</v>
+        <v>1790.067547800053</v>
       </c>
       <c r="D82">
-        <v>6047.835592487766</v>
+        <v>7074.2487596725032</v>
       </c>
       <c r="E82">
-        <v>198765.80588754034</v>
+        <v>1654156.8397735874</v>
       </c>
       <c r="F82">
-        <v>803.83020371678936</v>
+        <v>57304.839823588525</v>
       </c>
       <c r="G82">
-        <v>5208311.5689076707</v>
+        <v>5194866.9445283134</v>
       </c>
       <c r="H82">
         <v>9664</v>
@@ -2560,22 +2560,22 @@
         <v>43975</v>
       </c>
       <c r="B83">
-        <v>2347.4735302398453</v>
+        <v>3620.505997580457</v>
       </c>
       <c r="C83">
-        <v>950.28410035438651</v>
+        <v>1817.9567274133465</v>
       </c>
       <c r="D83">
-        <v>6173.5510364772235</v>
+        <v>7215.6436296100819</v>
       </c>
       <c r="E83">
-        <v>217840.4033904211</v>
+        <v>1793222.3845424349</v>
       </c>
       <c r="F83">
-        <v>814.39260868689735</v>
+        <v>61720.411124310071</v>
       </c>
       <c r="G83">
-        <v>5255722.1896886909</v>
+        <v>5243741.6336968718</v>
       </c>
       <c r="H83">
         <v>9698</v>
@@ -2586,22 +2586,22 @@
         <v>43976</v>
       </c>
       <c r="B84">
-        <v>2385.5909315745362</v>
+        <v>3681.0351745404946</v>
       </c>
       <c r="C84">
-        <v>963.14577751281467</v>
+        <v>1844.1437795600373</v>
       </c>
       <c r="D84">
-        <v>6294.2517816455502</v>
+        <v>7357.4413642227382</v>
       </c>
       <c r="E84">
-        <v>238253.368057616</v>
+        <v>1937518.7663655605</v>
       </c>
       <c r="F84">
-        <v>824.77409465660185</v>
+        <v>66460.689152015257</v>
       </c>
       <c r="G84">
-        <v>5296772.1198800886</v>
+        <v>5286776.3723135144</v>
       </c>
       <c r="H84">
         <v>9749</v>
@@ -2612,22 +2612,22 @@
         <v>43977</v>
       </c>
       <c r="B85">
-        <v>2424.7503511370242</v>
+        <v>3741.5906120140403</v>
       </c>
       <c r="C85">
-        <v>976.08475890239629</v>
+        <v>1870.3666444551568</v>
       </c>
       <c r="D85">
-        <v>6420.3370902939787</v>
+        <v>7500.592322917305</v>
       </c>
       <c r="E85">
-        <v>260763.07002608961</v>
+        <v>2087055.1900218902</v>
       </c>
       <c r="F85">
-        <v>835.37818792072278</v>
+        <v>71576.4264106466</v>
       </c>
       <c r="G85">
-        <v>5333026.6721618623</v>
+        <v>5324703.7444984475</v>
       </c>
       <c r="H85">
         <v>9809</v>
@@ -2638,22 +2638,22 @@
         <v>43978</v>
       </c>
       <c r="B86">
-        <v>2463.55099970328</v>
+        <v>3801.8507244786738</v>
       </c>
       <c r="C86">
-        <v>988.99150907692683</v>
+        <v>1896.5369953692687</v>
       </c>
       <c r="D86">
-        <v>6545.409048394692</v>
+        <v>7641.0806442070407</v>
       </c>
       <c r="E86">
-        <v>285054.49590479286</v>
+        <v>2239042.973936643</v>
       </c>
       <c r="F86">
-        <v>845.94864566416675</v>
+        <v>76985.517242569375</v>
       </c>
       <c r="G86">
-        <v>5365041.9198751403</v>
+        <v>5357863.3628754355</v>
       </c>
       <c r="H86">
         <v>9859</v>
@@ -2664,22 +2664,22 @@
         <v>43979</v>
       </c>
       <c r="B87">
-        <v>2502.4625519972305</v>
+        <v>3861.7866926254937</v>
       </c>
       <c r="C87">
-        <v>1001.9165401070231</v>
+        <v>1922.6889643047707</v>
       </c>
       <c r="D87">
-        <v>6672.0000731892187</v>
+        <v>7782.2270564250666</v>
       </c>
       <c r="E87">
-        <v>311616.54358063609</v>
+        <v>2393005.3565350557</v>
       </c>
       <c r="F87">
-        <v>856.49137454012362</v>
+        <v>82830.150387942151</v>
       </c>
       <c r="G87">
-        <v>5393286.9060708256</v>
+        <v>5386914.2530823806</v>
       </c>
       <c r="H87">
         <v>9896</v>
@@ -2690,22 +2690,22 @@
         <v>43980</v>
       </c>
       <c r="B88">
-        <v>2542.0947038697877</v>
+        <v>3921.830073673138</v>
       </c>
       <c r="C88">
-        <v>1014.7908715870988</v>
+        <v>1948.8396829523401</v>
       </c>
       <c r="D88">
-        <v>6802.8509335140916</v>
+        <v>7926.0622194671432</v>
       </c>
       <c r="E88">
-        <v>340351.90457092773</v>
+        <v>2549158.1110710702</v>
       </c>
       <c r="F88">
-        <v>867.23184130844948</v>
+        <v>89170.953325030961</v>
       </c>
       <c r="G88">
-        <v>5418125.6689035846</v>
+        <v>5412613.9888248108</v>
       </c>
       <c r="H88">
         <v>9938</v>
@@ -2716,22 +2716,22 @@
         <v>43981</v>
       </c>
       <c r="B89">
-        <v>2580.3651580368114</v>
+        <v>3982.5656326002554</v>
       </c>
       <c r="C89">
-        <v>1027.6649238459456</v>
+        <v>1974.9891368457656</v>
       </c>
       <c r="D89">
-        <v>6926.3061768978278</v>
+        <v>8070.8426488950354</v>
       </c>
       <c r="E89">
-        <v>371016.6574882702</v>
+        <v>2704387.4312958401</v>
       </c>
       <c r="F89">
-        <v>877.66862989195818</v>
+        <v>95972.327631998196</v>
       </c>
       <c r="G89">
-        <v>5439903.138524306</v>
+        <v>5435177.5884766523</v>
       </c>
       <c r="H89">
         <v>9971</v>
@@ -2742,22 +2742,22 @@
         <v>43982</v>
       </c>
       <c r="B90">
-        <v>2620.2745414479732</v>
+        <v>4043.8519914118506</v>
       </c>
       <c r="C90">
-        <v>1040.6475250518733</v>
+        <v>2001.1449687577115</v>
       </c>
       <c r="D90">
-        <v>7058.5181456148985</v>
+        <v>8218.698527316692</v>
       </c>
       <c r="E90">
-        <v>405086.2762413614</v>
+        <v>2859423.1266349345</v>
       </c>
       <c r="F90">
-        <v>888.48061211575953</v>
+        <v>103258.76036478498</v>
       </c>
       <c r="G90">
-        <v>5459442.3060677936</v>
+        <v>5455237.2107149679</v>
       </c>
       <c r="H90">
         <v>9993</v>
@@ -2768,22 +2768,22 @@
         <v>43983</v>
       </c>
       <c r="B91">
-        <v>2660.3745991991896</v>
+        <v>4104.5675648976003</v>
       </c>
       <c r="C91">
-        <v>1053.8451884929088</v>
+        <v>2027.2924620771921</v>
       </c>
       <c r="D91">
-        <v>7187.6585498604545</v>
+        <v>8366.0089195979945</v>
       </c>
       <c r="E91">
-        <v>441228.23096869106</v>
+        <v>3013011.5281922175</v>
       </c>
       <c r="F91">
-        <v>899.10437191963092</v>
+        <v>111064.76523995446</v>
       </c>
       <c r="G91">
-        <v>5476622.2339881286</v>
+        <v>5473151.8806319656</v>
       </c>
       <c r="H91">
         <v>10025</v>
@@ -2794,22 +2794,22 @@
         <v>43984</v>
       </c>
       <c r="B92">
-        <v>2701.4492287931425</v>
+        <v>4165.7842302706931</v>
       </c>
       <c r="C92">
-        <v>1067.1002925606404</v>
+        <v>2053.4818344405812</v>
       </c>
       <c r="D92">
-        <v>7324.1497702239312</v>
+        <v>8515.8787263862905</v>
       </c>
       <c r="E92">
-        <v>480762.63339573052</v>
+        <v>3164649.967000559</v>
       </c>
       <c r="F92">
-        <v>909.96001889742922</v>
+        <v>119472.35941944543</v>
       </c>
       <c r="G92">
-        <v>5492044.1303049345</v>
+        <v>5489185.8555026185</v>
       </c>
       <c r="H92">
         <v>10077</v>
@@ -2820,22 +2820,22 @@
         <v>43985</v>
       </c>
       <c r="B93">
-        <v>2742.2506692051425</v>
+        <v>4228.4845280253448</v>
       </c>
       <c r="C93">
-        <v>1080.3135324753475</v>
+        <v>2080.7144108788198</v>
       </c>
       <c r="D93">
-        <v>7459.99931162967</v>
+        <v>8663.4801207363489</v>
       </c>
       <c r="E93">
-        <v>523066.65846362803</v>
+        <v>3311441.1420854572</v>
       </c>
       <c r="F93">
-        <v>920.78043851452298</v>
+        <v>128344.58198830576</v>
       </c>
       <c r="G93">
-        <v>5505876.004555108</v>
+        <v>5503429.5775594302</v>
       </c>
       <c r="H93">
         <v>10129</v>
@@ -2846,22 +2846,22 @@
         <v>43986</v>
       </c>
       <c r="B94">
-        <v>2782.9201236869731</v>
+        <v>4290.5460773484656</v>
       </c>
       <c r="C94">
-        <v>1093.6062444471058</v>
+        <v>2107.5730994768037</v>
       </c>
       <c r="D94">
-        <v>7594.1492908468299</v>
+        <v>8813.3195968474411</v>
       </c>
       <c r="E94">
-        <v>568838.56469190575</v>
+        <v>3452778.4264944308</v>
       </c>
       <c r="F94">
-        <v>931.57264420181514</v>
+        <v>137901.12754137907</v>
       </c>
       <c r="G94">
-        <v>5518287.7355567608</v>
+        <v>5516116.5200951891</v>
       </c>
       <c r="H94">
         <v>10165</v>
@@ -2872,22 +2872,22 @@
         <v>43987</v>
       </c>
       <c r="B95">
-        <v>2824.507979903814</v>
+        <v>4353.9301592567881</v>
       </c>
       <c r="C95">
-        <v>1107.261441635339</v>
+        <v>2134.9498557337479</v>
       </c>
       <c r="D95">
-        <v>7730.6349822305074</v>
+        <v>8966.5603505569306</v>
       </c>
       <c r="E95">
-        <v>617851.80264507351</v>
+        <v>3589132.0510031339</v>
       </c>
       <c r="F95">
-        <v>942.56896935508394</v>
+        <v>148240.15334822499</v>
       </c>
       <c r="G95">
-        <v>5529380.4487849949</v>
+        <v>5527525.6887198156</v>
       </c>
       <c r="H95">
         <v>10199</v>
@@ -2898,22 +2898,22 @@
         <v>43988</v>
       </c>
       <c r="B96">
-        <v>2864.5057385478895</v>
+        <v>4417.0022708225051</v>
       </c>
       <c r="C96">
-        <v>1120.600474457995</v>
+        <v>2162.346988410015</v>
       </c>
       <c r="D96">
-        <v>7859.7264318955486</v>
+        <v>9116.8226932857615</v>
       </c>
       <c r="E96">
-        <v>669486.85168851842</v>
+        <v>3718133.8913627891</v>
       </c>
       <c r="F96">
-        <v>953.25069054337337</v>
+        <v>159293.56552696027</v>
       </c>
       <c r="G96">
-        <v>5539268.7577585885</v>
+        <v>5537706.5350784352</v>
       </c>
       <c r="H96">
         <v>10213</v>
@@ -2924,22 +2924,22 @@
         <v>43989</v>
       </c>
       <c r="B97">
-        <v>2906.3073124693033</v>
+        <v>4479.7276655630467</v>
       </c>
       <c r="C97">
-        <v>1134.3224649697622</v>
+        <v>2189.6684709246761</v>
       </c>
       <c r="D97">
-        <v>7997.1482942594484</v>
+        <v>9267.4882330987639</v>
       </c>
       <c r="E97">
-        <v>726126.44783900725</v>
+        <v>3841191.6222436856</v>
       </c>
       <c r="F97">
-        <v>964.32122635009864</v>
+        <v>171103.27499988198</v>
       </c>
       <c r="G97">
-        <v>5548282.2534427373</v>
+        <v>5546900.4399454333</v>
       </c>
       <c r="H97">
         <v>10227</v>
@@ -2950,22 +2950,22 @@
         <v>43990</v>
       </c>
       <c r="B98">
-        <v>2947.5971961281857</v>
+        <v>4541.9934656230407</v>
       </c>
       <c r="C98">
-        <v>1147.9557031512684</v>
+        <v>2216.7574946109221</v>
       </c>
       <c r="D98">
-        <v>8130.2093984602316</v>
+        <v>9417.386421506757</v>
       </c>
       <c r="E98">
-        <v>785349.45671875274</v>
+        <v>3957983.5960643985</v>
       </c>
       <c r="F98">
-        <v>975.19594065463832</v>
+        <v>183714.39626636286</v>
       </c>
       <c r="G98">
-        <v>5556326.7228116374</v>
+        <v>5555233.541641986</v>
       </c>
       <c r="H98">
         <v>10267</v>
@@ -2976,22 +2976,22 @@
         <v>43991</v>
       </c>
       <c r="B99">
-        <v>2989.9635250197771</v>
+        <v>4605.1446231608479</v>
       </c>
       <c r="C99">
-        <v>1161.5733228689469</v>
+        <v>2244.0997041555956</v>
       </c>
       <c r="D99">
-        <v>8271.9405655537139</v>
+        <v>9568.9806975318334</v>
       </c>
       <c r="E99">
-        <v>849238.14776630292</v>
+        <v>4068451.4100886099</v>
       </c>
       <c r="F99">
-        <v>986.31220857421158</v>
+        <v>197255.27459308764</v>
       </c>
       <c r="G99">
-        <v>5563655.0711341342</v>
+        <v>5562801.9912465941</v>
       </c>
       <c r="H99">
         <v>10294</v>
@@ -3002,22 +3002,22 @@
         <v>43992</v>
       </c>
       <c r="B100">
-        <v>3032.1525979791973</v>
+        <v>4668.4727427155558</v>
       </c>
       <c r="C100">
-        <v>1175.070485686394</v>
+        <v>2271.6486158201647</v>
       </c>
       <c r="D100">
-        <v>8414.7502118988741</v>
+        <v>9720.3293226701262</v>
       </c>
       <c r="E100">
-        <v>916639.79877440596</v>
+        <v>4171158.4133088985</v>
       </c>
       <c r="F100">
-        <v>997.39158569353799</v>
+        <v>211500.53023592569</v>
       </c>
       <c r="G100">
-        <v>5570314.6458995994</v>
+        <v>5569620.4577308167</v>
       </c>
       <c r="H100">
         <v>10330</v>
@@ -3028,22 +3028,22 @@
         <v>43993</v>
       </c>
       <c r="B101">
-        <v>3074.5763332940951</v>
+        <v>4731.5090438334973</v>
       </c>
       <c r="C101">
-        <v>1188.5088055892259</v>
+        <v>2298.9587202045268</v>
       </c>
       <c r="D101">
-        <v>8561.2575075501118</v>
+        <v>9874.3621553787179</v>
       </c>
       <c r="E101">
-        <v>988351.75509354763</v>
+        <v>4266328.503144443</v>
       </c>
       <c r="F101">
-        <v>1008.4422649335215</v>
+        <v>226771.84443901526</v>
       </c>
       <c r="G101">
-        <v>5576372.2782854931</v>
+        <v>5575777.5220608879</v>
       </c>
       <c r="H101">
         <v>10377</v>
@@ -3054,22 +3054,22 @@
         <v>43994</v>
       </c>
       <c r="B102">
-        <v>3117.9190571595277</v>
+        <v>4796.2642732252643</v>
       </c>
       <c r="C102">
-        <v>1202.2333811112703</v>
+        <v>2326.825844057822</v>
       </c>
       <c r="D102">
-        <v>8709.2445848280204</v>
+        <v>10033.616241452215</v>
       </c>
       <c r="E102">
-        <v>1063823.1895689496</v>
+        <v>4354960.6089251433</v>
       </c>
       <c r="F102">
-        <v>1019.7036472973846</v>
+        <v>243223.96222582986</v>
       </c>
       <c r="G102">
-        <v>5581853.8494623052</v>
+        <v>5581386.6344610322</v>
       </c>
       <c r="H102">
         <v>10433</v>
@@ -3080,22 +3080,22 @@
         <v>43995</v>
       </c>
       <c r="B103">
-        <v>3159.4920671142117</v>
+        <v>4862.1714264092179</v>
       </c>
       <c r="C103">
-        <v>1215.6860398756385</v>
+        <v>2354.8926259699269</v>
       </c>
       <c r="D103">
-        <v>8849.8356455987996</v>
+        <v>10194.770830164567</v>
       </c>
       <c r="E103">
-        <v>1141839.16173794</v>
+        <v>4436174.5268737134</v>
       </c>
       <c r="F103">
-        <v>1030.6391043088895</v>
+        <v>260725.71341987164</v>
       </c>
       <c r="G103">
-        <v>5586800.7293019323</v>
+        <v>5586453.8596090777</v>
       </c>
       <c r="H103">
         <v>10458</v>
@@ -3106,22 +3106,22 @@
         <v>43996</v>
       </c>
       <c r="B104">
-        <v>3203.3550780600099</v>
+        <v>4927.3329300229307</v>
       </c>
       <c r="C104">
-        <v>1229.4022665034061</v>
+        <v>2382.855255086366</v>
       </c>
       <c r="D104">
-        <v>9001.9393661545819</v>
+        <v>10355.539262377735</v>
       </c>
       <c r="E104">
-        <v>1225695.7472557353</v>
+        <v>4511514.1406977139</v>
       </c>
       <c r="F104">
-        <v>1041.977495848525</v>
+        <v>279348.63467896613</v>
       </c>
       <c r="G104">
-        <v>5591361.6831376106</v>
+        <v>5591082.7929525375</v>
       </c>
       <c r="H104">
         <v>10477</v>
@@ -3132,22 +3132,22 @@
         <v>43997</v>
       </c>
       <c r="B105">
-        <v>3246.319327037781</v>
+        <v>4992.5089795577269</v>
       </c>
       <c r="C105">
-        <v>1243.1576545548614</v>
+        <v>2410.7028173364674</v>
       </c>
       <c r="D105">
-        <v>9145.7187535362882</v>
+        <v>10517.295969331053</v>
       </c>
       <c r="E105">
-        <v>1311516.3397852122</v>
+        <v>4581340.0257194173</v>
       </c>
       <c r="F105">
-        <v>1053.112159155065</v>
+        <v>299140.82401025092</v>
       </c>
       <c r="G105">
-        <v>5595475.3124526581</v>
+        <v>5595322.8961958895</v>
       </c>
       <c r="H105">
         <v>10515</v>
@@ -3158,22 +3158,22 @@
         <v>43998</v>
       </c>
       <c r="B106">
-        <v>3289.9682327350965</v>
+        <v>5059.124916737569</v>
       </c>
       <c r="C106">
-        <v>1257.0850215235919</v>
+        <v>2438.9965306799545</v>
       </c>
       <c r="D106">
-        <v>9294.0398832471456</v>
+        <v>10682.656356985326</v>
       </c>
       <c r="E106">
-        <v>1402180.9523175324</v>
+        <v>4645956.6344779739</v>
       </c>
       <c r="F106">
-        <v>1064.4984450741404</v>
+        <v>320294.28111336048</v>
       </c>
       <c r="G106">
-        <v>5599260.938821217</v>
+        <v>5599213.5706214523</v>
       </c>
       <c r="H106">
         <v>10555</v>
@@ -3184,22 +3184,22 @@
         <v>43999</v>
       </c>
       <c r="B107">
-        <v>3333.3353191455071</v>
+        <v>5124.8989239507036</v>
       </c>
       <c r="C107">
-        <v>1271.0258695575321</v>
+        <v>2467.2593542131658</v>
       </c>
       <c r="D107">
-        <v>9441.1919301158778</v>
+        <v>10843.42987177221</v>
       </c>
       <c r="E107">
-        <v>1495874.215063951</v>
+        <v>4704924.26348041</v>
       </c>
       <c r="F107">
-        <v>1075.8461020273739</v>
+        <v>342447.02426347765</v>
       </c>
       <c r="G107">
-        <v>5602731.7953089587</v>
+        <v>5602752.5731123453</v>
       </c>
       <c r="H107">
         <v>10626</v>
@@ -3210,22 +3210,22 @@
         <v>44000</v>
       </c>
       <c r="B108">
-        <v>3376.6094860716521</v>
+        <v>5189.1388583434982</v>
       </c>
       <c r="C108">
-        <v>1284.8623190310634</v>
+        <v>2494.9975866230852</v>
       </c>
       <c r="D108">
-        <v>9589.3002192226086</v>
+        <v>11001.766132445187</v>
       </c>
       <c r="E108">
-        <v>1593220.124290539</v>
+        <v>4758707.7013633046</v>
       </c>
       <c r="F108">
-        <v>1087.164578937849</v>
+        <v>366032.99558954866</v>
       </c>
       <c r="G108">
-        <v>5605917.7213170156</v>
+        <v>5605977.9430209724</v>
       </c>
       <c r="H108">
         <v>10670</v>
@@ -3236,22 +3236,22 @@
         <v>44001</v>
       </c>
       <c r="B109">
-        <v>3420.9233656836423</v>
+        <v>5254.4533689256023</v>
       </c>
       <c r="C109">
-        <v>1299.0395266631012</v>
+        <v>2523.1099944769039</v>
       </c>
       <c r="D109">
-        <v>9741.1144160929889</v>
+        <v>11163.61641247393</v>
       </c>
       <c r="E109">
-        <v>1693152.6280421535</v>
+        <v>4808153.8597512031</v>
       </c>
       <c r="F109">
-        <v>1098.7005508539319</v>
+        <v>391288.36073259683</v>
       </c>
       <c r="G109">
-        <v>5608824.317960782</v>
+        <v>5608941.6419296134</v>
       </c>
       <c r="H109">
         <v>10710</v>
@@ -3262,22 +3262,22 @@
         <v>44002</v>
       </c>
       <c r="B110">
-        <v>3464.0312777555614</v>
+        <v>5319.8927682502463</v>
       </c>
       <c r="C110">
-        <v>1312.9147789151475</v>
+        <v>2551.2333628256483</v>
       </c>
       <c r="D110">
-        <v>9885.8174850456362</v>
+        <v>11325.115738456894</v>
       </c>
       <c r="E110">
-        <v>1793915.8133329619</v>
+        <v>4853002.9362172745</v>
       </c>
       <c r="F110">
-        <v>1109.8988660308787</v>
+        <v>417964.97215311765</v>
       </c>
       <c r="G110">
-        <v>5611468.5629594559</v>
+        <v>5611640.7312893244</v>
       </c>
       <c r="H110">
         <v>10746</v>
@@ -3288,22 +3288,22 @@
         <v>44003</v>
       </c>
       <c r="B111">
-        <v>3509.4176043999619</v>
+        <v>5385.2313274263952</v>
       </c>
       <c r="C111">
-        <v>1327.2650793408775</v>
+        <v>2579.3368729655454</v>
       </c>
       <c r="D111">
-        <v>10040.907492440427</v>
+        <v>11486.934478999161</v>
       </c>
       <c r="E111">
-        <v>1899287.8198535247</v>
+        <v>4894284.3647373915</v>
       </c>
       <c r="F111">
-        <v>1121.5147528920331</v>
+        <v>446186.45671311149</v>
       </c>
       <c r="G111">
-        <v>5613924.4886749936</v>
+        <v>5614124.8227839107</v>
       </c>
       <c r="H111">
         <v>10776</v>
@@ -3314,22 +3314,22 @@
         <v>44004</v>
       </c>
       <c r="B112">
-        <v>3553.4857639135548</v>
+        <v>5452.5077355208796</v>
       </c>
       <c r="C112">
-        <v>1341.3149322923869</v>
+        <v>2608.0084239988141</v>
       </c>
       <c r="D112">
-        <v>10189.752181028322</v>
+        <v>11652.202482966695</v>
       </c>
       <c r="E112">
-        <v>2004216.9686807522</v>
+        <v>4932338.1123316493</v>
       </c>
       <c r="F112">
-        <v>1132.9186846722362</v>
+        <v>475982.46048914839</v>
       </c>
       <c r="G112">
-        <v>5616154.5123747643</v>
+        <v>5616415.7638014788</v>
       </c>
       <c r="H112">
         <v>10820</v>
@@ -3340,22 +3340,22 @@
         <v>44005</v>
       </c>
       <c r="B113">
-        <v>3599.1836105913189</v>
+        <v>5520.2217738868449</v>
       </c>
       <c r="C113">
-        <v>1355.6806048702522</v>
+        <v>2636.6463250758552</v>
       </c>
       <c r="D113">
-        <v>10346.803993277297</v>
+        <v>11819.573728062967</v>
       </c>
       <c r="E113">
-        <v>2112138.8193731001</v>
+        <v>4967415.644088258</v>
       </c>
       <c r="F113">
-        <v>1144.5847272667904</v>
+        <v>507623.49572584382</v>
       </c>
       <c r="G113">
-        <v>5618219.9505794765</v>
+        <v>5618531.6798933726</v>
       </c>
       <c r="H113">
         <v>10835</v>
@@ -3366,22 +3366,22 @@
         <v>44006</v>
       </c>
       <c r="B114">
-        <v>3644.7111806920748</v>
+        <v>5587.1165735766126</v>
       </c>
       <c r="C114">
-        <v>1370.1054579215299</v>
+        <v>2665.0619576994759</v>
       </c>
       <c r="D114">
-        <v>10501.860648457437</v>
+        <v>11984.316936002975</v>
       </c>
       <c r="E114">
-        <v>2220862.8735088967</v>
+        <v>4999356.1258498812</v>
       </c>
       <c r="F114">
-        <v>1156.2103247456857</v>
+        <v>540550.76988995506</v>
       </c>
       <c r="G114">
-        <v>5620124.2785492884</v>
+        <v>5620468.0929396898</v>
       </c>
       <c r="H114">
         <v>10877</v>
@@ -3392,22 +3392,22 @@
         <v>44007</v>
       </c>
       <c r="B115">
-        <v>3690.3739218097053</v>
+        <v>5654.4719755590559</v>
       </c>
       <c r="C115">
-        <v>1384.5391722931149</v>
+        <v>2693.6213093947026</v>
       </c>
       <c r="D115">
-        <v>10657.694108589729</v>
+        <v>12150.510593007135</v>
       </c>
       <c r="E115">
-        <v>2330640.2861222569</v>
+        <v>5028468.8078948967</v>
       </c>
       <c r="F115">
-        <v>1167.8062625226912</v>
+        <v>575283.57820262446</v>
       </c>
       <c r="G115">
-        <v>5621882.2736439258</v>
+        <v>5622243.186666891</v>
       </c>
       <c r="H115">
         <v>10902</v>
@@ -3418,22 +3418,22 @@
         <v>44008</v>
       </c>
       <c r="B116">
-        <v>3737.1863695156417</v>
+        <v>5723.4165541088732</v>
       </c>
       <c r="C116">
-        <v>1399.333035676173</v>
+        <v>2722.832724263058</v>
       </c>
       <c r="D116">
-        <v>10817.123868526551</v>
+        <v>12320.639767595114</v>
       </c>
       <c r="E116">
-        <v>2440044.5882053329</v>
+        <v>5055250.0787703106</v>
       </c>
       <c r="F116">
-        <v>1179.6267017214254</v>
+        <v>612168.80830074952</v>
       </c>
       <c r="G116">
-        <v>5623494.2868238958</v>
+        <v>5623883.0684054065</v>
       </c>
       <c r="H116">
         <v>10919</v>
@@ -3444,22 +3444,22 @@
         <v>44009</v>
       </c>
       <c r="B117">
-        <v>3782.0365506812036</v>
+        <v>5792.8288686718543</v>
       </c>
       <c r="C117">
-        <v>1413.6139285798336</v>
+        <v>2752.4040505442686</v>
       </c>
       <c r="D117">
-        <v>10969.117936165647</v>
+        <v>12491.163939804104</v>
       </c>
       <c r="E117">
-        <v>2547334.5866135377</v>
+        <v>5079583.5826593637</v>
       </c>
       <c r="F117">
-        <v>1191.0973278813456</v>
+        <v>650760.55770720111</v>
       </c>
       <c r="G117">
-        <v>5624968.1914864993</v>
+        <v>5625384.0663412046</v>
       </c>
       <c r="H117">
         <v>10934</v>
@@ -3470,22 +3470,22 @@
         <v>44010</v>
       </c>
       <c r="B118">
-        <v>3829.4006247831571</v>
+        <v>5862.4161619264869</v>
       </c>
       <c r="C118">
-        <v>1428.5213355834592</v>
+        <v>2781.8740828448445</v>
       </c>
       <c r="D118">
-        <v>11131.084780557521</v>
+        <v>12663.007004540494</v>
       </c>
       <c r="E118">
-        <v>2656139.1883224556</v>
+        <v>5102033.783598504</v>
       </c>
       <c r="F118">
-        <v>1203.0006991093453</v>
+        <v>691276.03800777951</v>
       </c>
       <c r="G118">
-        <v>5626343.3366870768</v>
+        <v>5626771.8989702528</v>
       </c>
       <c r="H118">
         <v>10941</v>
@@ -3496,22 +3496,22 @@
         <v>44011</v>
       </c>
       <c r="B119">
-        <v>3875.1903089694324</v>
+        <v>5932.2590702590833</v>
       </c>
       <c r="C119">
-        <v>1442.9430433317254</v>
+        <v>2811.4403351463061</v>
       </c>
       <c r="D119">
-        <v>11287.519601753353</v>
+        <v>12835.785002479579</v>
       </c>
       <c r="E119">
-        <v>2761398.6560429744</v>
+        <v>5122790.911501267</v>
       </c>
       <c r="F119">
-        <v>1214.6835553219398</v>
+        <v>733689.92607685749</v>
       </c>
       <c r="G119">
-        <v>5627597.2014885023</v>
+        <v>5628057.2021015771</v>
       </c>
       <c r="H119">
         <v>10967</v>
@@ -3522,22 +3522,22 @@
         <v>44012</v>
       </c>
       <c r="B120">
-        <v>3922.5139514338734</v>
+        <v>6003.0484881247667</v>
       </c>
       <c r="C120">
-        <v>1457.4262993221289</v>
+        <v>2841.2801130451126</v>
       </c>
       <c r="D120">
-        <v>11454.867617453474</v>
+        <v>13011.332350884024</v>
       </c>
       <c r="E120">
-        <v>2866633.2420291672</v>
+        <v>5141994.9141505929</v>
       </c>
       <c r="F120">
-        <v>1226.6394470819771</v>
+        <v>778353.69051163027</v>
       </c>
       <c r="G120">
-        <v>5628763.100772663</v>
+        <v>5629249.0876490045</v>
       </c>
       <c r="H120">
         <v>10988</v>
@@ -3548,22 +3548,22 @@
         <v>44013</v>
       </c>
       <c r="B121">
-        <v>3969.4266963343448</v>
+        <v>6072.1468273624432</v>
       </c>
       <c r="C121">
-        <v>1471.6699525413683</v>
+        <v>2870.3792633409989</v>
       </c>
       <c r="D121">
-        <v>11622.948857137904</v>
+        <v>13182.956001954362</v>
       </c>
       <c r="E121">
-        <v>2969944.9439270562</v>
+        <v>5159553.7026567534</v>
       </c>
       <c r="F121">
-        <v>1238.5529961972488</v>
+        <v>824452.34601539257</v>
       </c>
       <c r="G121">
-        <v>5629841.7364614271</v>
+        <v>5630343.9391163187</v>
       </c>
       <c r="H121">
         <v>10996</v>
@@ -3574,22 +3574,22 @@
         <v>44014</v>
       </c>
       <c r="B122">
-        <v>4016.3439746901508</v>
+        <v>6140.9698668232459</v>
       </c>
       <c r="C122">
-        <v>1486.0523065621651</v>
+        <v>2899.1498005494141</v>
       </c>
       <c r="D122">
-        <v>11791.973181023011</v>
+        <v>13355.295040968216</v>
       </c>
       <c r="E122">
-        <v>3071353.9648920009</v>
+        <v>5175632.0124304201</v>
       </c>
       <c r="F122">
-        <v>1250.4364092209023</v>
+        <v>872511.17419831268</v>
       </c>
       <c r="G122">
-        <v>5630840.9762520324</v>
+        <v>5631351.1559988372</v>
       </c>
       <c r="H122">
         <v>11010</v>
@@ -3600,22 +3600,22 @@
         <v>44015</v>
       </c>
       <c r="B123">
-        <v>4064.8202229493745</v>
+        <v>6209.8938126498033</v>
       </c>
       <c r="C123">
-        <v>1501.0456129270474</v>
+        <v>2927.6080710177594</v>
       </c>
       <c r="D123">
-        <v>11961.197584571066</v>
+        <v>13530.075011547689</v>
       </c>
       <c r="E123">
-        <v>3169576.9220315972</v>
+        <v>5190495.1090068519</v>
       </c>
       <c r="F123">
-        <v>1262.5515511021606</v>
+        <v>923013.59655676922</v>
       </c>
       <c r="G123">
-        <v>5631760.05011795</v>
+        <v>5632284.7120359214</v>
       </c>
       <c r="H123">
         <v>11026</v>
@@ -3626,22 +3626,22 @@
         <v>44016</v>
       </c>
       <c r="B124">
-        <v>4111.4020737135534</v>
+        <v>6279.430666523358</v>
       </c>
       <c r="C124">
-        <v>1515.6030759016016</v>
+        <v>2956.5090223309762</v>
       </c>
       <c r="D124">
-        <v>12122.509807876477</v>
+        <v>13704.625948043427</v>
       </c>
       <c r="E124">
-        <v>3263503.9791080267</v>
+        <v>5204068.715328359</v>
       </c>
       <c r="F124">
-        <v>1274.3042832787426</v>
+        <v>975223.49360242323</v>
       </c>
       <c r="G124">
-        <v>5632602.9923295043</v>
+        <v>5633141.8258598074</v>
       </c>
       <c r="H124">
         <v>11039</v>
@@ -3652,22 +3652,22 @@
         <v>44017</v>
       </c>
       <c r="B125">
-        <v>4160.7955154685887</v>
+        <v>6350.5050536732488</v>
       </c>
       <c r="C125">
-        <v>1530.7032291392247</v>
+        <v>2986.1983646662707</v>
       </c>
       <c r="D125">
-        <v>12297.184787019416</v>
+        <v>13882.478828125641</v>
       </c>
       <c r="E125">
-        <v>3356178.5006516511</v>
+        <v>5216653.3975691125</v>
       </c>
       <c r="F125">
-        <v>1286.5054898065484</v>
+        <v>1029517.170072559</v>
       </c>
       <c r="G125">
-        <v>5633391.603078072</v>
+        <v>5633936.544007252</v>
       </c>
       <c r="H125">
         <v>11049</v>
@@ -3678,22 +3678,22 @@
         <v>44018</v>
       </c>
       <c r="B126">
-        <v>4208.6155655426492</v>
+        <v>6422.58962730453</v>
       </c>
       <c r="C126">
-        <v>1545.5789706236969</v>
+        <v>3016.3906652501587</v>
       </c>
       <c r="D126">
-        <v>12462.622105854078</v>
+        <v>14062.707136784795</v>
       </c>
       <c r="E126">
-        <v>3443675.9655501689</v>
+        <v>5228345.3264978472</v>
       </c>
       <c r="F126">
-        <v>1298.4772748071864</v>
+        <v>1085776.3305281829</v>
       </c>
       <c r="G126">
-        <v>5634112.4880698351</v>
+        <v>5634674.4251067657</v>
       </c>
       <c r="H126">
         <v>11058</v>
@@ -3704,22 +3704,22 @@
         <v>44019</v>
       </c>
       <c r="B127">
-        <v>4258.351738273298</v>
+        <v>6496.3941562922646</v>
       </c>
       <c r="C127">
-        <v>1560.7762283185882</v>
+        <v>3047.1728821561455</v>
       </c>
       <c r="D127">
-        <v>12638.553336105218</v>
+        <v>14247.647673683678</v>
       </c>
       <c r="E127">
-        <v>3529086.7928598491</v>
+        <v>5239217.042068325</v>
       </c>
       <c r="F127">
-        <v>1310.7334746525169</v>
+        <v>1144406.1885982363</v>
       </c>
       <c r="G127">
-        <v>5634784.385319856</v>
+        <v>5635360.3409357481</v>
       </c>
       <c r="H127">
         <v>11070</v>
@@ -3730,22 +3730,22 @@
         <v>44020</v>
       </c>
       <c r="B128">
-        <v>4307.982196492846</v>
+        <v>6568.7107242762322</v>
       </c>
       <c r="C128">
-        <v>1575.7684995500829</v>
+        <v>3077.436045013786</v>
       </c>
       <c r="D128">
-        <v>12816.925585975911</v>
+        <v>14428.235521617124</v>
       </c>
       <c r="E128">
-        <v>3611209.6664510216</v>
+        <v>5249207.0722447094</v>
       </c>
       <c r="F128">
-        <v>1322.9453494072714</v>
+        <v>1204301.1630785938</v>
       </c>
       <c r="G128">
-        <v>5635407.2704729568</v>
+        <v>5635991.8374745036</v>
       </c>
       <c r="H128">
         <v>11095</v>
@@ -3756,22 +3756,22 @@
         <v>44021</v>
       </c>
       <c r="B129">
-        <v>4357.5761799780394</v>
+        <v>6641.9078802781441</v>
       </c>
       <c r="C129">
-        <v>1590.8546646216939</v>
+        <v>3108.0556222471232</v>
       </c>
       <c r="D129">
-        <v>12993.45764255416</v>
+        <v>14611.675773623949</v>
       </c>
       <c r="E129">
-        <v>3690089.1165333232</v>
+        <v>5258401.1541615743</v>
       </c>
       <c r="F129">
-        <v>1335.1266157643859</v>
+        <v>1265883.1244724479</v>
       </c>
       <c r="G129">
-        <v>5635985.5343551207</v>
+        <v>5636574.0360853095</v>
       </c>
       <c r="H129">
         <v>11132</v>
@@ -3782,22 +3782,22 @@
         <v>44022</v>
       </c>
       <c r="B130">
-        <v>4408.3767048518175</v>
+        <v>6717.7168717113163</v>
       </c>
       <c r="C130">
-        <v>1606.3875671236656</v>
+        <v>3139.5668367181734</v>
       </c>
       <c r="D130">
-        <v>13172.60513444322</v>
+        <v>14802.285778762294</v>
       </c>
       <c r="E130">
-        <v>3764872.6599633629</v>
+        <v>5266942.5494148461</v>
       </c>
       <c r="F130">
-        <v>1347.5470660986655</v>
+        <v>1329772.4904847788</v>
       </c>
       <c r="G130">
-        <v>5636518.3725505555</v>
+        <v>5637114.7267076802</v>
       </c>
       <c r="H130">
         <v>11165</v>
@@ -3808,22 +3808,22 @@
         <v>44023</v>
       </c>
       <c r="B131">
-        <v>4457.1459615078656</v>
+        <v>6792.7651473319675</v>
       </c>
       <c r="C131">
-        <v>1621.223012854269</v>
+        <v>3170.939042803976</v>
       </c>
       <c r="D131">
-        <v>13347.339324994875</v>
+        <v>14989.844522905234</v>
       </c>
       <c r="E131">
-        <v>3835146.6498877495</v>
+        <v>5274780.9070343282</v>
       </c>
       <c r="F131">
-        <v>1359.5920536840872</v>
+        <v>1394884.3742340719</v>
       </c>
       <c r="G131">
-        <v>5637008.008256983</v>
+        <v>5637612.0615971284</v>
       </c>
       <c r="H131">
         <v>11189</v>
@@ -3834,22 +3834,22 @@
         <v>44024</v>
       </c>
       <c r="B132">
-        <v>4508.963994892727</v>
+        <v>6867.7792108245594</v>
       </c>
       <c r="C132">
-        <v>1636.559621706981</v>
+        <v>3202.1771290207221</v>
       </c>
       <c r="D132">
-        <v>13537.477705218325</v>
+        <v>15178.261749609717</v>
       </c>
       <c r="E132">
-        <v>3903185.5375832873</v>
+        <v>5282080.8478697762</v>
       </c>
       <c r="F132">
-        <v>1372.1018211889166</v>
+        <v>1461827.7866438855</v>
       </c>
       <c r="G132">
-        <v>5637466.8293926716</v>
+        <v>5638073.9686531574</v>
       </c>
       <c r="H132">
         <v>11210</v>
@@ -3860,22 +3860,22 @@
         <v>44025</v>
       </c>
       <c r="B133">
-        <v>4559.1633853971271</v>
+        <v>6944.2702522457294</v>
       </c>
       <c r="C133">
-        <v>1651.6166745116641</v>
+        <v>3233.8239181208637</v>
       </c>
       <c r="D133">
-        <v>13720.134515171365</v>
+        <v>15371.545351963479</v>
       </c>
       <c r="E133">
-        <v>3966427.0353944241</v>
+        <v>5288891.6239745663</v>
       </c>
       <c r="F133">
-        <v>1384.3729000453104</v>
+        <v>1530381.3649663767</v>
       </c>
       <c r="G133">
-        <v>5637886.8921580305</v>
+        <v>5638503.4967317218</v>
       </c>
       <c r="H133">
         <v>11236</v>
@@ -3886,22 +3886,22 @@
         <v>44026</v>
       </c>
       <c r="B134">
-        <v>4611.3631846234357</v>
+        <v>7022.5244411118438</v>
       </c>
       <c r="C134">
-        <v>1667.0120054892368</v>
+        <v>3266.0272121676121</v>
       </c>
       <c r="D134">
-        <v>13912.728233786707</v>
+        <v>15570.172418723185</v>
       </c>
       <c r="E134">
-        <v>4027216.95259945</v>
+        <v>5295251.6304973625</v>
       </c>
       <c r="F134">
-        <v>1396.9402463744859</v>
+        <v>1600934.6563532786</v>
       </c>
       <c r="G134">
-        <v>5638278.9595870161</v>
+        <v>5638903.3578710817</v>
       </c>
       <c r="H134">
         <v>11265</v>
@@ -3912,22 +3912,22 @@
         <v>44027</v>
       </c>
       <c r="B135">
-        <v>4663.3750876198628</v>
+        <v>7099.3390034815238</v>
       </c>
       <c r="C135">
-        <v>1682.2530781052965</v>
+        <v>3297.7411456461373</v>
       </c>
       <c r="D135">
-        <v>14106.644963174462</v>
+        <v>15765.585458638277</v>
       </c>
       <c r="E135">
-        <v>4084925.1013596943</v>
+        <v>5301119.7767682103</v>
       </c>
       <c r="F135">
-        <v>1409.4611965651588</v>
+        <v>1672116.7240716428</v>
       </c>
       <c r="G135">
-        <v>5638642.8704511523</v>
+        <v>5639271.993001719</v>
       </c>
       <c r="H135">
         <v>11304</v>
@@ -3938,22 +3938,22 @@
         <v>44028</v>
       </c>
       <c r="B136">
-        <v>4715.4448624134639</v>
+        <v>7177.1605230563655</v>
       </c>
       <c r="C136">
-        <v>1697.5973183047008</v>
+        <v>3329.7771278228583</v>
       </c>
       <c r="D136">
-        <v>14299.784451351705</v>
+        <v>15963.537963484701</v>
       </c>
       <c r="E136">
-        <v>4139670.9584554732</v>
+        <v>5306542.2010796191</v>
       </c>
       <c r="F136">
-        <v>1421.9510710016712</v>
+        <v>1744174.2667599455</v>
       </c>
       <c r="G136">
-        <v>5638981.1484095426</v>
+        <v>5639612.2883460885</v>
       </c>
       <c r="H136">
         <v>11351</v>
@@ -3964,22 +3964,22 @@
         <v>44029</v>
       </c>
       <c r="B137">
-        <v>4768.8889442760801</v>
+        <v>7257.3789583661955</v>
       </c>
       <c r="C137">
-        <v>1713.2589151020102</v>
+        <v>3362.6648336842245</v>
       </c>
       <c r="D137">
-        <v>14497.555199625964</v>
+        <v>16167.99937006976</v>
       </c>
       <c r="E137">
-        <v>4190943.8665092858</v>
+        <v>5311599.1671166746</v>
       </c>
       <c r="F137">
-        <v>1434.6878190648672</v>
+        <v>1817820.2877343367</v>
       </c>
       <c r="G137">
-        <v>5639293.1827139035</v>
+        <v>5639928.6979594529</v>
       </c>
       <c r="H137">
         <v>11382</v>
@@ -3990,22 +3990,22 @@
         <v>44030</v>
       </c>
       <c r="B138">
-        <v>4819.8287580167544</v>
+        <v>7337.076019021275</v>
       </c>
       <c r="C138">
-        <v>1728.4852967048137</v>
+        <v>3395.5412873797914</v>
       </c>
       <c r="D138">
-        <v>14682.970514809291</v>
+        <v>16369.819054399533</v>
       </c>
       <c r="E138">
-        <v>4238710.7023503147</v>
+        <v>5316257.1405996429</v>
       </c>
       <c r="F138">
-        <v>1447.0355783660127</v>
+        <v>1891663.9689842963</v>
       </c>
       <c r="G138">
-        <v>5639580.2593599698</v>
+        <v>5640220.0585178407</v>
       </c>
       <c r="H138">
         <v>11425</v>
@@ -4016,22 +4016,22 @@
         <v>44031</v>
       </c>
       <c r="B139">
-        <v>4873.7796199481772</v>
+        <v>7417.1945196621418</v>
       </c>
       <c r="C139">
-        <v>1744.3642775641924</v>
+        <v>3428.4396093179439</v>
       </c>
       <c r="D139">
-        <v>14881.722998250225</v>
+        <v>16573.784404393205</v>
       </c>
       <c r="E139">
-        <v>4284508.7813144289</v>
+        <v>5320609.770299823</v>
       </c>
       <c r="F139">
-        <v>1459.8650205648578</v>
+        <v>1966588.0062931336</v>
       </c>
       <c r="G139">
-        <v>5639849.5260548173</v>
+        <v>5640490.9357588422</v>
       </c>
       <c r="H139">
         <v>11452</v>
@@ -4042,22 +4042,22 @@
         <v>44032</v>
       </c>
       <c r="B140">
-        <v>4926.0841182059721</v>
+        <v>7497.045602360984</v>
       </c>
       <c r="C140">
-        <v>1759.9103812463936</v>
+        <v>3461.2438839281745</v>
       </c>
       <c r="D140">
-        <v>15072.249451194311</v>
+        <v>16777.061512094584</v>
       </c>
       <c r="E140">
-        <v>4326769.9562849179</v>
+        <v>5324683.4134254977</v>
       </c>
       <c r="F140">
-        <v>1472.4461317896212</v>
+        <v>2042311.3577279823</v>
       </c>
       <c r="G140">
-        <v>5640096.2769592432</v>
+        <v>5640743.055131997</v>
       </c>
       <c r="H140">
         <v>11481</v>
@@ -4068,22 +4068,22 @@
         <v>44033</v>
       </c>
       <c r="B141">
-        <v>4980.441980950749</v>
+        <v>7578.0764792639166</v>
       </c>
       <c r="C141">
-        <v>1775.8798510671077</v>
+        <v>3494.4582705197413</v>
       </c>
       <c r="D141">
-        <v>15272.902185578994</v>
+        <v>16983.58347981748</v>
       </c>
       <c r="E141">
-        <v>4367094.8145638779</v>
+        <v>5328499.2618074194</v>
       </c>
       <c r="F141">
-        <v>1485.3358559754797</v>
+        <v>2119124.999623904</v>
       </c>
       <c r="G141">
-        <v>5640326.7728865398</v>
+        <v>5640977.9653559942</v>
       </c>
       <c r="H141">
         <v>11515</v>
@@ -4094,22 +4094,22 @@
         <v>44034</v>
       </c>
       <c r="B142">
-        <v>5034.3743980821182</v>
+        <v>7657.9701105324802</v>
       </c>
       <c r="C142">
-        <v>1791.8569799209724</v>
+        <v>3527.2771921895724</v>
       </c>
       <c r="D142">
-        <v>15470.136883483226</v>
+        <v>17186.73856367038</v>
       </c>
       <c r="E142">
-        <v>4405155.5157194491</v>
+        <v>5332030.3728940692</v>
       </c>
       <c r="F142">
-        <v>1498.1770205335292</v>
+        <v>2195512.6647898448</v>
       </c>
       <c r="G142">
-        <v>5640540.868633559</v>
+        <v>5641194.7059235508</v>
       </c>
       <c r="H142">
         <v>11549</v>
@@ -4120,22 +4120,22 @@
         <v>44035</v>
       </c>
       <c r="B143">
-        <v>5088.1669102797814</v>
+        <v>7738.4076420462279</v>
       </c>
       <c r="C143">
-        <v>1807.6990306910971</v>
+        <v>3560.3394445690537</v>
       </c>
       <c r="D143">
-        <v>15668.729169965201</v>
+        <v>17391.802889041224</v>
       </c>
       <c r="E143">
-        <v>4441087.7262044819</v>
+        <v>5335302.6507776389</v>
       </c>
       <c r="F143">
-        <v>1510.986647850079</v>
+        <v>2271570.8237067428</v>
       </c>
       <c r="G143">
-        <v>5640740.0410330305</v>
+        <v>5641394.9379668236</v>
       </c>
       <c r="H143">
         <v>11598</v>
@@ -4146,22 +4146,22 @@
         <v>44036</v>
       </c>
       <c r="B144">
-        <v>5143.3134672223414</v>
+        <v>7820.0710193780396</v>
       </c>
       <c r="C144">
-        <v>1823.8445069024538</v>
+        <v>3593.8272751955406</v>
       </c>
       <c r="D144">
-        <v>15872.665689333053</v>
+        <v>17599.859184200453</v>
       </c>
       <c r="E144">
-        <v>4474567.5450223414</v>
+        <v>5338362.6977547109</v>
       </c>
       <c r="F144">
-        <v>1524.05108000518</v>
+        <v>2348037.3520018631</v>
       </c>
       <c r="G144">
-        <v>5640923.8720755894</v>
+        <v>5641581.2478852011</v>
       </c>
       <c r="H144">
         <v>11626</v>
@@ -4172,22 +4172,22 @@
         <v>44037</v>
       </c>
       <c r="B145">
-        <v>5196.3582132397732</v>
+        <v>7900.760936277311</v>
       </c>
       <c r="C145">
-        <v>1839.5385161659246</v>
+        <v>3626.9096060171632</v>
       </c>
       <c r="D145">
-        <v>16067.35650712741</v>
+        <v>17805.577172176789</v>
       </c>
       <c r="E145">
-        <v>4505684.549949538</v>
+        <v>5341188.6214643102</v>
       </c>
       <c r="F145">
-        <v>1536.7125072264321</v>
+        <v>2423394.3849209049</v>
       </c>
       <c r="G145">
-        <v>5641093.1283311378</v>
+        <v>5641752.9220833601</v>
       </c>
       <c r="H145">
         <v>11648</v>
@@ -4198,22 +4198,22 @@
         <v>44038</v>
       </c>
       <c r="B146">
-        <v>5252.682788311191</v>
+        <v>7981.6570907432579</v>
       </c>
       <c r="C146">
-        <v>1855.8256884394511</v>
+        <v>3659.8327332730078</v>
       </c>
       <c r="D146">
-        <v>16278.599122809001</v>
+        <v>18013.198475461439</v>
       </c>
       <c r="E146">
-        <v>4535414.5149216158</v>
+        <v>5343835.4412102671</v>
       </c>
       <c r="F146">
-        <v>1549.8731396239418</v>
+        <v>2498763.8793685026</v>
       </c>
       <c r="G146">
-        <v>5641251.971697676</v>
+        <v>5641912.6223532762</v>
       </c>
       <c r="H146">
         <v>11667</v>
@@ -4224,22 +4224,22 @@
         <v>44039</v>
       </c>
       <c r="B147">
-        <v>5307.2579237531081</v>
+        <v>8064.250268179092</v>
       </c>
       <c r="C147">
-        <v>1871.7726528164976</v>
+        <v>3693.5577734384074</v>
       </c>
       <c r="D147">
-        <v>16481.205639473515</v>
+        <v>18224.763198463177</v>
       </c>
       <c r="E147">
-        <v>4562796.2346520443</v>
+        <v>5346317.9222167097</v>
       </c>
       <c r="F147">
-        <v>1562.7754083378366</v>
+        <v>2573890.3394392207</v>
       </c>
       <c r="G147">
-        <v>5641397.6159425024</v>
+        <v>5642061.3445571242</v>
       </c>
       <c r="H147">
         <v>11724</v>
@@ -4250,22 +4250,22 @@
         <v>44040</v>
       </c>
       <c r="B148">
-        <v>5364.0814602207711</v>
+        <v>8148.7555304471607</v>
       </c>
       <c r="C148">
-        <v>1888.0920659378785</v>
+        <v>3727.9098523696921</v>
       </c>
       <c r="D148">
-        <v>16696.026854510965</v>
+        <v>18441.848972019987</v>
       </c>
       <c r="E148">
-        <v>4588863.5230054855</v>
+        <v>5348648.2302821968</v>
       </c>
       <c r="F148">
-        <v>1575.9991486834115</v>
+        <v>2648937.1564863394</v>
       </c>
       <c r="G148">
-        <v>5641533.7305538412</v>
+        <v>5642199.9871069835</v>
       </c>
       <c r="H148">
         <v>11789</v>
@@ -4276,22 +4276,22 @@
         <v>44041</v>
       </c>
       <c r="B149">
-        <v>5420.3853629387322</v>
+        <v>8232.0217048424893</v>
       </c>
       <c r="C149">
-        <v>1904.4870739779235</v>
+        <v>3761.8284283247535</v>
       </c>
       <c r="D149">
-        <v>16905.518948432382</v>
+        <v>18655.453193112167</v>
       </c>
       <c r="E149">
-        <v>4613428.4206545856</v>
+        <v>5350808.9574339548</v>
       </c>
       <c r="F149">
-        <v>1589.1720694713181</v>
+        <v>2722443.1997108064</v>
       </c>
       <c r="G149">
-        <v>5641660.2126238719</v>
+        <v>5642327.9676002702</v>
       </c>
       <c r="H149">
         <v>11838</v>
@@ -4302,22 +4302,22 @@
         <v>44042</v>
       </c>
       <c r="B150">
-        <v>5476.8116328143769</v>
+        <v>8316.2457145854933</v>
       </c>
       <c r="C150">
-        <v>1920.8413539969856</v>
+        <v>3796.0873880628587</v>
       </c>
       <c r="D150">
-        <v>17116.42126744604</v>
+        <v>18872.347031365025</v>
       </c>
       <c r="E150">
-        <v>4636605.5295621455</v>
+        <v>5352815.1845335336</v>
       </c>
       <c r="F150">
-        <v>1602.3129983756</v>
+        <v>2794453.503724237</v>
       </c>
       <c r="G150">
-        <v>5641777.9358220594</v>
+        <v>5642446.2544467598</v>
       </c>
       <c r="H150">
         <v>11901</v>
@@ -4328,22 +4328,22 @@
         <v>44043</v>
       </c>
       <c r="B151">
-        <v>5534.5698423440626</v>
+        <v>8401.4313427860325</v>
       </c>
       <c r="C151">
-        <v>1937.6445880682363</v>
+        <v>3830.7577804648472</v>
       </c>
       <c r="D151">
-        <v>17330.898903272249</v>
+        <v>19090.942255794955</v>
       </c>
       <c r="E151">
-        <v>4658173.3083293801</v>
+        <v>5354694.7281633224</v>
       </c>
       <c r="F151">
-        <v>1615.7169121149241</v>
+        <v>2865681.9422603599</v>
       </c>
       <c r="G151">
-        <v>5641886.62691449</v>
+        <v>5642556.363625776</v>
       </c>
       <c r="H151">
         <v>11941</v>
@@ -4354,22 +4354,22 @@
         <v>44044</v>
       </c>
       <c r="B152">
-        <v>5589.8287759752966</v>
+        <v>8486.5956847284069</v>
       </c>
       <c r="C152">
-        <v>1953.8441565626906</v>
+        <v>3865.5089602603812</v>
       </c>
       <c r="D152">
-        <v>17535.080543753873</v>
+        <v>19308.903671991069</v>
       </c>
       <c r="E152">
-        <v>4678235.1586085781</v>
+        <v>5356433.4834359549</v>
       </c>
       <c r="F152">
-        <v>1628.7032967804839</v>
+        <v>2934726.4464252251</v>
       </c>
       <c r="G152">
-        <v>5641986.7509689284</v>
+        <v>5642657.8633936476</v>
       </c>
       <c r="H152">
         <v>11975</v>
@@ -4380,22 +4380,22 @@
         <v>44045</v>
       </c>
       <c r="B153">
-        <v>5648.3402722311575</v>
+        <v>8571.6272490985139</v>
       </c>
       <c r="C153">
-        <v>1970.783102310055</v>
+        <v>3899.9971438524153</v>
       </c>
       <c r="D153">
-        <v>17753.401023458769</v>
+        <v>19527.871408893716</v>
       </c>
       <c r="E153">
-        <v>4697395.8076918218</v>
+        <v>5358064.5495374836</v>
       </c>
       <c r="F153">
-        <v>1642.2070508829829</v>
+        <v>3002826.7418361641</v>
       </c>
       <c r="G153">
-        <v>5642080.7444520183</v>
+        <v>5642752.3170033582</v>
       </c>
       <c r="H153">
         <v>12014</v>
@@ -4406,22 +4406,22 @@
         <v>44046</v>
       </c>
       <c r="B154">
-        <v>5705.2755534222524</v>
+        <v>8656.9733196410925</v>
       </c>
       <c r="C154">
-        <v>1987.2094393946836</v>
+        <v>3934.5989446886797</v>
       </c>
       <c r="D154">
-        <v>17967.189717986188</v>
+        <v>19748.030432084772</v>
       </c>
       <c r="E154">
-        <v>4715053.6811451344</v>
+        <v>5359596.5169779342</v>
       </c>
       <c r="F154">
-        <v>1655.4420024215281</v>
+        <v>3069824.9067081148</v>
       </c>
       <c r="G154">
-        <v>5642166.958146139</v>
+        <v>5642840.3062064396</v>
       </c>
       <c r="H154">
         <v>12078</v>
@@ -4432,22 +4432,22 @@
         <v>44047</v>
       </c>
       <c r="B155">
-        <v>5764.5255398238005</v>
+        <v>8743.7206831471576</v>
       </c>
       <c r="C155">
-        <v>2004.0738265285336</v>
+        <v>3969.6377918674107</v>
       </c>
       <c r="D155">
-        <v>18192.657524856226</v>
+        <v>19972.225666760787</v>
       </c>
       <c r="E155">
-        <v>4731865.3774929829</v>
+        <v>5361036.5866281204</v>
       </c>
       <c r="F155">
-        <v>1669.0118185903721</v>
+        <v>3135800.2694156617</v>
       </c>
       <c r="G155">
-        <v>5642247.5524519617</v>
+        <v>5642922.3571746117</v>
       </c>
       <c r="H155">
         <v>12140</v>
@@ -4458,22 +4458,22 @@
         <v>44048</v>
       </c>
       <c r="B156">
-        <v>5823.2209677482406</v>
+        <v>8830.3750303559627</v>
       </c>
       <c r="C156">
-        <v>2021.0007654420997</v>
+        <v>4004.6861107212535</v>
       </c>
       <c r="D156">
-        <v>18412.74404376189</v>
+        <v>20196.025115165579</v>
       </c>
       <c r="E156">
-        <v>4747712.778558664</v>
+        <v>5362373.613914676</v>
       </c>
       <c r="F156">
-        <v>1682.5284546657795</v>
+        <v>3199529.2634363398</v>
       </c>
       <c r="G156">
-        <v>5642322.4607034279</v>
+        <v>5642998.1198370373</v>
       </c>
       <c r="H156">
         <v>12190</v>
@@ -4484,22 +4484,22 @@
         <v>44049</v>
       </c>
       <c r="B157">
-        <v>5881.7536157153909</v>
+        <v>8917.6951709739969</v>
       </c>
       <c r="C157">
-        <v>2037.7601603079893</v>
+        <v>4040.0182644715287</v>
       </c>
       <c r="D157">
-        <v>18634.845840155071</v>
+        <v>20422.131949166996</v>
       </c>
       <c r="E157">
-        <v>4762682.2218080144</v>
+        <v>5363616.6194090229</v>
       </c>
       <c r="F157">
-        <v>1696.0126520955919</v>
+        <v>3261087.202416793</v>
       </c>
       <c r="G157">
-        <v>5642392.2031187955</v>
+        <v>5643068.1631602151</v>
       </c>
       <c r="H157">
         <v>12275</v>
@@ -4510,22 +4510,22 @@
         <v>44050</v>
       </c>
       <c r="B158">
-        <v>5941.9970116057502</v>
+        <v>9005.977259857209</v>
       </c>
       <c r="C158">
-        <v>2055.0759226273258</v>
+        <v>4075.6886974600011</v>
       </c>
       <c r="D158">
-        <v>18861.008283811061</v>
+        <v>20650.24066848732</v>
       </c>
       <c r="E158">
-        <v>4776616.9841461936</v>
+        <v>5364782.5340916459</v>
       </c>
       <c r="F158">
-        <v>1709.7682705574689</v>
+        <v>3321132.7458782354</v>
       </c>
       <c r="G158">
-        <v>5642456.6052196082</v>
+        <v>5643133.380707643</v>
       </c>
       <c r="H158">
         <v>12310</v>
@@ -4536,22 +4536,22 @@
         <v>44051</v>
       </c>
       <c r="B159">
-        <v>5999.7474238157429</v>
+        <v>9093.1284164515801</v>
       </c>
       <c r="C159">
-        <v>2071.7031780266548</v>
+        <v>4110.8796775651035</v>
       </c>
       <c r="D159">
-        <v>19078.427459852977</v>
+        <v>20875.625945300882</v>
       </c>
       <c r="E159">
-        <v>4789603.9837132785</v>
+        <v>5365862.3426877055</v>
       </c>
       <c r="F159">
-        <v>1723.0913093864306</v>
+        <v>3378544.8310918454</v>
       </c>
       <c r="G159">
-        <v>5642515.951940476</v>
+        <v>5643193.5132504068</v>
       </c>
       <c r="H159">
         <v>12342</v>
@@ -4562,22 +4562,22 @@
         <v>44052</v>
       </c>
       <c r="B160">
-        <v>6061.1060737361749</v>
+        <v>9181.4230133665806</v>
       </c>
       <c r="C160">
-        <v>2088.9756080873126</v>
+        <v>4146.4343102638613</v>
       </c>
       <c r="D160">
-        <v>19314.316551557928</v>
+        <v>21104.563538432096</v>
       </c>
       <c r="E160">
-        <v>4802017.7272234019</v>
+        <v>5366876.2846219018</v>
       </c>
       <c r="F160">
-        <v>1736.9505473961149</v>
+        <v>3434516.458669614</v>
       </c>
       <c r="G160">
-        <v>5642571.6741785845</v>
+        <v>5643249.4829225484</v>
       </c>
       <c r="H160">
         <v>12406</v>
@@ -4588,22 +4588,22 @@
         <v>44053</v>
       </c>
       <c r="B161">
-        <v>6120.2210489500203</v>
+        <v>9270.8977379420794</v>
       </c>
       <c r="C161">
-        <v>2106.0501331212963</v>
+        <v>4182.4413803100124</v>
       </c>
       <c r="D161">
-        <v>19534.726086259492</v>
+        <v>21336.924782693379</v>
       </c>
       <c r="E161">
-        <v>4813474.2894774778</v>
+        <v>5367829.5007611038</v>
       </c>
       <c r="F161">
-        <v>1750.5301213727853</v>
+        <v>3488998.0614880323</v>
       </c>
       <c r="G161">
-        <v>5642622.7958957842</v>
+        <v>5643301.6320604337</v>
       </c>
       <c r="H161">
         <v>12478</v>
@@ -4614,22 +4614,22 @@
         <v>44054</v>
       </c>
       <c r="B162">
-        <v>6181.2550421954902</v>
+        <v>9362.410282247849</v>
       </c>
       <c r="C162">
-        <v>2123.0065301626073</v>
+        <v>4219.1098957050235</v>
       </c>
       <c r="D162">
-        <v>19773.006773853485</v>
+        <v>21575.24071042168</v>
       </c>
       <c r="E162">
-        <v>4824391.6323851645</v>
+        <v>5368726.3471367052</v>
       </c>
       <c r="F162">
-        <v>1764.4585093080491</v>
+        <v>3542040.5470302198</v>
       </c>
       <c r="G162">
-        <v>5642670.5924311616</v>
+        <v>5643350.2706046514</v>
       </c>
       <c r="H162">
         <v>12547</v>
@@ -4640,22 +4640,22 @@
         <v>44055</v>
       </c>
       <c r="B163">
-        <v>6241.6913661233812</v>
+        <v>9451.3938853170384</v>
       </c>
       <c r="C163">
-        <v>2139.6417386255207</v>
+        <v>4254.8867331681586</v>
       </c>
       <c r="D163">
-        <v>20012.59480391521</v>
+        <v>21806.201093024822</v>
       </c>
       <c r="E163">
-        <v>4834691.8054567566</v>
+        <v>5369559.7285249429</v>
       </c>
       <c r="F163">
-        <v>1778.3312516701699</v>
+        <v>3592726.9901480409</v>
       </c>
       <c r="G163">
-        <v>5642715.0224039415</v>
+        <v>5643395.18917262</v>
       </c>
       <c r="H163">
         <v>12626</v>
@@ -4666,22 +4666,22 @@
         <v>44056</v>
       </c>
       <c r="B164">
-        <v>6302.0427790603107</v>
+        <v>9539.0723033825707</v>
       </c>
       <c r="C164">
-        <v>2156.3491873516141</v>
+        <v>4289.7457175340442</v>
       </c>
       <c r="D164">
-        <v>20255.293922771158</v>
+        <v>22036.499882811473</v>
       </c>
       <c r="E164">
-        <v>4844437.0739249233</v>
+        <v>5370335.143262201</v>
       </c>
       <c r="F164">
-        <v>1792.1711176013682</v>
+        <v>3641173.841464377</v>
       </c>
       <c r="G164">
-        <v>5642756.3967752419</v>
+        <v>5643436.7236090051</v>
       </c>
       <c r="H164">
         <v>12682</v>
@@ -4692,22 +4692,22 @@
         <v>44057</v>
       </c>
       <c r="B165">
-        <v>6364.0405096132627</v>
+        <v>9626.7152248745624</v>
       </c>
       <c r="C165">
-        <v>2173.2129943481314</v>
+        <v>4324.1883345494498</v>
       </c>
       <c r="D165">
-        <v>20502.9767181565</v>
+        <v>22269.770321164513</v>
       </c>
       <c r="E165">
-        <v>4853515.8193133669</v>
+        <v>5371063.0332130566</v>
       </c>
       <c r="F165">
-        <v>1806.2911045754454</v>
+        <v>3687951.5340052587</v>
       </c>
       <c r="G165">
-        <v>5642794.6055529322</v>
+        <v>5643475.4023740981</v>
       </c>
       <c r="H165">
         <v>12762</v>
@@ -4718,22 +4718,22 @@
         <v>44058</v>
       </c>
       <c r="B166">
-        <v>6423.4582282064493</v>
+        <v>9714.6513039131678</v>
       </c>
       <c r="C166">
-        <v>2189.8211437215305</v>
+        <v>4358.8769465679361</v>
       </c>
       <c r="D166">
-        <v>20736.937058089516</v>
+        <v>22501.992840899773</v>
       </c>
       <c r="E166">
-        <v>4861994.8948816927</v>
+        <v>5371737.6637143688</v>
       </c>
       <c r="F166">
-        <v>1819.9629158231087</v>
+        <v>3732245.9359086277</v>
       </c>
       <c r="G166">
-        <v>5642829.8242088174</v>
+        <v>5643511.0704976236</v>
       </c>
       <c r="H166">
         <v>12810</v>
@@ -4744,22 +4744,22 @@
         <v>44059</v>
       </c>
       <c r="B167">
-        <v>6486.1304685235327</v>
+        <v>9803.1043322098067</v>
       </c>
       <c r="C167">
-        <v>2206.8958338079001</v>
+        <v>4393.8036854365691</v>
       </c>
       <c r="D167">
-        <v>20989.148672468848</v>
+        <v>22737.223006863671</v>
       </c>
       <c r="E167">
-        <v>4870108.1748270914</v>
+        <v>5372371.5454357192</v>
       </c>
       <c r="F167">
-        <v>1834.1904458267513</v>
+        <v>3775074.1181896231</v>
       </c>
       <c r="G167">
-        <v>5642862.8946399894</v>
+        <v>5643544.2733581932</v>
       </c>
       <c r="H167">
         <v>12868</v>
@@ -4770,22 +4770,22 @@
         <v>44060</v>
       </c>
       <c r="B168">
-        <v>6546.9766096508502</v>
+        <v>9891.4765984048718</v>
       </c>
       <c r="C168">
-        <v>2223.7593201933655</v>
+        <v>4428.5717736428378</v>
       </c>
       <c r="D168">
-        <v>21228.783676389514</v>
+        <v>22972.812150076919</v>
       </c>
       <c r="E168">
-        <v>4877607.1349646496</v>
+        <v>5372967.8161657955</v>
       </c>
       <c r="F168">
-        <v>1848.1270106662316</v>
+        <v>3816456.0425272794</v>
       </c>
       <c r="G168">
-        <v>5642893.2392727192</v>
+        <v>5643575.213294371</v>
       </c>
       <c r="H168">
         <v>12921</v>
@@ -4796,22 +4796,22 @@
         <v>44061</v>
       </c>
       <c r="B169">
-        <v>6610.2903698230257</v>
+        <v>9980.7929700595159</v>
       </c>
       <c r="C169">
-        <v>2240.9818491684323</v>
+        <v>4463.6647815120004</v>
       </c>
       <c r="D169">
-        <v>21482.519040141236</v>
+        <v>23212.275295370877</v>
       </c>
       <c r="E169">
-        <v>4884760.2033730038</v>
+        <v>5373529.1503266394</v>
       </c>
       <c r="F169">
-        <v>1862.4269180131282</v>
+        <v>3856437.2842835989</v>
       </c>
       <c r="G169">
-        <v>5642921.6121704997</v>
+        <v>5643604.0735065863</v>
       </c>
       <c r="H169">
         <v>12992</v>
@@ -4822,22 +4822,22 @@
         <v>44062</v>
       </c>
       <c r="B170">
-        <v>6673.2025774181293</v>
+        <v>10069.831267558768</v>
       </c>
       <c r="C170">
-        <v>2258.1419448131714</v>
+        <v>4498.753443664089</v>
       </c>
       <c r="D170">
-        <v>21733.985921244726</v>
+        <v>23448.912412870406</v>
       </c>
       <c r="E170">
-        <v>4891514.941448763</v>
+        <v>5374051.0458882637</v>
       </c>
       <c r="F170">
-        <v>1876.6686048458166</v>
+        <v>3894372.6966601163</v>
       </c>
       <c r="G170">
-        <v>5642947.9882207131</v>
+        <v>5643630.7291174456</v>
       </c>
       <c r="H170">
         <v>13051</v>
@@ -4848,22 +4848,22 @@
         <v>44063</v>
       </c>
       <c r="B171">
-        <v>6736.1131346495104</v>
+        <v>10159.361331725715</v>
       </c>
       <c r="C171">
-        <v>2275.3313841942463</v>
+        <v>4533.9057132278904</v>
       </c>
       <c r="D171">
-        <v>21988.189228633051</v>
+        <v>23687.216038192309</v>
       </c>
       <c r="E171">
-        <v>4897915.5683543114</v>
+        <v>5374536.8969179559</v>
       </c>
       <c r="F171">
-        <v>1890.8769875996561</v>
+        <v>3930389.4968638192</v>
       </c>
       <c r="G171">
-        <v>5642972.5537291951</v>
+        <v>5643655.3789195605</v>
       </c>
       <c r="H171">
         <v>13101</v>
@@ -4874,22 +4874,22 @@
         <v>44064</v>
       </c>
       <c r="B172">
-        <v>6800.3327398503807</v>
+        <v>10250.058753641215</v>
       </c>
       <c r="C172">
-        <v>2292.3160668975784</v>
+        <v>4569.3172719942022</v>
       </c>
       <c r="D172">
-        <v>22253.107170786949</v>
+        <v>23929.752636226913</v>
       </c>
       <c r="E172">
-        <v>4903882.7489866382</v>
+        <v>5374993.1991636306</v>
       </c>
       <c r="F172">
-        <v>1905.3744630352812</v>
+        <v>3964946.432509678</v>
       </c>
       <c r="G172">
-        <v>5642995.2398783835</v>
+        <v>5643678.3360731713</v>
       </c>
       <c r="H172">
         <v>13157</v>
@@ -4900,22 +4900,22 @@
         <v>44065</v>
       </c>
       <c r="B173">
-        <v>6861.8008296099233</v>
+        <v>10340.88171724217</v>
       </c>
       <c r="C173">
-        <v>2309.0713339564272</v>
+        <v>4604.9416827633577</v>
       </c>
       <c r="D173">
-        <v>22505.775784546906</v>
+        <v>24171.152942380701</v>
       </c>
       <c r="E173">
-        <v>4909466.4006767478</v>
+        <v>5375416.3153368598</v>
       </c>
       <c r="F173">
-        <v>1919.4076013144365</v>
+        <v>3997478.069619406</v>
       </c>
       <c r="G173">
-        <v>5643016.154991162</v>
+        <v>5643699.5081690028</v>
       </c>
       <c r="H173">
         <v>13216</v>
@@ -4926,22 +4926,22 @@
         <v>44066</v>
       </c>
       <c r="B174">
-        <v>6927.009946945278</v>
+        <v>10430.867711752329</v>
       </c>
       <c r="C174">
-        <v>2326.6063312254396</v>
+        <v>4640.0712883520237</v>
       </c>
       <c r="D174">
-        <v>22771.80425338056</v>
+        <v>24414.220759303651</v>
       </c>
       <c r="E174">
-        <v>4914814.0064538261</v>
+        <v>5375814.0333961323</v>
       </c>
       <c r="F174">
-        <v>1934.0166929811933</v>
+        <v>4028776.3311696341</v>
       </c>
       <c r="G174">
-        <v>5643035.7949385382</v>
+        <v>5643719.2182651907</v>
       </c>
       <c r="H174">
         <v>13266</v>
@@ -4952,22 +4952,22 @@
         <v>44067</v>
       </c>
       <c r="B175">
-        <v>6990.3135724131698</v>
+        <v>10520.220767027346</v>
       </c>
       <c r="C175">
-        <v>2343.9361276671821</v>
+        <v>4674.9828932344444</v>
       </c>
       <c r="D175">
-        <v>23023.509866614502</v>
+        <v>24657.137428714639</v>
       </c>
       <c r="E175">
-        <v>4919763.1379366219</v>
+        <v>5376188.2941642478</v>
       </c>
       <c r="F175">
-        <v>1948.3230609364123</v>
+        <v>4058887.0461819838</v>
       </c>
       <c r="G175">
-        <v>5643053.8179672537</v>
+        <v>5643737.5862693666</v>
       </c>
       <c r="H175">
         <v>13309</v>
@@ -4978,22 +4978,22 @@
         <v>44068</v>
       </c>
       <c r="B176">
-        <v>7056.2253869931083</v>
+        <v>10612.225802001707</v>
       </c>
       <c r="C176">
-        <v>2361.691396961075</v>
+        <v>4710.7373379133032</v>
       </c>
       <c r="D176">
-        <v>23290.676202007005</v>
+        <v>24905.756256462835</v>
       </c>
       <c r="E176">
-        <v>4924487.8451500516</v>
+        <v>5376540.7557824617</v>
       </c>
       <c r="F176">
-        <v>1963.0079029829649</v>
+        <v>4087851.0248917472</v>
       </c>
       <c r="G176">
-        <v>5643070.6703500478</v>
+        <v>5643754.7206912059</v>
       </c>
       <c r="H176">
         <v>13368</v>
@@ -5004,22 +5004,22 @@
         <v>44069</v>
       </c>
       <c r="B177">
-        <v>7121.4727760002916</v>
+        <v>10703.944590383837</v>
       </c>
       <c r="C177">
-        <v>2379.0776305385002</v>
+        <v>4746.5675075044564</v>
       </c>
       <c r="D177">
-        <v>23558.698870970813</v>
+        <v>25151.543991426744</v>
       </c>
       <c r="E177">
-        <v>4928952.64931753</v>
+        <v>5376868.5675101159</v>
       </c>
       <c r="F177">
-        <v>1977.6318354091309</v>
+        <v>4115224.212308892</v>
       </c>
       <c r="G177">
-        <v>5643086.3370370585</v>
+        <v>5643770.5471772021</v>
       </c>
       <c r="H177">
         <v>13427</v>
@@ -5030,22 +5030,22 @@
         <v>44070</v>
       </c>
       <c r="B178">
-        <v>7188.6887472669723</v>
+        <v>10796.182200714742</v>
       </c>
       <c r="C178">
-        <v>2396.5530724051873</v>
+        <v>4782.5497924120245</v>
       </c>
       <c r="D178">
-        <v>23845.620657019812</v>
+        <v>25399.043077010097</v>
       </c>
       <c r="E178">
-        <v>4933188.8155739801</v>
+        <v>5377173.8419049447</v>
       </c>
       <c r="F178">
-        <v>1992.2220474737578</v>
+        <v>4141118.313135121</v>
       </c>
       <c r="G178">
-        <v>5643100.929802171</v>
+        <v>5643785.1835920252</v>
       </c>
       <c r="H178">
         <v>13476</v>
@@ -5056,22 +5056,22 @@
         <v>44071</v>
       </c>
       <c r="B179">
-        <v>7258.217014666493</v>
+        <v>10888.637265494499</v>
       </c>
       <c r="C179">
-        <v>2414.731976694959</v>
+        <v>4818.1858610073468</v>
       </c>
       <c r="D179">
-        <v>24135.861265104868</v>
+        <v>25649.816938541942</v>
       </c>
       <c r="E179">
-        <v>4937140.140766006</v>
+        <v>5377460.6425499162</v>
       </c>
       <c r="F179">
-        <v>2007.1106035061539</v>
+        <v>4165880.2836914598</v>
       </c>
       <c r="G179">
-        <v>5643114.4057919672</v>
+        <v>5643798.815732047</v>
       </c>
       <c r="H179">
         <v>13558</v>
@@ -5082,22 +5082,22 @@
         <v>44072</v>
       </c>
       <c r="B180">
-        <v>7324.3535379827226</v>
+        <v>10983.53249287266</v>
       </c>
       <c r="C180">
-        <v>2432.3916587522435</v>
+        <v>4854.5404343700384</v>
       </c>
       <c r="D180">
-        <v>24410.40513956649</v>
+        <v>25909.972191151934</v>
       </c>
       <c r="E180">
-        <v>4940843.5104190409</v>
+        <v>5377726.6665352415</v>
       </c>
       <c r="F180">
-        <v>2021.5180751023206</v>
+        <v>4189121.4356023585</v>
       </c>
       <c r="G180">
-        <v>5643126.8319348674</v>
+        <v>5643811.3885748424</v>
       </c>
       <c r="H180">
         <v>13622</v>
@@ -5108,22 +5108,22 @@
         <v>44073</v>
       </c>
       <c r="B181">
-        <v>7395.3720175443277</v>
+        <v>11080.798760027397</v>
       </c>
       <c r="C181">
-        <v>2450.9776997575877</v>
+        <v>4891.5724002336683</v>
       </c>
       <c r="D181">
-        <v>24706.57789927307</v>
+        <v>26177.741720915623</v>
       </c>
       <c r="E181">
-        <v>4944392.6877344465</v>
+        <v>5377976.783934854</v>
       </c>
       <c r="F181">
-        <v>2036.5224759054972</v>
+        <v>4211423.8031371348</v>
       </c>
       <c r="G181">
-        <v>5643138.5004663244</v>
+        <v>5643823.0936637148</v>
       </c>
       <c r="H181">
         <v>13702</v>
@@ -5134,22 +5134,22 @@
         <v>44074</v>
       </c>
       <c r="B182">
-        <v>7463.508388071632</v>
+        <v>11179.526657430459</v>
       </c>
       <c r="C182">
-        <v>2468.9034049838401</v>
+        <v>4928.9750412150552</v>
       </c>
       <c r="D182">
-        <v>24992.107457228874</v>
+        <v>26450.520339851446</v>
       </c>
       <c r="E182">
-        <v>4947680.8385051563</v>
+        <v>5378212.2057503443</v>
       </c>
       <c r="F182">
-        <v>2051.2119185723909</v>
+        <v>4232833.8067701459</v>
       </c>
       <c r="G182">
-        <v>5643149.2091822308</v>
+        <v>5643834.002168552</v>
       </c>
       <c r="H182">
         <v>13802</v>
@@ -5160,22 +5160,22 @@
         <v>44075</v>
       </c>
       <c r="B183">
-        <v>7535.0328789289424</v>
+        <v>11280.486226038092</v>
       </c>
       <c r="C183">
-        <v>2487.5301875121122</v>
+        <v>4967.0152004029042</v>
       </c>
       <c r="D183">
-        <v>25293.731408969983</v>
+        <v>26730.448673442959</v>
       </c>
       <c r="E183">
-        <v>4950821.7353580156</v>
+        <v>5378433.96659113</v>
       </c>
       <c r="F183">
-        <v>2066.2955947236405</v>
+        <v>4253384.5634070374</v>
       </c>
       <c r="G183">
-        <v>5643159.222345449</v>
+        <v>5643844.1784385582</v>
       </c>
       <c r="H183">
         <v>13967</v>
@@ -5186,22 +5186,22 @@
         <v>44076</v>
       </c>
       <c r="B184">
-        <v>7606.3479344137095</v>
+        <v>11378.328586071599</v>
       </c>
       <c r="C184">
-        <v>2506.1335763764341</v>
+        <v>5004.1619847738602</v>
       </c>
       <c r="D184">
-        <v>25594.470189911925</v>
+        <v>27001.962494998523</v>
       </c>
       <c r="E184">
-        <v>4953791.3551129932</v>
+        <v>5378640.263623693</v>
       </c>
       <c r="F184">
-        <v>2081.3155530859449</v>
+        <v>4272770.5073626461</v>
       </c>
       <c r="G184">
-        <v>5643168.5310011432</v>
+        <v>5643853.5782462731</v>
       </c>
       <c r="H184">
         <v>14105</v>
@@ -5212,22 +5212,22 @@
         <v>44077</v>
       </c>
       <c r="B185">
-        <v>7678.2318033138654</v>
+        <v>11478.472489044938</v>
       </c>
       <c r="C185">
-        <v>2524.6433348088221</v>
+        <v>5041.918099361309</v>
       </c>
       <c r="D185">
-        <v>25899.991678826318</v>
+        <v>27281.100854702723</v>
       </c>
       <c r="E185">
-        <v>4956611.7932429202</v>
+        <v>5378832.418820221</v>
       </c>
       <c r="F185">
-        <v>2096.3013874670582</v>
+        <v>4291078.5746929524</v>
       </c>
       <c r="G185">
-        <v>5643177.2022622693</v>
+        <v>5643862.2715431685</v>
       </c>
       <c r="H185">
         <v>14281</v>
@@ -5238,22 +5238,22 @@
         <v>44078</v>
       </c>
       <c r="B186">
-        <v>7752.2120840886491</v>
+        <v>11581.589980152152</v>
       </c>
       <c r="C186">
-        <v>2543.6843291991599</v>
+        <v>5080.5727445631319</v>
       </c>
       <c r="D186">
-        <v>26213.786408557895</v>
+        <v>27568.715541701429</v>
       </c>
       <c r="E186">
-        <v>4959243.3391957926</v>
+        <v>5379012.9833873138</v>
       </c>
       <c r="F186">
-        <v>2111.5951049762493</v>
+        <v>4308561.0199073981</v>
       </c>
       <c r="G186">
-        <v>5643185.2095275838</v>
+        <v>5643870.3686392689</v>
       </c>
       <c r="H186">
         <v>14459</v>
@@ -5264,22 +5264,22 @@
         <v>44079</v>
       </c>
       <c r="B187">
-        <v>7822.3655453043666</v>
+        <v>11684.159669075651</v>
       </c>
       <c r="C187">
-        <v>2561.9989759313185</v>
+        <v>5119.0662065878987</v>
       </c>
       <c r="D187">
-        <v>26511.85341578738</v>
+        <v>27854.502477598631</v>
       </c>
       <c r="E187">
-        <v>4961713.135112742</v>
+        <v>5379180.5008601826</v>
       </c>
       <c r="F187">
-        <v>2126.3903836710879</v>
+        <v>4324949.5498063155</v>
       </c>
       <c r="G187">
-        <v>5643192.5941497646</v>
+        <v>5643877.8368016277</v>
       </c>
       <c r="H187">
         <v>14642</v>
@@ -5290,22 +5290,22 @@
         <v>44080</v>
       </c>
       <c r="B188">
-        <v>7897.7888527263422</v>
+        <v>11787.778778729949</v>
       </c>
       <c r="C188">
-        <v>2581.2967837232795</v>
+        <v>5157.7039144146647</v>
       </c>
       <c r="D188">
-        <v>26833.844330939119</v>
+        <v>28145.436492893019</v>
       </c>
       <c r="E188">
-        <v>4964081.1349405255</v>
+        <v>5379338.0254902029</v>
       </c>
       <c r="F188">
-        <v>2141.8043356489716</v>
+        <v>4340658.6747782771</v>
       </c>
       <c r="G188">
-        <v>5643199.5284066889</v>
+        <v>5643884.7896603253</v>
       </c>
       <c r="H188">
         <v>14846</v>
@@ -5316,22 +5316,22 @@
         <v>44081</v>
       </c>
       <c r="B189">
-        <v>7970.3478929506946</v>
+        <v>11892.169692204079</v>
       </c>
       <c r="C189">
-        <v>2600.0814793694794</v>
+        <v>5196.4532151895801</v>
       </c>
       <c r="D189">
-        <v>27141.818571067357</v>
+        <v>28439.738387781028</v>
       </c>
       <c r="E189">
-        <v>4966276.7794840997</v>
+        <v>5379486.3171837134</v>
       </c>
       <c r="F189">
-        <v>2156.890599993154</v>
+        <v>4355726.3650014997</v>
       </c>
       <c r="G189">
-        <v>5643205.8926673178</v>
+        <v>5643891.2694969345</v>
       </c>
       <c r="H189">
         <v>15121</v>
@@ -5342,22 +5342,22 @@
         <v>44082</v>
       </c>
       <c r="B190">
-        <v>8046.3552361077473</v>
+        <v>11999.097695201966</v>
       </c>
       <c r="C190">
-        <v>2619.4575445557762</v>
+        <v>5235.9253250365764</v>
       </c>
       <c r="D190">
-        <v>27469.327984828684</v>
+        <v>28742.333541889351</v>
       </c>
       <c r="E190">
-        <v>4968374.9010736728</v>
+        <v>5379626.0241388753</v>
       </c>
       <c r="F190">
-        <v>2172.3875107942522</v>
+        <v>4370177.565983329</v>
       </c>
       <c r="G190">
-        <v>5643211.8434683075</v>
+        <v>5643897.314500167</v>
       </c>
       <c r="H190">
         <v>15407</v>
@@ -5368,22 +5368,22 @@
         <v>44083</v>
       </c>
       <c r="B191">
-        <v>8121.741431328699</v>
+        <v>12103.321209389935</v>
       </c>
       <c r="C191">
-        <v>2638.5733599020168</v>
+        <v>5274.686941116468</v>
       </c>
       <c r="D191">
-        <v>27797.063770476459</v>
+        <v>29038.272544853309</v>
       </c>
       <c r="E191">
-        <v>4970359.2438920354</v>
+        <v>5379756.0071281549</v>
       </c>
       <c r="F191">
-        <v>2187.8177714772623</v>
+        <v>4383800.6433957927</v>
       </c>
       <c r="G191">
-        <v>5643217.3755034693</v>
+        <v>5643902.8983776243</v>
       </c>
       <c r="H191">
         <v>15672</v>
@@ -5394,22 +5394,22 @@
         <v>44084</v>
       </c>
       <c r="B192">
-        <v>8198.2677538140742</v>
+        <v>12209.57012206555</v>
       </c>
       <c r="C192">
-        <v>2657.8912717250569</v>
+        <v>5313.8924691351685</v>
       </c>
       <c r="D192">
-        <v>28128.837169258084</v>
+        <v>29340.597069480631</v>
       </c>
       <c r="E192">
-        <v>4972245.4333071951</v>
+        <v>5379877.0962430686</v>
       </c>
       <c r="F192">
-        <v>2203.2135185932225</v>
+        <v>4396659.1943523763</v>
       </c>
       <c r="G192">
-        <v>5643222.5290891621</v>
+        <v>5643908.0626692604</v>
       </c>
       <c r="H192">
         <v>16011</v>
@@ -5420,22 +5420,22 @@
         <v>44085</v>
       </c>
       <c r="B193">
-        <v>8277.2191119817635</v>
+        <v>12317.040965428043</v>
       </c>
       <c r="C193">
-        <v>2677.7649857338156</v>
+        <v>5353.3868267039488</v>
       </c>
       <c r="D193">
-        <v>28471.258109025082</v>
+        <v>29646.392132501871</v>
       </c>
       <c r="E193">
-        <v>4974005.4627073724</v>
+        <v>5379990.8968491405</v>
       </c>
       <c r="F193">
-        <v>2218.9269843109178</v>
+        <v>4408932.8148691859</v>
       </c>
       <c r="G193">
-        <v>5643227.2877499042</v>
+        <v>5643912.8728952873</v>
       </c>
       <c r="H193">
         <v>16286</v>
@@ -5446,22 +5446,22 @@
         <v>44086</v>
       </c>
       <c r="B194">
-        <v>8351.8243924198669</v>
+        <v>12426.261279123211</v>
       </c>
       <c r="C194">
-        <v>2696.8104936464965</v>
+        <v>5393.5084520452156</v>
       </c>
       <c r="D194">
-        <v>28795.676544512171</v>
+        <v>29957.129855298874</v>
       </c>
       <c r="E194">
-        <v>4975659.2552111205</v>
+        <v>5380096.488439803</v>
       </c>
       <c r="F194">
-        <v>2234.1240277282495</v>
+        <v>4420435.0104867928</v>
       </c>
       <c r="G194">
-        <v>5643231.6770242788</v>
+        <v>5643917.3095928514</v>
       </c>
       <c r="H194">
         <v>16558</v>
@@ -5472,22 +5472,22 @@
         <v>44087</v>
       </c>
       <c r="B195">
-        <v>8431.482097462449</v>
+        <v>12537.39615851107</v>
       </c>
       <c r="C195">
-        <v>2716.5734663175017</v>
+        <v>5433.9705296360025</v>
       </c>
       <c r="D195">
-        <v>29146.853061020236</v>
+        <v>30276.1585400861</v>
       </c>
       <c r="E195">
-        <v>4977245.281010217</v>
+        <v>5380195.7900073957</v>
       </c>
       <c r="F195">
-        <v>2249.9622847993473</v>
+        <v>4431456.7287887642</v>
       </c>
       <c r="G195">
-        <v>5643235.7984870011</v>
+        <v>5643921.4401933728</v>
       </c>
       <c r="H195">
         <v>16838</v>
@@ -5498,22 +5498,22 @@
         <v>44088</v>
       </c>
       <c r="B196">
-        <v>8508.0549049014589</v>
+        <v>12648.586304541197</v>
       </c>
       <c r="C196">
-        <v>2735.9287388272796</v>
+        <v>5474.333454395829</v>
       </c>
       <c r="D196">
-        <v>29478.218571933678</v>
+        <v>30596.374071388142</v>
       </c>
       <c r="E196">
-        <v>4978716.815214077</v>
+        <v>5380289.2801249931</v>
       </c>
       <c r="F196">
-        <v>2265.4596097090798</v>
+        <v>4442026.4491601344</v>
       </c>
       <c r="G196">
-        <v>5643239.5813635122</v>
+        <v>5643925.2898299964</v>
       </c>
       <c r="H196">
         <v>17182</v>
@@ -5524,22 +5524,22 @@
         <v>44089</v>
       </c>
       <c r="B197">
-        <v>8588.4222924229452</v>
+        <v>12759.913260269546</v>
       </c>
       <c r="C197">
-        <v>2756.0483076307073</v>
+        <v>5514.6047769146644</v>
       </c>
       <c r="D197">
-        <v>29828.540003148424</v>
+        <v>30917.791902251127</v>
       </c>
       <c r="E197">
-        <v>4980123.298615681</v>
+        <v>5380377.3659605626</v>
       </c>
       <c r="F197">
-        <v>2281.3846744329421</v>
+        <v>4452162.1963542914</v>
       </c>
       <c r="G197">
-        <v>5643243.1183968261</v>
+        <v>5643928.8811760675</v>
       </c>
       <c r="H197">
         <v>17570</v>
@@ -5550,22 +5550,22 @@
         <v>44090</v>
       </c>
       <c r="B198">
-        <v>8668.247202534083</v>
+        <v>12868.678052524392</v>
       </c>
       <c r="C198">
-        <v>2776.0902847432544</v>
+        <v>5554.4846100331479</v>
       </c>
       <c r="D198">
-        <v>30176.91777989456</v>
+        <v>31230.036730787742</v>
       </c>
       <c r="E198">
-        <v>4981453.7406272115</v>
+        <v>5380459.327980943</v>
       </c>
       <c r="F198">
-        <v>2297.2400272421883</v>
+        <v>4461716.4293415099</v>
       </c>
       <c r="G198">
-        <v>5643246.4064502735</v>
+        <v>5643932.1986066196</v>
       </c>
       <c r="H198">
         <v>18056</v>
@@ -5576,22 +5576,22 @@
         <v>44091</v>
       </c>
       <c r="B199">
-        <v>8748.6684269177549</v>
+        <v>12980.808894104792</v>
       </c>
       <c r="C199">
-        <v>2796.0523698387824</v>
+        <v>5595.1814863646068</v>
       </c>
       <c r="D199">
-        <v>30530.381523114804</v>
+        <v>31553.071754620105</v>
       </c>
       <c r="E199">
-        <v>4982719.1992186727</v>
+        <v>5380535.6885574944</v>
       </c>
       <c r="F199">
-        <v>2313.0604923790743</v>
+        <v>4470734.3403643426</v>
       </c>
       <c r="G199">
-        <v>5643249.4697497599</v>
+        <v>5643935.2667983826</v>
       </c>
       <c r="H199">
         <v>18511</v>
@@ -5602,22 +5602,22 @@
         <v>44092</v>
       </c>
       <c r="B200">
-        <v>8831.2049396665207</v>
+        <v>13095.560441363104</v>
       </c>
       <c r="C200">
-        <v>2816.448192984652</v>
+        <v>5636.7382489304173</v>
       </c>
       <c r="D200">
-        <v>30894.256118272253</v>
+        <v>31883.465657474208</v>
       </c>
       <c r="E200">
-        <v>4983899.946185274</v>
+        <v>5380607.4593440173</v>
       </c>
       <c r="F200">
-        <v>2329.2088165589344</v>
+        <v>4479342.6257444117</v>
       </c>
       <c r="G200">
-        <v>5643252.2981088329</v>
+        <v>5643938.124677741</v>
       </c>
       <c r="H200">
         <v>18917</v>
@@ -5628,22 +5628,22 @@
         <v>44093</v>
       </c>
       <c r="B201">
-        <v>8908.9718289155844</v>
+        <v>13209.557958436162</v>
       </c>
       <c r="C201">
-        <v>2835.806357207412</v>
+        <v>5678.1356810092911</v>
       </c>
       <c r="D201">
-        <v>31244.962148387949</v>
+        <v>32210.898377268619</v>
       </c>
       <c r="E201">
-        <v>4985010.5727816345</v>
+        <v>5380674.0588150537</v>
       </c>
       <c r="F201">
-        <v>2344.8220830480163</v>
+        <v>4487410.8828052944</v>
       </c>
       <c r="G201">
-        <v>5643254.9072885625</v>
+        <v>5643940.7606757097</v>
       </c>
       <c r="H201">
         <v>19284</v>
@@ -5654,22 +5654,22 @@
         <v>44094</v>
       </c>
       <c r="B202">
-        <v>8992.383288461675</v>
+        <v>13323.935121762086</v>
       </c>
       <c r="C202">
-        <v>2856.0515760582566</v>
+        <v>5719.4388800371926</v>
       </c>
       <c r="D202">
-        <v>31621.716141500339</v>
+        <v>32541.718682228995</v>
       </c>
       <c r="E202">
-        <v>4986075.804812721</v>
+        <v>5380736.6940845298</v>
       </c>
       <c r="F202">
-        <v>2361.0999288962721</v>
+        <v>4495142.2959721768</v>
       </c>
       <c r="G202">
-        <v>5643257.3571793772</v>
+        <v>5643943.2148158783</v>
       </c>
       <c r="H202">
         <v>19641</v>
@@ -5680,22 +5680,22 @@
         <v>44095</v>
       </c>
       <c r="B203">
-        <v>9073.4712708167899</v>
+        <v>13436.701389421338</v>
       </c>
       <c r="C203">
-        <v>2876.2283668373539</v>
+        <v>5759.995909759813</v>
       </c>
       <c r="D203">
-        <v>31976.829734851381</v>
+        <v>32869.932663278465</v>
       </c>
       <c r="E203">
-        <v>4987064.6492131483</v>
+        <v>5380795.6672424264</v>
       </c>
       <c r="F203">
-        <v>2377.0230622763138</v>
+        <v>4502557.4567635339</v>
       </c>
       <c r="G203">
-        <v>5643259.6059123762</v>
+        <v>5643945.5020428915</v>
       </c>
       <c r="H203">
         <v>20111</v>
@@ -5706,22 +5706,22 @@
         <v>44096</v>
       </c>
       <c r="B204">
-        <v>9158.7382110414619</v>
+        <v>13551.987847184635</v>
       </c>
       <c r="C204">
-        <v>2896.9663585522862</v>
+        <v>5801.2003913872304</v>
       </c>
       <c r="D204">
-        <v>32360.357058562957</v>
+        <v>33205.949905823203</v>
       </c>
       <c r="E204">
-        <v>4988009.8734296588</v>
+        <v>5380851.234477954</v>
       </c>
       <c r="F204">
-        <v>2393.391737091727</v>
+        <v>4509669.1305522686</v>
       </c>
       <c r="G204">
-        <v>5643261.7084412156</v>
+        <v>5643947.6358218072</v>
       </c>
       <c r="H204">
         <v>20605</v>
@@ -5732,22 +5732,22 @@
         <v>44097</v>
       </c>
       <c r="B205">
-        <v>9242.5231761439427</v>
+        <v>13667.002643871412</v>
       </c>
       <c r="C205">
-        <v>2917.1645206303756</v>
+        <v>5842.6255489539162</v>
       </c>
       <c r="D205">
-        <v>32743.468474845322</v>
+        <v>33541.604223987306</v>
       </c>
       <c r="E205">
-        <v>4988904.0514855869</v>
+        <v>5380902.9414765742</v>
       </c>
       <c r="F205">
-        <v>2409.6875032052958</v>
+        <v>4516373.9507167293</v>
       </c>
       <c r="G205">
-        <v>5643263.662914223</v>
+        <v>5643949.6068689646</v>
       </c>
       <c r="H205">
         <v>21132</v>
@@ -5758,22 +5758,22 @@
         <v>44098</v>
       </c>
       <c r="B206">
-        <v>9326.5863835284727</v>
+        <v>13786.216662426339</v>
       </c>
       <c r="C206">
-        <v>2937.1502346615389</v>
+        <v>5884.9229168238489</v>
       </c>
       <c r="D206">
-        <v>33137.324939581842</v>
+        <v>33891.710639882105</v>
       </c>
       <c r="E206">
-        <v>4989755.0127552496</v>
+        <v>5380951.117420583</v>
       </c>
       <c r="F206">
-        <v>2425.948024547657</v>
+        <v>4522703.6558376579</v>
       </c>
       <c r="G206">
-        <v>5643265.4838911006</v>
+        <v>5643951.4298465904</v>
       </c>
       <c r="H206">
         <v>21617</v>
@@ -5784,22 +5784,22 @@
         <v>44099</v>
       </c>
       <c r="B207">
-        <v>9412.9801593185002</v>
+        <v>13902.222933580004</v>
       </c>
       <c r="C207">
-        <v>2957.346853208805</v>
+        <v>5926.5210299971968</v>
       </c>
       <c r="D207">
-        <v>33542.201108271824</v>
+        <v>34229.399364644545</v>
       </c>
       <c r="E207">
-        <v>4990548.872108506</v>
+        <v>5380996.40040999</v>
       </c>
       <c r="F207">
-        <v>2442.5468592145894</v>
+        <v>4528747.3706605053</v>
       </c>
       <c r="G207">
-        <v>5643267.1650826111</v>
+        <v>5643953.1278847801</v>
       </c>
       <c r="H207">
         <v>22001</v>
@@ -5810,22 +5810,22 @@
         <v>44100</v>
       </c>
       <c r="B208">
-        <v>9495.0392408317184</v>
+        <v>14017.036099191901</v>
       </c>
       <c r="C208">
-        <v>2977.0347645962306</v>
+        <v>5967.872866394262</v>
       </c>
       <c r="D208">
-        <v>33929.334441656487</v>
+        <v>34562.403786313647</v>
       </c>
       <c r="E208">
-        <v>4991296.2901364081</v>
+        <v>5381038.4231670322</v>
       </c>
       <c r="F208">
-        <v>2458.5913252854821</v>
+        <v>4534413.5312869642</v>
       </c>
       <c r="G208">
-        <v>5643268.7162077632</v>
+        <v>5643954.6941080121</v>
       </c>
       <c r="H208">
         <v>22302</v>
@@ -5836,22 +5836,22 @@
         <v>44101</v>
       </c>
       <c r="B209">
-        <v>9582.4448434344522</v>
+        <v>14132.558994861385</v>
       </c>
       <c r="C209">
-        <v>2997.203784849778</v>
+        <v>6009.1862727288917</v>
       </c>
       <c r="D209">
-        <v>34349.358214677755</v>
+        <v>34899.492395096146</v>
       </c>
       <c r="E209">
-        <v>4992013.1620043032</v>
+        <v>5381077.9455693858</v>
       </c>
       <c r="F209">
-        <v>2475.3245918312364</v>
+        <v>4539843.9651415702</v>
       </c>
       <c r="G209">
-        <v>5643270.1725782491</v>
+        <v>5643956.1522748433</v>
       </c>
       <c r="H209">
         <v>22580</v>
@@ -5862,22 +5862,22 @@
         <v>44102</v>
       </c>
       <c r="B210">
-        <v>9666.4695845509614</v>
+        <v>14247.673219983531</v>
       </c>
       <c r="C210">
-        <v>3016.8154258858685</v>
+        <v>6050.248442344553</v>
       </c>
       <c r="D210">
-        <v>34758.253434101964</v>
+        <v>35236.372877695962</v>
       </c>
       <c r="E210">
-        <v>4992678.9091367796</v>
+        <v>5381115.1585833067</v>
       </c>
       <c r="F210">
-        <v>2491.6888082523419</v>
+        <v>4545053.3533117939</v>
       </c>
       <c r="G210">
-        <v>5643271.5094262278</v>
+        <v>5643957.5112733757</v>
       </c>
       <c r="H210">
         <v>22952</v>
@@ -5888,22 +5888,22 @@
         <v>44103</v>
       </c>
       <c r="B211">
-        <v>9754.2915392782143</v>
+        <v>14363.861829680718</v>
       </c>
       <c r="C211">
-        <v>3036.6140632864754</v>
+        <v>6091.5732098576482</v>
       </c>
       <c r="D211">
-        <v>35194.280077505398</v>
+        <v>35578.457980298495</v>
       </c>
       <c r="E211">
-        <v>4993315.2951253532</v>
+        <v>5381150.2235724209</v>
       </c>
       <c r="F211">
-        <v>2508.517104988649</v>
+        <v>4550050.6616598545</v>
       </c>
       <c r="G211">
-        <v>5643272.7593159769</v>
+        <v>5643958.7791013597</v>
       </c>
       <c r="H211">
         <v>23294</v>
@@ -5914,22 +5914,22 @@
         <v>44104</v>
       </c>
       <c r="B212">
-        <v>9841.9761675995705</v>
+        <v>14478.096271578281</v>
       </c>
       <c r="C212">
-        <v>3056.6984476983334</v>
+        <v>6132.3623166117195</v>
       </c>
       <c r="D212">
-        <v>35621.91702108139</v>
+        <v>35913.918007099521</v>
       </c>
       <c r="E212">
-        <v>4993917.3043221422</v>
+        <v>5381182.8537374828</v>
       </c>
       <c r="F212">
-        <v>2525.2691554971857</v>
+        <v>4554763.2265789164</v>
       </c>
       <c r="G212">
-        <v>5643273.9211552162</v>
+        <v>5643959.9502435196</v>
       </c>
       <c r="H212">
         <v>23633</v>
@@ -5940,22 +5940,22 @@
         <v>44105</v>
       </c>
       <c r="B213">
-        <v>9930.1439514593076</v>
+        <v>14592.598331505375</v>
       </c>
       <c r="C213">
-        <v>3076.8275679188187</v>
+        <v>6173.093301964147</v>
       </c>
       <c r="D213">
-        <v>36057.927840615586</v>
+        <v>36250.950422774535</v>
       </c>
       <c r="E213">
-        <v>4994490.4810568783</v>
+        <v>5381213.2567022406</v>
       </c>
       <c r="F213">
-        <v>2541.985622750411</v>
+        <v>4559213.2647273457</v>
       </c>
       <c r="G213">
-        <v>5643275.0036951611</v>
+        <v>5643961.0334128356</v>
       </c>
       <c r="H213">
         <v>23952</v>
@@ -5966,22 +5966,22 @@
         <v>44106</v>
       </c>
       <c r="B214">
-        <v>10019.968975495529</v>
+        <v>14710.017763020925</v>
       </c>
       <c r="C214">
-        <v>3096.5006729622091</v>
+        <v>6214.6569573441311</v>
       </c>
       <c r="D214">
-        <v>36518.340227634399</v>
+        <v>36596.999216404824</v>
       </c>
       <c r="E214">
-        <v>4995025.0587925417</v>
+        <v>5381241.8351816749</v>
       </c>
       <c r="F214">
-        <v>2559.0511805447077</v>
+        <v>4563463.4790541977</v>
       </c>
       <c r="G214">
-        <v>5643276.0030574147</v>
+        <v>5643962.0423544366</v>
       </c>
       <c r="H214">
         <v>24217</v>
@@ -5992,22 +5992,22 @@
         <v>44107</v>
       </c>
       <c r="B215">
-        <v>10105.800550957225</v>
+        <v>14827.27392204231</v>
       </c>
       <c r="C215">
-        <v>3116.2088175074441</v>
+        <v>6256.3601420199548</v>
       </c>
       <c r="D215">
-        <v>36952.905055892857</v>
+        <v>36940.87306332204</v>
       </c>
       <c r="E215">
-        <v>4995528.8062512735</v>
+        <v>5381268.3572506756</v>
       </c>
       <c r="F215">
-        <v>2575.5423588707527</v>
+        <v>4567449.3957004417</v>
       </c>
       <c r="G215">
-        <v>5643276.9252300663</v>
+        <v>5643962.9729825994</v>
       </c>
       <c r="H215">
         <v>24485</v>
@@ -6018,22 +6018,22 @@
         <v>44108</v>
       </c>
       <c r="B216">
-        <v>10197.431963388834</v>
+        <v>14942.61333671825</v>
       </c>
       <c r="C216">
-        <v>3136.4660829863396</v>
+        <v>6297.2337244808859</v>
       </c>
       <c r="D216">
-        <v>37418.960003882516</v>
+        <v>37284.453390419701</v>
       </c>
       <c r="E216">
-        <v>4996011.9321525265</v>
+        <v>5381293.3014748069</v>
       </c>
       <c r="F216">
-        <v>2592.7474453434043</v>
+        <v>4571270.1535453862</v>
       </c>
       <c r="G216">
-        <v>5643277.7910317658</v>
+        <v>5643963.8394017005</v>
       </c>
       <c r="H216">
         <v>24733</v>
@@ -6044,22 +6044,22 @@
         <v>44109</v>
       </c>
       <c r="B217">
-        <v>10285.697253147971</v>
+        <v>15058.973282030758</v>
       </c>
       <c r="C217">
-        <v>3156.3195502432873</v>
+        <v>6338.2290601357781</v>
       </c>
       <c r="D217">
-        <v>37867.909539184904</v>
+        <v>37630.265284447472</v>
       </c>
       <c r="E217">
-        <v>4996460.7652351297</v>
+        <v>5381316.7886841102</v>
       </c>
       <c r="F217">
-        <v>2609.5685642623966</v>
+        <v>4574936.1811813321</v>
       </c>
       <c r="G217">
-        <v>5643278.5858115125</v>
+        <v>5643964.6468984177</v>
       </c>
       <c r="H217">
         <v>25055</v>
@@ -6070,22 +6070,22 @@
         <v>44110</v>
       </c>
       <c r="B218">
-        <v>10378.044903890644</v>
+        <v>15177.418712338467</v>
       </c>
       <c r="C218">
-        <v>3176.4596901564314</v>
+        <v>6379.8776963806813</v>
       </c>
       <c r="D218">
-        <v>38346.368861751944</v>
+        <v>37983.504965967521</v>
       </c>
       <c r="E218">
-        <v>4996889.7813155213</v>
+        <v>5381338.9205831038</v>
       </c>
       <c r="F218">
-        <v>2626.8730697870496</v>
+        <v>4578453.7599881366</v>
       </c>
       <c r="G218">
-        <v>5643279.3288669083</v>
+        <v>5643965.4002235513</v>
       </c>
       <c r="H218">
         <v>25373</v>
@@ -6096,22 +6096,22 @@
         <v>44111</v>
       </c>
       <c r="B219">
-        <v>10469.656053361019</v>
+        <v>15294.659353753801</v>
       </c>
       <c r="C219">
-        <v>3196.3993042765337</v>
+        <v>6421.2203383308224</v>
       </c>
       <c r="D219">
-        <v>38827.110164924168</v>
+        <v>38331.418685337616</v>
       </c>
       <c r="E219">
-        <v>4997295.593117157</v>
+        <v>5381359.5161435185</v>
       </c>
       <c r="F219">
-        <v>2644.0978448382011</v>
+        <v>4581771.6939369636</v>
       </c>
       <c r="G219">
-        <v>5643280.0195538756</v>
+        <v>5643966.0961008016</v>
       </c>
       <c r="H219">
         <v>25673</v>
@@ -6122,22 +6122,22 @@
         <v>44112</v>
       </c>
       <c r="B220">
-        <v>10561.582748641506</v>
+        <v>15412.301480885086</v>
       </c>
       <c r="C220">
-        <v>3216.3337566498512</v>
+        <v>6462.5485003329777</v>
       </c>
       <c r="D220">
-        <v>39319.603593300853</v>
+        <v>38681.117946451021</v>
       </c>
       <c r="E220">
-        <v>4997682.126396222</v>
+        <v>5381378.7063924856</v>
       </c>
       <c r="F220">
-        <v>2661.2867184586521</v>
+        <v>4584905.541172347</v>
       </c>
       <c r="G220">
-        <v>5643280.6631327104</v>
+        <v>5643966.7397082103</v>
       </c>
       <c r="H220">
         <v>25959</v>
@@ -6148,22 +6148,22 @@
         <v>44113</v>
       </c>
       <c r="B221">
-        <v>10656.29214918127</v>
+        <v>15530.48669326225</v>
       </c>
       <c r="C221">
-        <v>3236.4105916189646</v>
+        <v>6503.6757226443196</v>
       </c>
       <c r="D221">
-        <v>39821.527250070088</v>
+        <v>39035.353983680114</v>
       </c>
       <c r="E221">
-        <v>4998042.5150630828</v>
+        <v>5381396.7455830239</v>
       </c>
       <c r="F221">
-        <v>2678.8357920909748</v>
+        <v>4587899.4717485243</v>
       </c>
       <c r="G221">
-        <v>5643281.2572142407</v>
+        <v>5643967.3392142951</v>
       </c>
       <c r="H221">
         <v>26254</v>
@@ -6174,22 +6174,22 @@
         <v>44114</v>
       </c>
       <c r="B222">
-        <v>10746.63680196383</v>
+        <v>15648.510921282654</v>
       </c>
       <c r="C222">
-        <v>3256.4223927286412</v>
+        <v>6544.9535596364449</v>
       </c>
       <c r="D222">
-        <v>40293.848431179242</v>
+        <v>39386.803589420902</v>
       </c>
       <c r="E222">
-        <v>4998382.4053855352</v>
+        <v>5381413.4872766333</v>
       </c>
       <c r="F222">
-        <v>2695.7897500935437</v>
+        <v>4590708.0018541934</v>
       </c>
       <c r="G222">
-        <v>5643281.8054847131</v>
+        <v>5643967.8921913002</v>
       </c>
       <c r="H222">
         <v>26448</v>
@@ -6200,22 +6200,22 @@
         <v>44115</v>
       </c>
       <c r="B223">
-        <v>10843.259458061098</v>
+        <v>15767.824318316609</v>
       </c>
       <c r="C223">
-        <v>3277.2317941894526</v>
+        <v>6586.5655785322924</v>
       </c>
       <c r="D223">
-        <v>40801.235131513473</v>
+        <v>39744.36058797899</v>
       </c>
       <c r="E223">
-        <v>4998708.3416800294</v>
+        <v>5381429.2329590721</v>
       </c>
       <c r="F223">
-        <v>2713.483642722038</v>
+        <v>4593400.565440529</v>
       </c>
       <c r="G223">
-        <v>5643282.3202170897</v>
+        <v>5643968.4070126973</v>
       </c>
       <c r="H223">
         <v>26638</v>
@@ -6226,22 +6226,22 @@
         <v>44116</v>
       </c>
       <c r="B224">
-        <v>10936.242757675191</v>
+        <v>15888.219835085687</v>
       </c>
       <c r="C224">
-        <v>3297.577577227773</v>
+        <v>6628.4976945847293</v>
       </c>
       <c r="D224">
-        <v>41288.1373587009</v>
+        <v>40105.119652114183</v>
       </c>
       <c r="E224">
-        <v>4999011.2391486457</v>
+        <v>5381444.0591270011</v>
       </c>
       <c r="F224">
-        <v>2730.7780472875156</v>
+        <v>4595984.5753753912</v>
       </c>
       <c r="G224">
-        <v>5643282.7927451581</v>
+        <v>5643968.8868232304</v>
       </c>
       <c r="H224">
         <v>26967</v>
@@ -6252,22 +6252,22 @@
         <v>44117</v>
       </c>
       <c r="B225">
-        <v>11033.856982763147</v>
+        <v>16010.96836544733</v>
       </c>
       <c r="C225">
-        <v>3318.5604544650919</v>
+        <v>6671.0151961414849</v>
       </c>
       <c r="D225">
-        <v>41803.262604950716</v>
+        <v>40474.390832817851</v>
       </c>
       <c r="E225">
-        <v>4999300.7353377389</v>
+        <v>5381458.029909974</v>
       </c>
       <c r="F225">
-        <v>2748.5759435129821</v>
+        <v>4598464.4324483518</v>
       </c>
       <c r="G225">
-        <v>5643283.23450494</v>
+        <v>5643969.3344451142</v>
       </c>
       <c r="H225">
         <v>27297</v>
@@ -6278,22 +6278,22 @@
         <v>44118</v>
       </c>
       <c r="B226">
-        <v>11130.981450164873</v>
+        <v>16132.216705088158</v>
       </c>
       <c r="C226">
-        <v>3339.5085379978309</v>
+        <v>6713.2542288889408</v>
       </c>
       <c r="D226">
-        <v>42314.808391593499</v>
+        <v>40837.446976916581</v>
       </c>
       <c r="E226">
-        <v>4999574.5424792226</v>
+        <v>5381471.0310513051</v>
       </c>
       <c r="F226">
-        <v>2766.2904720764986</v>
+        <v>4600804.0112403454</v>
       </c>
       <c r="G226">
-        <v>5643283.6451167073</v>
+        <v>5643969.7479321714</v>
       </c>
       <c r="H226">
         <v>27670</v>
@@ -6304,22 +6304,22 @@
         <v>44119</v>
       </c>
       <c r="B227">
-        <v>11229.247766361899</v>
+        <v>16254.688923786756</v>
       </c>
       <c r="C227">
-        <v>3360.6823977386539</v>
+        <v>6755.8687815536068</v>
       </c>
       <c r="D227">
-        <v>42828.827227501883</v>
+        <v>41204.723128930811</v>
       </c>
       <c r="E227">
-        <v>4999835.4393932922</v>
+        <v>5381483.1452691015</v>
       </c>
       <c r="F227">
-        <v>2783.9688031256678</v>
+        <v>4603014.2265572008</v>
       </c>
       <c r="G227">
-        <v>5643284.0277425013</v>
+        <v>5643970.1303618085</v>
       </c>
       <c r="H227">
         <v>28008</v>
@@ -6330,22 +6330,22 @@
         <v>44120</v>
       </c>
       <c r="B228">
-        <v>11330.442819421936</v>
+        <v>16379.634531510037</v>
       </c>
       <c r="C228">
-        <v>3382.556622243188</v>
+        <v>6799.0871427214488</v>
       </c>
       <c r="D228">
-        <v>43354.9348203872</v>
+        <v>41580.985014652615</v>
       </c>
       <c r="E228">
-        <v>5000078.6012461046</v>
+        <v>5381494.5331224659</v>
       </c>
       <c r="F228">
-        <v>2802.0187854590226</v>
+        <v>4605126.2407073202</v>
       </c>
       <c r="G228">
-        <v>5643284.3809119491</v>
+        <v>5643970.4865885936</v>
       </c>
       <c r="H228">
         <v>28369</v>
@@ -6356,22 +6356,22 @@
         <v>44121</v>
       </c>
       <c r="B229">
-        <v>11426.378902370468</v>
+        <v>16505.732322383377</v>
       </c>
       <c r="C229">
-        <v>3403.5588413119981</v>
+        <v>6842.778274120119</v>
       </c>
       <c r="D229">
-        <v>43852.475062351899</v>
+        <v>41960.707708253714</v>
       </c>
       <c r="E229">
-        <v>5000308.1208337853</v>
+        <v>5381505.1021556025</v>
       </c>
       <c r="F229">
-        <v>2819.4521644898387</v>
+        <v>4607107.9262646642</v>
       </c>
       <c r="G229">
-        <v>5643284.7068923991</v>
+        <v>5643970.8151700012</v>
       </c>
       <c r="H229">
         <v>28725</v>
@@ -6382,22 +6382,22 @@
         <v>44122</v>
       </c>
       <c r="B230">
-        <v>11528.961866763586</v>
+        <v>16633.39985138625</v>
       </c>
       <c r="C230">
-        <v>3425.4302261234184</v>
+        <v>6886.681819117649</v>
       </c>
       <c r="D230">
-        <v>44393.36365121499</v>
+        <v>42348.240990900129</v>
       </c>
       <c r="E230">
-        <v>5000528.1821767902</v>
+        <v>5381515.0423330236</v>
       </c>
       <c r="F230">
-        <v>2837.6524568272366</v>
+        <v>4609008.0037849955</v>
       </c>
       <c r="G230">
-        <v>5643285.0129182544</v>
+        <v>5643971.1210773019</v>
       </c>
       <c r="H230">
         <v>29106</v>
@@ -6408,22 +6408,22 @@
         <v>44123</v>
       </c>
       <c r="B231">
-        <v>11627.812968529572</v>
+        <v>16761.437423611231</v>
       </c>
       <c r="C231">
-        <v>3446.9738668436644</v>
+        <v>6930.5783110057118</v>
       </c>
       <c r="D231">
-        <v>44906.213905600314</v>
+        <v>42738.126611134394</v>
       </c>
       <c r="E231">
-        <v>5000732.747904066</v>
+        <v>5381524.4021015428</v>
       </c>
       <c r="F231">
-        <v>2855.4371132860961</v>
+        <v>4610831.75399129</v>
       </c>
       <c r="G231">
-        <v>5643285.2938635657</v>
+        <v>5643971.4061812013</v>
       </c>
       <c r="H231">
         <v>29654</v>
@@ -6434,22 +6434,22 @@
         <v>44124</v>
       </c>
       <c r="B232">
-        <v>11731.722252437714</v>
+        <v>16890.942650966143</v>
       </c>
       <c r="C232">
-        <v>3469.2567572412722</v>
+        <v>6974.8162512762201</v>
       </c>
       <c r="D232">
-        <v>45451.736360001247</v>
+        <v>43132.661736428257</v>
       </c>
       <c r="E232">
-        <v>5000928.2382892128</v>
+        <v>5381533.2219087007</v>
       </c>
       <c r="F232">
-        <v>2873.7461978227275</v>
+        <v>4612582.2631169511</v>
       </c>
       <c r="G232">
-        <v>5643285.5565055581</v>
+        <v>5643971.6721582925</v>
       </c>
       <c r="H232">
         <v>30243</v>
@@ -6460,22 +6460,22 @@
         <v>44125</v>
       </c>
       <c r="B233">
-        <v>11835.121784448869</v>
+        <v>17019.403846633395</v>
       </c>
       <c r="C233">
-        <v>3491.4764610121351</v>
+        <v>7018.850717114723</v>
       </c>
       <c r="D233">
-        <v>45994.151456581385</v>
+        <v>43524.044444004838</v>
       </c>
       <c r="E233">
-        <v>5001113.1078022392</v>
+        <v>5381541.4296443854</v>
       </c>
       <c r="F233">
-        <v>2891.9681180925722</v>
+        <v>4614234.0139605701</v>
       </c>
       <c r="G233">
-        <v>5643285.8006203594</v>
+        <v>5643971.9178525405</v>
       </c>
       <c r="H233">
         <v>30857</v>
@@ -6486,22 +6486,22 @@
         <v>44126</v>
       </c>
       <c r="B234">
-        <v>11939.27491724617</v>
+        <v>17149.374612513657</v>
       </c>
       <c r="C234">
-        <v>3513.5778263448133</v>
+        <v>7063.2475570380602</v>
       </c>
       <c r="D234">
-        <v>46545.444009118793</v>
+        <v>43922.694453475509</v>
       </c>
       <c r="E234">
-        <v>5001289.3225095393</v>
+        <v>5381549.0775409006</v>
       </c>
       <c r="F234">
-        <v>2910.1535687317141</v>
+        <v>4615794.6795578841</v>
       </c>
       <c r="G234">
-        <v>5643286.0281087589</v>
+        <v>5643972.1450929567</v>
       </c>
       <c r="H234">
         <v>31572</v>
@@ -6512,22 +6512,22 @@
         <v>44127</v>
       </c>
       <c r="B235">
-        <v>12046.435903000589</v>
+        <v>17282.634859987746</v>
       </c>
       <c r="C235">
-        <v>3536.3329917840765</v>
+        <v>7108.4404790336794</v>
       </c>
       <c r="D235">
-        <v>47110.71948119079</v>
+        <v>44331.595089579663</v>
       </c>
       <c r="E235">
-        <v>5001453.4934044853</v>
+        <v>5381556.2670050357</v>
       </c>
       <c r="F235">
-        <v>2928.7224735066684</v>
+        <v>4617286.276074863</v>
       </c>
       <c r="G235">
-        <v>5643286.2380666416</v>
+        <v>5643972.3567646723</v>
       </c>
       <c r="H235">
         <v>32258</v>
@@ -6538,22 +6538,22 @@
         <v>44128</v>
       </c>
       <c r="B236">
-        <v>12148.094791967853</v>
+        <v>17414.912190147581</v>
       </c>
       <c r="C236">
-        <v>3558.2086098548698</v>
+        <v>7153.5410620421999</v>
       </c>
       <c r="D236">
-        <v>47644.504655951408</v>
+        <v>44735.840719604981</v>
       </c>
       <c r="E236">
-        <v>5001608.5795773827</v>
+        <v>5381562.9396660645</v>
       </c>
       <c r="F236">
-        <v>2946.6525086430961</v>
+        <v>4618686.0909872279</v>
       </c>
       <c r="G236">
-        <v>5643286.4318874944</v>
+        <v>5643972.5520105883</v>
       </c>
       <c r="H236">
         <v>32933</v>
@@ -6564,22 +6564,22 @@
         <v>44129</v>
       </c>
       <c r="B237">
-        <v>12256.672431260959</v>
+        <v>17548.542283323855</v>
       </c>
       <c r="C237">
-        <v>3580.9175492157074</v>
+        <v>7198.807952465766</v>
       </c>
       <c r="D237">
-        <v>48226.120083676484</v>
+        <v>45147.231167252379</v>
       </c>
       <c r="E237">
-        <v>5001757.2468563961</v>
+        <v>5381569.2152334815</v>
       </c>
       <c r="F237">
-        <v>2965.3774225416037</v>
+        <v>4620028.3646690929</v>
       </c>
       <c r="G237">
-        <v>5643286.613835223</v>
+        <v>5643972.7337821536</v>
       </c>
       <c r="H237">
         <v>33693</v>
@@ -6590,22 +6590,22 @@
         <v>44130</v>
       </c>
       <c r="B238">
-        <v>12360.483039847395</v>
+        <v>17683.157046683322</v>
       </c>
       <c r="C238">
-        <v>3602.6379450404188</v>
+        <v>7244.1723723560772</v>
       </c>
       <c r="D238">
-        <v>48792.83317347589</v>
+        <v>45563.647692340717</v>
       </c>
       <c r="E238">
-        <v>5001895.4833776169</v>
+        <v>5381575.124396353</v>
       </c>
       <c r="F238">
-        <v>2983.6699002616469</v>
+        <v>4621316.8679694682</v>
       </c>
       <c r="G238">
-        <v>5643286.7808780186</v>
+        <v>5643972.9031922165</v>
       </c>
       <c r="H238">
         <v>34535</v>
@@ -6616,22 +6616,22 @@
         <v>44131</v>
       </c>
       <c r="B239">
-        <v>12469.098291475553</v>
+        <v>17818.541452752645</v>
       </c>
       <c r="C239">
-        <v>3624.5950572956262</v>
+        <v>7289.752578544585</v>
       </c>
       <c r="D239">
-        <v>49402.224932484525</v>
+        <v>45981.760235840775</v>
       </c>
       <c r="E239">
-        <v>5002027.5677574342</v>
+        <v>5381580.6926699039</v>
       </c>
       <c r="F239">
-        <v>3002.5086077332417</v>
+        <v>4622553.7677880358</v>
       </c>
       <c r="G239">
-        <v>5643286.937032233</v>
+        <v>5643973.0612368081</v>
       </c>
       <c r="H239">
         <v>35536</v>
@@ -6642,22 +6642,22 @@
         <v>44132</v>
       </c>
       <c r="B240">
-        <v>12577.481175136771</v>
+        <v>17950.124792752758</v>
       </c>
       <c r="C240">
-        <v>3646.8397189582979</v>
+        <v>7334.3575666208044</v>
       </c>
       <c r="D240">
-        <v>50000.689188228185</v>
+        <v>46385.820810356745</v>
       </c>
       <c r="E240">
-        <v>5002152.4555259021</v>
+        <v>5381585.8745450629</v>
       </c>
       <c r="F240">
-        <v>3021.2561881831684</v>
+        <v>4623721.0274826149</v>
       </c>
       <c r="G240">
-        <v>5643287.0821658699</v>
+        <v>5643973.207229252</v>
       </c>
       <c r="H240">
         <v>36509</v>
@@ -6668,22 +6668,22 @@
         <v>44133</v>
       </c>
       <c r="B241">
-        <v>12686.591839516095</v>
+        <v>18081.557089035039</v>
       </c>
       <c r="C241">
-        <v>3669.0547808147435</v>
+        <v>7378.7947633125732</v>
       </c>
       <c r="D241">
-        <v>50610.282890757975</v>
+        <v>46790.221506914648</v>
       </c>
       <c r="E241">
-        <v>5002271.5369441584</v>
+        <v>5381590.7030087411</v>
       </c>
       <c r="F241">
-        <v>3039.9670528249208</v>
+        <v>4624824.051226805</v>
       </c>
       <c r="G241">
-        <v>5643287.2174215596</v>
+        <v>5643973.3422566112</v>
       </c>
       <c r="H241">
         <v>37380</v>
@@ -6694,22 +6694,22 @@
         <v>44134</v>
       </c>
       <c r="B242">
-        <v>12798.499343179932</v>
+        <v>18216.544189767825</v>
       </c>
       <c r="C242">
-        <v>3691.393574993926</v>
+        <v>7424.240729849801</v>
       </c>
       <c r="D242">
-        <v>51240.302984709968</v>
+        <v>47206.890042923216</v>
       </c>
       <c r="E242">
-        <v>5002382.432506795</v>
+        <v>5381595.2421138622</v>
       </c>
       <c r="F242">
-        <v>3059.0735360444173</v>
+        <v>4625878.4115385097</v>
       </c>
       <c r="G242">
-        <v>5643287.3422438288</v>
+        <v>5643973.4680335773</v>
       </c>
       <c r="H242">
         <v>38266</v>
@@ -6720,22 +6720,22 @@
         <v>44135</v>
       </c>
       <c r="B243">
-        <v>12905.184866295198</v>
+        <v>18350.971948855549</v>
       </c>
       <c r="C243">
-        <v>3713.4513066672398</v>
+        <v>7469.7517410167475</v>
       </c>
       <c r="D243">
-        <v>51828.566359809622</v>
+        <v>47620.462971316345</v>
       </c>
       <c r="E243">
-        <v>5002487.2763756942</v>
+        <v>5381599.4550097948</v>
       </c>
       <c r="F243">
-        <v>3077.518076513205</v>
+        <v>4626868.0423714034</v>
       </c>
       <c r="G243">
-        <v>5643287.4574884381</v>
+        <v>5643973.5840508938</v>
       </c>
       <c r="H243">
         <v>39073</v>
@@ -6746,22 +6746,22 @@
         <v>44136</v>
       </c>
       <c r="B244">
-        <v>13019.6165699741</v>
+        <v>18485.827049961244</v>
       </c>
       <c r="C244">
-        <v>3736.6534984172404</v>
+        <v>7515.0412786335037</v>
       </c>
       <c r="D244">
-        <v>52461.956898051605</v>
+        <v>48037.617458231936</v>
       </c>
       <c r="E244">
-        <v>5002587.759952805</v>
+        <v>5381603.4171390794</v>
       </c>
       <c r="F244">
-        <v>3096.7864837661064</v>
+        <v>4627817.0375932148</v>
       </c>
       <c r="G244">
-        <v>5643287.5656682132</v>
+        <v>5643973.6920608561</v>
       </c>
       <c r="H244">
         <v>39855</v>
@@ -6772,22 +6772,22 @@
         <v>44137</v>
       </c>
       <c r="B245">
-        <v>13129.43722847545</v>
+        <v>18622.51704437684</v>
       </c>
       <c r="C245">
-        <v>3759.1988031331994</v>
+        <v>7560.8619795964387</v>
       </c>
       <c r="D245">
-        <v>53068.150969391376</v>
+        <v>48462.504622722539</v>
       </c>
       <c r="E245">
-        <v>5002681.2178040566</v>
+        <v>5381607.1479445854</v>
       </c>
       <c r="F245">
-        <v>3115.6049758900426</v>
+        <v>4628728.0955166016</v>
       </c>
       <c r="G245">
-        <v>5643287.6649900144</v>
+        <v>5643973.7927254857</v>
       </c>
       <c r="H245">
         <v>40920</v>
@@ -6798,22 +6798,22 @@
         <v>44138</v>
       </c>
       <c r="B246">
-        <v>13247.850209191207</v>
+        <v>18762.309407266766</v>
       </c>
       <c r="C246">
-        <v>3782.3572827068833</v>
+        <v>7607.3824399545201</v>
       </c>
       <c r="D246">
-        <v>53755.086528801017</v>
+        <v>48898.525316132458</v>
       </c>
       <c r="E246">
-        <v>5002770.501912646</v>
+        <v>5381610.6635236097</v>
       </c>
       <c r="F246">
-        <v>3134.9923999289317</v>
+        <v>4629602.7392071439</v>
       </c>
       <c r="G246">
-        <v>5643287.7578340424</v>
+        <v>5643973.8866365124</v>
       </c>
       <c r="H246">
         <v>41963</v>
@@ -6824,22 +6824,22 @@
         <v>44139</v>
       </c>
       <c r="B247">
-        <v>13365.487547832017</v>
+        <v>18899.768810500427</v>
       </c>
       <c r="C247">
-        <v>3805.0888183490238</v>
+        <v>7653.4048370649416</v>
       </c>
       <c r="D247">
-        <v>54448.917653303179</v>
+        <v>49325.07064991448</v>
       </c>
       <c r="E247">
-        <v>5002854.9061184237</v>
+        <v>5381613.9351556543</v>
       </c>
       <c r="F247">
-        <v>3154.2845610380687</v>
+        <v>4630428.2134806281</v>
       </c>
       <c r="G247">
-        <v>5643287.8441224629</v>
+        <v>5643973.9733860604</v>
       </c>
       <c r="H247">
         <v>42970</v>
@@ -6850,22 +6850,22 @@
         <v>44140</v>
       </c>
       <c r="B248">
-        <v>13484.354537734009</v>
+        <v>19041.271497558257</v>
       </c>
       <c r="C248">
-        <v>3827.69792188876</v>
+        <v>7699.6113140159314</v>
       </c>
       <c r="D248">
-        <v>55164.095174973503</v>
+        <v>49778.497194769952</v>
       </c>
       <c r="E248">
-        <v>5002935.4129191376</v>
+        <v>5381616.9836753486</v>
       </c>
       <c r="F248">
-        <v>3173.539788171679</v>
+        <v>4631208.3303903975</v>
       </c>
       <c r="G248">
-        <v>5643287.9245421551</v>
+        <v>5643974.053620223</v>
       </c>
       <c r="H248">
         <v>43815</v>
@@ -6876,22 +6876,22 @@
         <v>44141</v>
       </c>
       <c r="B249">
-        <v>13606.597252192747</v>
+        <v>19184.707037889741</v>
       </c>
       <c r="C249">
-        <v>3850.3898004846133</v>
+        <v>7745.9694139272242</v>
       </c>
       <c r="D249">
-        <v>55903.66692200792</v>
+        <v>50238.330446125445</v>
       </c>
       <c r="E249">
-        <v>5003010.3522638045</v>
+        <v>5381619.8495436162</v>
       </c>
       <c r="F249">
-        <v>3193.203170161848</v>
+        <v>4631954.114734224</v>
       </c>
       <c r="G249">
-        <v>5643287.998752105</v>
+        <v>5643974.1283580838</v>
       </c>
       <c r="H249">
         <v>44612</v>
@@ -6902,22 +6902,22 @@
         <v>44142</v>
       </c>
       <c r="B250">
-        <v>13721.459205646383</v>
+        <v>19326.990293021903</v>
       </c>
       <c r="C250">
-        <v>3872.4553187503598</v>
+        <v>7792.212246509841</v>
       </c>
       <c r="D250">
-        <v>56628.223212555844</v>
+        <v>50694.642865248861</v>
       </c>
       <c r="E250">
-        <v>5003081.2597922254</v>
+        <v>5381622.5094962707</v>
       </c>
       <c r="F250">
-        <v>3212.180700406836</v>
+        <v>4632654.1973441802</v>
       </c>
       <c r="G250">
-        <v>5643288.0672774659</v>
+        <v>5643974.1972970674</v>
       </c>
       <c r="H250">
         <v>45282</v>
@@ -6928,22 +6928,22 @@
         <v>44143</v>
       </c>
       <c r="B251">
-        <v>13846.594673196005</v>
+        <v>19470.073503521005</v>
       </c>
       <c r="C251">
-        <v>3895.7989707986071</v>
+        <v>7838.2983830318817</v>
       </c>
       <c r="D251">
-        <v>57389.951844570649</v>
+        <v>51157.545113031883</v>
       </c>
       <c r="E251">
-        <v>5003149.2032663766</v>
+        <v>5381625.0110803749</v>
       </c>
       <c r="F251">
-        <v>3232.0121450738325</v>
+        <v>4633325.5483863167</v>
       </c>
       <c r="G251">
-        <v>5643288.1315989206</v>
+        <v>5643974.2614775226</v>
       </c>
       <c r="H251">
         <v>45865</v>
@@ -6954,22 +6954,22 @@
         <v>44144</v>
       </c>
       <c r="B252">
-        <v>13967.490880263787</v>
+        <v>19611.189511874094</v>
       </c>
       <c r="C252">
-        <v>3918.8133237954598</v>
+        <v>7883.6449100159725</v>
       </c>
       <c r="D252">
-        <v>58118.054081402151</v>
+        <v>51616.769328010145</v>
       </c>
       <c r="E252">
-        <v>5003212.4122412875</v>
+        <v>5381627.3666148148</v>
       </c>
       <c r="F252">
-        <v>3251.3754898200386</v>
+        <v>4633970.1018664688</v>
       </c>
       <c r="G252">
-        <v>5643288.1906559775</v>
+        <v>5643974.321293287</v>
       </c>
       <c r="H252">
         <v>46704</v>
@@ -6980,22 +6980,22 @@
         <v>44145</v>
       </c>
       <c r="B253">
-        <v>14092.45250328986</v>
+        <v>19759.024362345928</v>
       </c>
       <c r="C253">
-        <v>3941.9935871885336</v>
+        <v>7930.5628440144683</v>
       </c>
       <c r="D253">
-        <v>58893.24634202446</v>
+        <v>52099.314158692025</v>
       </c>
       <c r="E253">
-        <v>5003272.7879579384</v>
+        <v>5381629.5862559061</v>
       </c>
       <c r="F253">
-        <v>3271.331405758538</v>
+        <v>4634588.9292646386</v>
       </c>
       <c r="G253">
-        <v>5643288.2458592076</v>
+        <v>5643974.3770958995</v>
       </c>
       <c r="H253">
         <v>47532</v>
@@ -7006,22 +7006,22 @@
         <v>44146</v>
       </c>
       <c r="B254">
-        <v>14217.825244391319</v>
+        <v>19905.40292460805</v>
       </c>
       <c r="C254">
-        <v>3964.9369387824599</v>
+        <v>7977.4421865167378</v>
       </c>
       <c r="D254">
-        <v>59673.429291156353</v>
+        <v>52579.910383310103</v>
       </c>
       <c r="E254">
-        <v>5003329.8527495079</v>
+        <v>5381631.6518785032</v>
       </c>
       <c r="F254">
-        <v>3291.1877424235845</v>
+        <v>4635173.0073384801</v>
       </c>
       <c r="G254">
-        <v>5643288.2971627079</v>
+        <v>5643974.4286430879</v>
       </c>
       <c r="H254">
         <v>48357</v>
@@ -7032,22 +7032,22 @@
         <v>44147</v>
       </c>
       <c r="B255">
-        <v>14344.254222990425</v>
+        <v>20050.842586742925</v>
       </c>
       <c r="C255">
-        <v>3988.1181961356756</v>
+        <v>8023.8690523404493</v>
       </c>
       <c r="D255">
-        <v>60460.97502126365</v>
+        <v>53058.543612508307</v>
       </c>
       <c r="E255">
-        <v>5003384.300508514</v>
+        <v>5381633.576642653</v>
       </c>
       <c r="F255">
-        <v>3311.006957130392</v>
+        <v>4635725.0283109955</v>
       </c>
       <c r="G255">
-        <v>5643288.3449793924</v>
+        <v>5643974.4763188623</v>
       </c>
       <c r="H255">
         <v>49161</v>
@@ -7058,22 +7058,22 @@
         <v>44148</v>
       </c>
       <c r="B256">
-        <v>14475.10762621844</v>
+        <v>20198.477328583747</v>
       </c>
       <c r="C256">
-        <v>4012.2109318007178</v>
+        <v>8070.4615426582404</v>
       </c>
       <c r="D256">
-        <v>61265.28000611662</v>
+        <v>53544.85648910547</v>
       </c>
       <c r="E256">
-        <v>5003434.9595649317</v>
+        <v>5381635.3861076152</v>
       </c>
       <c r="F256">
-        <v>3331.2472452937805</v>
+        <v>4636252.8027104037</v>
       </c>
       <c r="G256">
-        <v>5643288.3891000533</v>
+        <v>5643974.5207288889</v>
       </c>
       <c r="H256">
         <v>50076</v>
@@ -7084,22 +7084,22 @@
         <v>44149</v>
       </c>
       <c r="B257">
-        <v>14598.428423651647</v>
+        <v>20348.28152822073</v>
       </c>
       <c r="C257">
-        <v>4035.1694013576057</v>
+        <v>8117.7608409650511</v>
       </c>
       <c r="D257">
-        <v>62035.220267310069</v>
+        <v>54038.771975280404</v>
       </c>
       <c r="E257">
-        <v>5003482.9324991032</v>
+        <v>5381637.0655866088</v>
       </c>
       <c r="F257">
-        <v>3350.7769067030968</v>
+        <v>4636748.2828459451</v>
       </c>
       <c r="G257">
-        <v>5643288.4298467403</v>
+        <v>5643974.5616933927</v>
       </c>
       <c r="H257">
         <v>50895</v>
@@ -7110,22 +7110,22 @@
         <v>44150</v>
       </c>
       <c r="B258">
-        <v>14731.566916749143</v>
+        <v>20501.951575698931</v>
       </c>
       <c r="C258">
-        <v>4059.3052646315336</v>
+        <v>8165.6598243568133</v>
       </c>
       <c r="D258">
-        <v>62868.153535387406</v>
+        <v>54551.203195487862</v>
       </c>
       <c r="E258">
-        <v>5003528.8893393725</v>
+        <v>5381638.6450466299</v>
       </c>
       <c r="F258">
-        <v>3371.1916281355661</v>
+        <v>4637223.4298049128</v>
       </c>
       <c r="G258">
-        <v>5643288.4680918306</v>
+        <v>5643974.5998300416</v>
       </c>
       <c r="H258">
         <v>51680</v>
@@ -7136,22 +7136,22 @@
         <v>44151</v>
       </c>
       <c r="B259">
-        <v>14860.16269051006</v>
+        <v>20655.558726163494</v>
       </c>
       <c r="C259">
-        <v>4083.2495340525911</v>
+        <v>8213.6101667909898</v>
       </c>
       <c r="D259">
-        <v>63664.30945747262</v>
+        <v>55064.417080230131</v>
       </c>
       <c r="E259">
-        <v>5003571.6544672484</v>
+        <v>5381640.1322932038</v>
       </c>
       <c r="F259">
-        <v>3391.1193307609083</v>
+        <v>4637679.6314476896</v>
       </c>
       <c r="G259">
-        <v>5643288.5032081604</v>
+        <v>5643974.6353731239</v>
       </c>
       <c r="H259">
         <v>52630</v>
@@ -7162,22 +7162,22 @@
         <v>44152</v>
       </c>
       <c r="B260">
-        <v>14994.693759905973</v>
+        <v>20812.320052449155</v>
       </c>
       <c r="C260">
-        <v>4107.4948810036294</v>
+        <v>8261.9314412184976</v>
       </c>
       <c r="D260">
-        <v>64518.184584121787</v>
+        <v>55591.535916579363</v>
       </c>
       <c r="E260">
-        <v>5003612.4953637971</v>
+        <v>5381641.5337345591</v>
       </c>
       <c r="F260">
-        <v>3411.6642190360353</v>
+        <v>4638117.6420810111</v>
       </c>
       <c r="G260">
-        <v>5643288.5360316709</v>
+        <v>5643974.6685314905</v>
       </c>
       <c r="H260">
         <v>53658</v>
@@ -7188,22 +7188,22 @@
         <v>44153</v>
       </c>
       <c r="B261">
-        <v>15129.746062267304</v>
+        <v>20968.027239475086</v>
       </c>
       <c r="C261">
-        <v>4131.7408458276823</v>
+        <v>8310.0363575163774</v>
       </c>
       <c r="D261">
-        <v>65374.686775713206</v>
+        <v>56119.199974012023</v>
       </c>
       <c r="E261">
-        <v>5003651.0887479316</v>
+        <v>5381642.8379322141</v>
       </c>
       <c r="F261">
-        <v>3432.1050236866413</v>
+        <v>4638531.077012674</v>
       </c>
       <c r="G261">
-        <v>5643288.5665352857</v>
+        <v>5643974.6991612343</v>
       </c>
       <c r="H261">
         <v>54690</v>
@@ -7214,22 +7214,22 @@
         <v>44154</v>
       </c>
       <c r="B262">
-        <v>15265.213723533618</v>
+        <v>21123.888377427746</v>
       </c>
       <c r="C262">
-        <v>4155.6631789926014</v>
+        <v>8358.1067720501414</v>
       </c>
       <c r="D262">
-        <v>66248.751470453557</v>
+        <v>56647.62390740525</v>
       </c>
       <c r="E262">
-        <v>5003687.9243704006</v>
+        <v>5381644.0531989774</v>
       </c>
       <c r="F262">
-        <v>3452.5085508624679</v>
+        <v>4638921.8393374197</v>
       </c>
       <c r="G262">
-        <v>5643288.5949672228</v>
+        <v>5643974.7274905946</v>
       </c>
       <c r="H262">
         <v>55670</v>
@@ -7240,22 +7240,22 @@
         <v>44155</v>
       </c>
       <c r="B263">
-        <v>15403.647227612359</v>
+        <v>21282.672632179714</v>
       </c>
       <c r="C263">
-        <v>4179.4391682715695</v>
+        <v>8406.6721946836224</v>
       </c>
       <c r="D263">
-        <v>67162.304091032522</v>
+        <v>57186.13177974672</v>
       </c>
       <c r="E263">
-        <v>5003722.1805235036</v>
+        <v>5381645.1956810514</v>
       </c>
       <c r="F263">
-        <v>3473.3464631400875</v>
+        <v>4639295.4652360789</v>
       </c>
       <c r="G263">
-        <v>5643288.6211992316</v>
+        <v>5643974.7538795369</v>
       </c>
       <c r="H263">
         <v>56675</v>
@@ -7266,22 +7266,22 @@
         <v>44156</v>
       </c>
       <c r="B264">
-        <v>15534.677520532674</v>
+        <v>21441.117638422038</v>
       </c>
       <c r="C264">
-        <v>4202.8070369307552</v>
+        <v>8455.255014742339</v>
       </c>
       <c r="D264">
-        <v>68028.147201770669</v>
+        <v>57723.57441245707</v>
       </c>
       <c r="E264">
-        <v>5003754.647260326</v>
+        <v>5381646.2561066598</v>
       </c>
       <c r="F264">
-        <v>3493.4480764483324</v>
+        <v>4639646.256999366</v>
       </c>
       <c r="G264">
-        <v>5643288.6454286706</v>
+        <v>5643974.7782212449</v>
       </c>
       <c r="H264">
         <v>57497</v>
@@ -7292,22 +7292,22 @@
         <v>44157</v>
       </c>
       <c r="B265">
-        <v>15675.900842213803</v>
+        <v>21597.90448879102</v>
       </c>
       <c r="C265">
-        <v>4227.0135723083449</v>
+        <v>8503.2723766365671</v>
       </c>
       <c r="D265">
-        <v>68970.739229687722</v>
+        <v>58259.590534713861</v>
       </c>
       <c r="E265">
-        <v>5003785.7420162288</v>
+        <v>5381647.2533631148</v>
       </c>
       <c r="F265">
-        <v>3514.46703303096</v>
+        <v>4639982.6494800122</v>
       </c>
       <c r="G265">
-        <v>5643288.6681694537</v>
+        <v>5643974.8008824373</v>
       </c>
       <c r="H265">
         <v>58314</v>
@@ -7318,22 +7318,22 @@
         <v>44158</v>
       </c>
       <c r="B266">
-        <v>15811.4338519344</v>
+        <v>21757.511954212328</v>
       </c>
       <c r="C266">
-        <v>4250.7150265176497</v>
+        <v>8551.8093865916962</v>
       </c>
       <c r="D266">
-        <v>69880.965013753259</v>
+        <v>58805.794501226294</v>
       </c>
       <c r="E266">
-        <v>5003814.6844198909</v>
+        <v>5381648.1923962906</v>
       </c>
       <c r="F266">
-        <v>3534.9792884709746</v>
+        <v>4640305.6394507689</v>
       </c>
       <c r="G266">
-        <v>5643288.6890506996</v>
+        <v>5643974.8220024919</v>
       </c>
       <c r="H266">
         <v>59310</v>
@@ -7344,22 +7344,22 @@
         <v>44159</v>
       </c>
       <c r="B267">
-        <v>15955.158011018806</v>
+        <v>21918.670815713991</v>
       </c>
       <c r="C267">
-        <v>4275.5353286079971</v>
+        <v>8600.2692916732449</v>
       </c>
       <c r="D267">
-        <v>70835.153422724485</v>
+        <v>59361.42487956211</v>
       </c>
       <c r="E267">
-        <v>5003842.3194336127</v>
+        <v>5381649.0772496322</v>
       </c>
       <c r="F267">
-        <v>3556.1343587592487</v>
+        <v>4640615.7582052648</v>
       </c>
       <c r="G267">
-        <v>5643288.7085678075</v>
+        <v>5643974.8417054825</v>
       </c>
       <c r="H267">
         <v>60399</v>
@@ -7370,22 +7370,22 @@
         <v>44160</v>
       </c>
       <c r="B268">
-        <v>16101.263233803407</v>
+        <v>22076.702044832931</v>
       </c>
       <c r="C268">
-        <v>4300.928852611708</v>
+        <v>8648.2787272933892</v>
       </c>
       <c r="D268">
-        <v>71793.893959242007</v>
+        <v>59906.344101691764</v>
       </c>
       <c r="E268">
-        <v>5003868.4281388773</v>
+        <v>5381649.9007045254</v>
       </c>
       <c r="F268">
-        <v>3577.1806451931579</v>
+        <v>4640908.487299528</v>
       </c>
       <c r="G268">
-        <v>5643288.7267048014</v>
+        <v>5643974.8599059349</v>
       </c>
       <c r="H268">
         <v>61479</v>
@@ -7396,22 +7396,22 @@
         <v>44161</v>
       </c>
       <c r="B269">
-        <v>16247.826421756054</v>
+        <v>22240.180709627424</v>
       </c>
       <c r="C269">
-        <v>4325.7284569132007</v>
+        <v>8697.3408692076482</v>
       </c>
       <c r="D269">
-        <v>72779.431877733805</v>
+        <v>60475.421551242762</v>
       </c>
       <c r="E269">
-        <v>5003893.355983682</v>
+        <v>5381650.6680120807</v>
       </c>
       <c r="F269">
-        <v>3598.1895334942128</v>
+        <v>4641185.1729267575</v>
       </c>
       <c r="G269">
-        <v>5643288.743610898</v>
+        <v>5643974.8767395057</v>
       </c>
       <c r="H269">
         <v>62489</v>
@@ -7422,22 +7422,22 @@
         <v>44162</v>
       </c>
       <c r="B270">
-        <v>16398.840376365155</v>
+        <v>22411.939738703259</v>
       </c>
       <c r="C270">
-        <v>4351.1564927894833</v>
+        <v>8748.1721373021464</v>
       </c>
       <c r="D270">
-        <v>73795.44605100347</v>
+        <v>61076.625434965244</v>
       </c>
       <c r="E270">
-        <v>5003916.5269048708</v>
+        <v>5381651.3893722557</v>
       </c>
       <c r="F270">
-        <v>3619.6465225527309</v>
+        <v>4641449.7406345243</v>
       </c>
       <c r="G270">
-        <v>5643288.7592075225</v>
+        <v>5643974.892420128</v>
       </c>
       <c r="H270">
         <v>63566</v>
@@ -7448,22 +7448,22 @@
         <v>44163</v>
       </c>
       <c r="B271">
-        <v>16541.861307299328</v>
+        <v>22579.76123499727</v>
       </c>
       <c r="C271">
-        <v>4375.712945404719</v>
+        <v>8798.2263593318803</v>
       </c>
       <c r="D271">
-        <v>74762.212003376044</v>
+        <v>61661.060693866428</v>
       </c>
       <c r="E271">
-        <v>5003938.5059584687</v>
+        <v>5381652.058931794</v>
       </c>
       <c r="F271">
-        <v>3640.340610933556</v>
+        <v>4641698.1559166461</v>
       </c>
       <c r="G271">
-        <v>5643288.7736155475</v>
+        <v>5643974.9068843396</v>
       </c>
       <c r="H271">
         <v>64505</v>
@@ -7474,22 +7474,22 @@
         <v>44164</v>
       </c>
       <c r="B272">
-        <v>16695.827782514149</v>
+        <v>22749.336198889105</v>
       </c>
       <c r="C272">
-        <v>4401.1901774967637</v>
+        <v>8848.3974921759018</v>
       </c>
       <c r="D272">
-        <v>75818.741765925966</v>
+        <v>62256.680670274363</v>
       </c>
       <c r="E272">
-        <v>5003959.5509616248</v>
+        <v>5381652.6885949271</v>
       </c>
       <c r="F272">
-        <v>3661.9855045587415</v>
+        <v>4641936.3691487797</v>
       </c>
       <c r="G272">
-        <v>5643288.7871376751</v>
+        <v>5643974.9203498671</v>
       </c>
       <c r="H272">
         <v>65493</v>
@@ -7500,22 +7500,22 @@
         <v>44165</v>
       </c>
       <c r="B273">
-        <v>16844.699774794793</v>
+        <v>22920.626351054438</v>
       </c>
       <c r="C273">
-        <v>4426.4002128655711</v>
+        <v>8898.737538079924</v>
       </c>
       <c r="D273">
-        <v>76824.014251281711</v>
+        <v>62861.892984014587</v>
       </c>
       <c r="E273">
-        <v>5003979.1441032374</v>
+        <v>5381653.2814955795</v>
       </c>
       <c r="F273">
-        <v>3683.1032207603321</v>
+        <v>4642165.0966117186</v>
       </c>
       <c r="G273">
-        <v>5643288.7995545873</v>
+        <v>5643974.9328996241</v>
       </c>
       <c r="H273">
         <v>66698</v>
@@ -7526,22 +7526,22 @@
         <v>44166</v>
       </c>
       <c r="B274">
-        <v>17001.237029597825</v>
+        <v>23093.680272368849</v>
       </c>
       <c r="C274">
-        <v>4452.4000584684136</v>
+        <v>8949.2894912598731</v>
       </c>
       <c r="D274">
-        <v>77899.144758561408</v>
+        <v>63474.979502171314</v>
       </c>
       <c r="E274">
-        <v>5003997.8486431334</v>
+        <v>5381653.840185116</v>
       </c>
       <c r="F274">
-        <v>3704.8904368594258</v>
+        <v>4642384.7126601348</v>
       </c>
       <c r="G274">
-        <v>5643288.8111598697</v>
+        <v>5643974.944607323</v>
       </c>
       <c r="H274">
         <v>68118</v>
@@ -7552,22 +7552,22 @@
         <v>44167</v>
       </c>
       <c r="B275">
-        <v>17159.235174166439</v>
+        <v>23265.872802506725</v>
       </c>
       <c r="C275">
-        <v>4478.7683227318512</v>
+        <v>8999.8296132630476</v>
       </c>
       <c r="D275">
-        <v>78974.011597692035</v>
+        <v>64089.327078118331</v>
       </c>
       <c r="E275">
-        <v>5004015.5162470322</v>
+        <v>5381654.3601080095</v>
       </c>
       <c r="F275">
-        <v>3726.5639648138567</v>
+        <v>4642592.0192183433</v>
       </c>
       <c r="G275">
-        <v>5643288.8219440971</v>
+        <v>5643974.9554221937</v>
       </c>
       <c r="H275">
         <v>69668</v>
@@ -7578,22 +7578,22 @@
         <v>44168</v>
       </c>
       <c r="B276">
-        <v>17320.112459880082</v>
+        <v>23440.057667391604</v>
       </c>
       <c r="C276">
-        <v>4505.1752847841999</v>
+        <v>9050.6293101431311</v>
       </c>
       <c r="D276">
-        <v>80081.6504695232</v>
+        <v>64712.301454729954</v>
       </c>
       <c r="E276">
-        <v>5004032.3904272532</v>
+        <v>5381654.844581401</v>
       </c>
       <c r="F276">
-        <v>3748.200011342672</v>
+        <v>4642787.9690295132</v>
       </c>
       <c r="G276">
-        <v>5643288.8319969689</v>
+        <v>5643974.9654248646</v>
       </c>
       <c r="H276">
         <v>71242</v>
@@ -7604,22 +7604,22 @@
         <v>44169</v>
       </c>
       <c r="B277">
-        <v>17486.06129398683</v>
+        <v>23623.495254815549</v>
       </c>
       <c r="C277">
-        <v>4532.3805376545843</v>
+        <v>9103.2100400683939</v>
       </c>
       <c r="D277">
-        <v>81221.633599329303</v>
+        <v>65374.133721680162</v>
       </c>
       <c r="E277">
-        <v>5004048.0674749929</v>
+        <v>5381655.3000489101</v>
       </c>
       <c r="F277">
-        <v>3770.2982895029631</v>
+        <v>4642975.3463256424</v>
       </c>
       <c r="G277">
-        <v>5643288.8412703732</v>
+        <v>5643974.9747424833</v>
       </c>
       <c r="H277">
         <v>72857</v>
@@ -7630,22 +7630,22 @@
         <v>44170</v>
       </c>
       <c r="B278">
-        <v>17643.178617961174</v>
+        <v>23809.800392597452</v>
       </c>
       <c r="C278">
-        <v>4558.3176965348966</v>
+        <v>9156.2199498977861</v>
       </c>
       <c r="D278">
-        <v>82306.298947831267</v>
+        <v>66050.420067420637</v>
       </c>
       <c r="E278">
-        <v>5004062.9508279506</v>
+        <v>5381655.7228153925</v>
       </c>
       <c r="F278">
-        <v>3791.6061023673328</v>
+        <v>4643151.2940167049</v>
       </c>
       <c r="G278">
-        <v>5643288.849838295</v>
+        <v>5643974.9833373446</v>
       </c>
       <c r="H278">
         <v>74306</v>
@@ -7656,22 +7656,22 @@
         <v>44171</v>
       </c>
       <c r="B279">
-        <v>17812.044788840649</v>
+        <v>23998.975588983256</v>
       </c>
       <c r="C279">
-        <v>4585.8579743749287</v>
+        <v>9209.4932314534162</v>
       </c>
       <c r="D279">
-        <v>83471.089634577511</v>
+        <v>66743.713130236967</v>
       </c>
       <c r="E279">
-        <v>5004077.1980318306</v>
+        <v>5381656.1203838503</v>
       </c>
       <c r="F279">
-        <v>3813.89940365862</v>
+        <v>4643320.0109046279</v>
       </c>
       <c r="G279">
-        <v>5643288.8578790072</v>
+        <v>5643974.9913387131</v>
       </c>
       <c r="H279">
         <v>75977</v>
@@ -7682,22 +7682,22 @@
         <v>44172</v>
       </c>
       <c r="B280">
-        <v>17974.857746490208</v>
+        <v>24189.071274492671</v>
       </c>
       <c r="C280">
-        <v>4612.6666452581285</v>
+        <v>9262.7713677149259</v>
       </c>
       <c r="D280">
-        <v>84587.140179732625</v>
+        <v>67443.79200072019</v>
       </c>
       <c r="E280">
-        <v>5004090.4656374892</v>
+        <v>5381656.494740081</v>
       </c>
       <c r="F280">
-        <v>3835.6442256202881</v>
+        <v>4643482.0118774287</v>
       </c>
       <c r="G280">
-        <v>5643288.8652628204</v>
+        <v>5643974.9987959135</v>
       </c>
       <c r="H280">
         <v>78286</v>
@@ -7708,22 +7708,22 @@
         <v>44173</v>
       </c>
       <c r="B281">
-        <v>18147.030529739844</v>
+        <v>24381.004674044234</v>
       </c>
       <c r="C281">
-        <v>4640.394607435438</v>
+        <v>9316.5147651205843</v>
       </c>
       <c r="D281">
-        <v>85791.115297143973</v>
+        <v>68150.828332136007</v>
       </c>
       <c r="E281">
-        <v>5004103.129088195</v>
+        <v>5381656.8474939829</v>
       </c>
       <c r="F281">
-        <v>3858.08633109415</v>
+        <v>4643637.5607792297</v>
       </c>
       <c r="G281">
-        <v>5643288.8721637223</v>
+        <v>5643975.0057527423</v>
       </c>
       <c r="H281">
         <v>80890</v>
@@ -7734,22 +7734,22 @@
         <v>44174</v>
       </c>
       <c r="B282">
-        <v>18318.841784105425</v>
+        <v>24570.583651589819</v>
       </c>
       <c r="C282">
-        <v>4668.0670379336143</v>
+        <v>9369.6146100616879</v>
       </c>
       <c r="D282">
-        <v>86992.091808589073</v>
+        <v>68853.678009284195</v>
       </c>
       <c r="E282">
-        <v>5004115.0878148228</v>
+        <v>5381657.1757706497</v>
       </c>
       <c r="F282">
-        <v>3880.4096315697393</v>
+        <v>4643784.3938777503</v>
       </c>
       <c r="G282">
-        <v>5643288.8785761502</v>
+        <v>5643975.0121790376</v>
       </c>
       <c r="H282">
         <v>83500</v>
@@ -7760,22 +7760,22 @@
         <v>44175</v>
       </c>
       <c r="B283">
-        <v>18492.253854836352</v>
+        <v>24765.161673132799</v>
       </c>
       <c r="C283">
-        <v>4695.7674467170527</v>
+        <v>9423.3770620296236</v>
       </c>
       <c r="D283">
-        <v>88209.354055351025</v>
+        <v>69580.470310143413</v>
       </c>
       <c r="E283">
-        <v>5004126.5133703342</v>
+        <v>5381657.4816655638</v>
       </c>
       <c r="F283">
-        <v>3902.6954073175184</v>
+        <v>4643923.1857152078</v>
       </c>
       <c r="G283">
-        <v>5643288.8845540229</v>
+        <v>5643975.0181227252</v>
       </c>
       <c r="H283">
         <v>86181</v>
@@ -7786,22 +7786,22 @@
         <v>44176</v>
       </c>
       <c r="B284">
-        <v>18670.892309300194</v>
+        <v>24963.764035012271</v>
       </c>
       <c r="C284">
-        <v>4724.2341040894098</v>
+        <v>9478.1732822773411</v>
       </c>
       <c r="D284">
-        <v>89461.527910707795</v>
+        <v>70322.182987876731</v>
       </c>
       <c r="E284">
-        <v>5004137.1229304094</v>
+        <v>5381657.769249374</v>
       </c>
       <c r="F284">
-        <v>3925.4579722406033</v>
+        <v>4644055.9114082158</v>
       </c>
       <c r="G284">
-        <v>5643288.8900679043</v>
+        <v>5643975.0236593736</v>
       </c>
       <c r="H284">
         <v>88892</v>
@@ -7812,22 +7812,22 @@
         <v>44177</v>
       </c>
       <c r="B285">
-        <v>18847.957908152548</v>
+        <v>25160.893326443034</v>
       </c>
       <c r="C285">
-        <v>4751.6599385976251</v>
+        <v>9532.6598200244243</v>
       </c>
       <c r="D285">
-        <v>90739.022659639581</v>
+        <v>71056.82811336944</v>
       </c>
       <c r="E285">
-        <v>5004147.204080902</v>
+        <v>5381658.0361893475</v>
       </c>
       <c r="F285">
-        <v>3947.4015097558486</v>
+        <v>4644180.547525106</v>
       </c>
       <c r="G285">
-        <v>5643288.8951630499</v>
+        <v>5643975.0287665753</v>
       </c>
       <c r="H285">
         <v>91436</v>
@@ -7838,22 +7838,22 @@
         <v>44178</v>
       </c>
       <c r="B286">
-        <v>19040.135015370142</v>
+        <v>25360.194751328367</v>
       </c>
       <c r="C286">
-        <v>4781.3208665819193</v>
+        <v>9587.3417080685686</v>
       </c>
       <c r="D286">
-        <v>92119.649400080947</v>
+        <v>71805.632936200796</v>
       </c>
       <c r="E286">
-        <v>5004156.8518190058</v>
+        <v>5381658.2872144934</v>
       </c>
       <c r="F286">
-        <v>3970.3664840564475</v>
+        <v>4644300.0574440816</v>
       </c>
       <c r="G286">
-        <v>5643288.8999444367</v>
+        <v>5643975.0335210813</v>
       </c>
       <c r="H286">
         <v>94125</v>
@@ -7864,22 +7864,22 @@
         <v>44179</v>
       </c>
       <c r="B287">
-        <v>19226.963092380574</v>
+        <v>25568.78947945129</v>
       </c>
       <c r="C287">
-        <v>4810.3768102506601</v>
+        <v>9643.9039992565886</v>
       </c>
       <c r="D287">
-        <v>93452.176907357483</v>
+        <v>72597.088713020406</v>
       </c>
       <c r="E287">
-        <v>5004165.8384457175</v>
+        <v>5381658.5235830955</v>
       </c>
       <c r="F287">
-        <v>3992.7608185908675</v>
+        <v>4644414.81134737</v>
       </c>
       <c r="G287">
-        <v>5643288.9043353796</v>
+        <v>5643975.0379522331</v>
       </c>
       <c r="H287">
         <v>97345</v>
@@ -7890,22 +7890,22 @@
         <v>44180</v>
       </c>
       <c r="B288">
-        <v>19424.522396586803</v>
+        <v>25784.777722444131</v>
       </c>
       <c r="C288">
-        <v>4840.5525438414943</v>
+        <v>9701.9480752036179</v>
       </c>
       <c r="D288">
-        <v>94881.485672788491</v>
+        <v>73422.571608495287</v>
       </c>
       <c r="E288">
-        <v>5004174.4141887352</v>
+        <v>5381658.7463110024</v>
       </c>
       <c r="F288">
-        <v>4015.8813631947378</v>
+        <v>4644524.995226183</v>
       </c>
       <c r="G288">
-        <v>5643288.9084389871</v>
+        <v>5643975.0420860499</v>
       </c>
       <c r="H288">
         <v>100831</v>
@@ -7916,22 +7916,22 @@
         <v>44181</v>
       </c>
       <c r="B289">
-        <v>19623.257408840647</v>
+        <v>26000.30963301556</v>
       </c>
       <c r="C289">
-        <v>4870.8271305407061</v>
+        <v>9759.253385634629</v>
       </c>
       <c r="D289">
-        <v>96324.63636406984</v>
+        <v>74253.308547140099</v>
       </c>
       <c r="E289">
-        <v>5004182.5108209308</v>
+        <v>5381658.953583912</v>
       </c>
       <c r="F289">
-        <v>4038.8777645482182</v>
+        <v>4644629.0066182399</v>
       </c>
       <c r="G289">
-        <v>5643288.9122519763</v>
+        <v>5643975.0459046159</v>
       </c>
       <c r="H289">
         <v>104471</v>
@@ -7942,22 +7942,22 @@
         <v>44182</v>
       </c>
       <c r="B290">
-        <v>19825.31412450031</v>
+        <v>26220.982581403066</v>
       </c>
       <c r="C290">
-        <v>4901.3023361762644</v>
+        <v>9817.6309976689627</v>
       </c>
       <c r="D290">
-        <v>97798.426632274321</v>
+        <v>75108.792764882543</v>
       </c>
       <c r="E290">
-        <v>5004190.2491303878</v>
+        <v>5381659.1467255875</v>
       </c>
       <c r="F290">
-        <v>4061.8366406097593</v>
+        <v>4644727.3232352417</v>
       </c>
       <c r="G290">
-        <v>5643288.915806761</v>
+        <v>5643975.0494364174</v>
       </c>
       <c r="H290">
         <v>107474</v>
@@ -7968,22 +7968,22 @@
         <v>44183</v>
       </c>
       <c r="B291">
-        <v>20034.011072941728</v>
+        <v>26449.563649991302</v>
       </c>
       <c r="C291">
-        <v>4932.7593372208976</v>
+        <v>9877.7618963527111</v>
       </c>
       <c r="D291">
-        <v>99320.127148746484</v>
+        <v>75998.923840985852</v>
       </c>
       <c r="E291">
-        <v>5004197.4310460892</v>
+        <v>5381659.3283076016</v>
       </c>
       <c r="F291">
-        <v>4085.2873017559341</v>
+        <v>4644821.3463999219</v>
       </c>
       <c r="G291">
-        <v>5643288.919085335</v>
+        <v>5643975.0527263656</v>
       </c>
       <c r="H291">
         <v>110056</v>
@@ -7994,22 +7994,22 @@
         <v>44184</v>
       </c>
       <c r="B292">
-        <v>20232.53841092272</v>
+        <v>26678.029274822791</v>
       </c>
       <c r="C292">
-        <v>4962.21920930325</v>
+        <v>9937.8552392982529</v>
       </c>
       <c r="D292">
-        <v>100788.82300932585</v>
+        <v>76888.305541969778</v>
       </c>
       <c r="E292">
-        <v>5004204.2612674329</v>
+        <v>5381659.4968573051</v>
       </c>
       <c r="F292">
-        <v>4107.8893401004725</v>
+        <v>4644909.6430153847</v>
       </c>
       <c r="G292">
-        <v>5643288.9221153716</v>
+        <v>5643975.0557611473</v>
       </c>
       <c r="H292">
         <v>112296</v>
@@ -8020,22 +8020,22 @@
         <v>44185</v>
       </c>
       <c r="B293">
-        <v>20446.31983038862</v>
+        <v>26910.811151829599</v>
       </c>
       <c r="C293">
-        <v>4993.3728486676118</v>
+        <v>9998.4419199645927</v>
       </c>
       <c r="D293">
-        <v>102393.31711037189</v>
+        <v>77803.217489395422</v>
       </c>
       <c r="E293">
-        <v>5004210.7961032204</v>
+        <v>5381659.6553553129</v>
       </c>
       <c r="F293">
-        <v>4131.5500742426657</v>
+        <v>4644994.3048102409</v>
       </c>
       <c r="G293">
-        <v>5643288.9249586752</v>
+        <v>5643975.0585863311</v>
       </c>
       <c r="H293">
         <v>114359</v>
@@ -8046,22 +8046,22 @@
         <v>44186</v>
       </c>
       <c r="B294">
-        <v>20664.438929887212</v>
+        <v>27143.694134789563</v>
       </c>
       <c r="C294">
-        <v>5023.2858892620807</v>
+        <v>10058.874003747858</v>
       </c>
       <c r="D294">
-        <v>104122.18551675035</v>
+        <v>78721.503837730823</v>
       </c>
       <c r="E294">
-        <v>5004216.8846656261</v>
+        <v>5381659.8045989219</v>
       </c>
       <c r="F294">
-        <v>4154.617115476156</v>
+        <v>4645075.5979441274</v>
       </c>
       <c r="G294">
-        <v>5643288.9275699025</v>
+        <v>5643975.0612193737</v>
       </c>
       <c r="H294">
         <v>116945</v>
@@ -8072,22 +8072,22 @@
         <v>44187</v>
       </c>
       <c r="B295">
-        <v>20894.916561631908</v>
+        <v>27379.915522053016</v>
       </c>
       <c r="C295">
-        <v>5054.0853785743066</v>
+        <v>10119.961227216121</v>
       </c>
       <c r="D295">
-        <v>105991.85462288406</v>
+        <v>79655.158839785319</v>
       </c>
       <c r="E295">
-        <v>5004222.693708281</v>
+        <v>5381659.9452291345</v>
       </c>
       <c r="F295">
-        <v>4178.4404823776513</v>
+        <v>4645153.6535442546</v>
       </c>
       <c r="G295">
-        <v>5643288.9300101614</v>
+        <v>5643975.0636757296</v>
       </c>
       <c r="H295">
         <v>119343</v>
@@ -8098,22 +8098,22 @@
         <v>44188</v>
       </c>
       <c r="B296">
-        <v>21126.897177234423</v>
+        <v>27620.006961505631</v>
       </c>
       <c r="C296">
-        <v>5084.7408061454362</v>
+        <v>10179.284834922615</v>
       </c>
       <c r="D296">
-        <v>107902.33877214996</v>
+        <v>80645.307170893677</v>
       </c>
       <c r="E296">
-        <v>5004228.1769160945</v>
+        <v>5381660.0761009771</v>
       </c>
       <c r="F296">
-        <v>4202.134137199133</v>
+        <v>4645227.3372008931</v>
       </c>
       <c r="G296">
-        <v>5643288.9322775109</v>
+        <v>5643975.0659447592</v>
       </c>
       <c r="H296">
         <v>121903</v>
@@ -8124,22 +8124,22 @@
         <v>44189</v>
       </c>
       <c r="B297">
-        <v>21365.450417272135</v>
+        <v>27863.505865956264</v>
       </c>
       <c r="C297">
-        <v>5115.8926604231674</v>
+        <v>10238.892434191472</v>
       </c>
       <c r="D297">
-        <v>109866.29054284749</v>
+        <v>81656.348461577756</v>
       </c>
       <c r="E297">
-        <v>5004233.4192870911</v>
+        <v>5381660.1980507113</v>
       </c>
       <c r="F297">
-        <v>4225.7903117762316</v>
+        <v>4645296.9873029841</v>
       </c>
       <c r="G297">
-        <v>5643288.9343914371</v>
+        <v>5643975.0680433931</v>
       </c>
       <c r="H297">
         <v>123129</v>
@@ -8150,22 +8150,22 @@
         <v>44190</v>
       </c>
       <c r="B298">
-        <v>21611.473540893698</v>
+        <v>28114.015583363707</v>
       </c>
       <c r="C298">
-        <v>5147.4712229253482</v>
+        <v>10299.774811292329</v>
       </c>
       <c r="D298">
-        <v>111928.75494629912</v>
+        <v>82701.71587314416</v>
       </c>
       <c r="E298">
-        <v>5004238.2821501112</v>
+        <v>5381660.3127028896</v>
       </c>
       <c r="F298">
-        <v>4249.9537176528984</v>
+        <v>4645363.5981663354</v>
       </c>
       <c r="G298">
-        <v>5643288.9363409337</v>
+        <v>5643975.069998323</v>
       </c>
       <c r="H298">
         <v>124501</v>
@@ -8176,22 +8176,22 @@
         <v>44191</v>
       </c>
       <c r="B299">
-        <v>21860.688551301177</v>
+        <v>28368.592607656341</v>
       </c>
       <c r="C299">
-        <v>5178.0647178136278</v>
+        <v>10361.268979336015</v>
       </c>
       <c r="D299">
-        <v>114093.64144240688</v>
+        <v>83769.642692179448</v>
       </c>
       <c r="E299">
-        <v>5004242.9110079063</v>
+        <v>5381660.4191278359</v>
       </c>
       <c r="F299">
-        <v>4273.2378350211684</v>
+        <v>4645426.1547610257</v>
       </c>
       <c r="G299">
-        <v>5643288.9381429106</v>
+        <v>5643975.071801641</v>
       </c>
       <c r="H299">
         <v>126725</v>
@@ -8202,22 +8202,22 @@
         <v>44192</v>
       </c>
       <c r="B300">
-        <v>22130.955071758282</v>
+        <v>28625.727766500691</v>
       </c>
       <c r="C300">
-        <v>5210.5771644382658</v>
+        <v>10422.539382930532</v>
       </c>
       <c r="D300">
-        <v>116466.44291538036</v>
+        <v>84861.820692777444</v>
       </c>
       <c r="E300">
-        <v>5004247.3384853257</v>
+        <v>5381660.5192041779</v>
       </c>
       <c r="F300">
-        <v>4297.6192648921142</v>
+        <v>4645486.1336869411</v>
       </c>
       <c r="G300">
-        <v>5643288.93983375</v>
+        <v>5643975.0734804003</v>
       </c>
       <c r="H300">
         <v>128493</v>
